--- a/Sensitivity Analysis.xlsx
+++ b/Sensitivity Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eashwar\Desktop\ENSE\ENSE622\Final Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782F7B3E-668B-4A30-A8F4-2ED34A251B07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7940711F-7C42-41E9-A04F-DB23255869B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0352C288-3703-4171-8A0F-C906E828E2CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
   <si>
     <t>Low =&gt; Good</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Vc</t>
   </si>
   <si>
-    <t>Factor Uncertainties Table for Design 4</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>MAVF Analysis Table for Design 4 for unceretainties in Cost (C), Tech Value (T), Rc and Rtv</t>
-  </si>
-  <si>
     <t>When Cost is Low</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>When Rc is High</t>
   </si>
   <si>
-    <t>MAVF Single Factor Uncertainty table for Design Factor 4</t>
-  </si>
-  <si>
     <t>Low Fi</t>
   </si>
   <si>
@@ -294,6 +285,24 @@
   </si>
   <si>
     <t>Rmft</t>
+  </si>
+  <si>
+    <t>Sensitivity Analysis Part - A</t>
+  </si>
+  <si>
+    <t>Sensitivity Analysis Part - B</t>
+  </si>
+  <si>
+    <t>Factor Uncertainties Table for Design  Factors</t>
+  </si>
+  <si>
+    <t>Factor Uncertainties Table for Ranks</t>
+  </si>
+  <si>
+    <t>MAVF values from Sensitivity Analysis-B</t>
+  </si>
+  <si>
+    <t>MAVF values from Sensitivity Analysis-A</t>
   </si>
 </sst>
 </file>
@@ -656,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -683,7 +692,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -700,12 +708,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -867,26 +869,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2451,10 +2455,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2590800" cy="676275"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2472,7 +2476,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17506950" y="4419600"/>
+              <a:off x="22774275" y="5305425"/>
               <a:ext cx="2590800" cy="676275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2572,7 +2576,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17506950" y="4419600"/>
+              <a:off x="22774275" y="5305425"/>
               <a:ext cx="2590800" cy="676275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2617,16 +2621,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2655,10 +2659,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2590800" cy="723899"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2676,7 +2680,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17573625" y="5210175"/>
+              <a:off x="22783800" y="6076950"/>
               <a:ext cx="2590800" cy="723899"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2776,7 +2780,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17573625" y="5210175"/>
+              <a:off x="22783800" y="6076950"/>
               <a:ext cx="2590800" cy="723899"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2821,12 +2825,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1390650</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6810375" cy="723900"/>
+    <xdr:ext cx="6915150" cy="1971675"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -2842,8 +2846,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17287875" y="7696200"/>
-              <a:ext cx="6810375" cy="723900"/>
+              <a:off x="20164425" y="7658100"/>
+              <a:ext cx="6915150" cy="1971675"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3197,8 +3201,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17287875" y="7696200"/>
-              <a:ext cx="6810375" cy="723900"/>
+              <a:off x="20164425" y="7658100"/>
+              <a:ext cx="6915150" cy="1971675"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3254,10 +3258,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2590800" cy="723899"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3275,7 +3279,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17687925" y="6829425"/>
+              <a:off x="22860000" y="7591425"/>
               <a:ext cx="2590800" cy="723899"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3375,7 +3379,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17687925" y="6829425"/>
+              <a:off x="22860000" y="7591425"/>
               <a:ext cx="2590800" cy="723899"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3420,10 +3424,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2590800" cy="723899"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3441,7 +3445,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17697450" y="6124575"/>
+              <a:off x="22802850" y="6877050"/>
               <a:ext cx="2590800" cy="723899"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3541,7 +3545,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="17697450" y="6124575"/>
+              <a:off x="22802850" y="6877050"/>
               <a:ext cx="2590800" cy="723899"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3955,10 +3959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E092A5B7-1CD1-4569-A0AD-62083D236086}">
-  <dimension ref="A1:S90"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3981,40 +3985,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="A1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -4023,74 +4027,74 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="46" t="s">
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="47" t="s">
-        <v>40</v>
+      <c r="K3" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>37</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="58" t="s">
+      <c r="R3" s="55" t="s">
         <v>8</v>
       </c>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="23">
-        <v>100</v>
-      </c>
-      <c r="C4" s="23">
-        <v>100</v>
-      </c>
-      <c r="D4" s="23">
+        <v>33</v>
+      </c>
+      <c r="B4" s="20">
+        <v>100</v>
+      </c>
+      <c r="C4" s="20">
+        <v>100</v>
+      </c>
+      <c r="D4" s="20">
         <v>100</v>
       </c>
       <c r="E4" s="5">
         <v>100</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="G4" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="5">
         <v>100</v>
       </c>
@@ -4104,13 +4108,13 @@
         <v>100</v>
       </c>
       <c r="N4" s="4"/>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="20" t="s">
         <v>9</v>
       </c>
       <c r="P4" s="3">
         <v>25</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="20" t="s">
         <v>10</v>
       </c>
       <c r="R4" s="5">
@@ -4121,26 +4125,26 @@
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="23">
-        <v>100</v>
-      </c>
-      <c r="C5" s="23">
-        <v>100</v>
-      </c>
-      <c r="D5" s="23">
+        <v>34</v>
+      </c>
+      <c r="B5" s="20">
+        <v>100</v>
+      </c>
+      <c r="C5" s="20">
+        <v>100</v>
+      </c>
+      <c r="D5" s="20">
         <v>100</v>
       </c>
       <c r="E5" s="5">
         <v>100</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="G5" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="5">
         <v>100</v>
       </c>
@@ -4154,14 +4158,14 @@
         <v>100</v>
       </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="23" t="s">
-        <v>53</v>
+      <c r="O5" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="P5" s="3">
         <v>25</v>
       </c>
-      <c r="Q5" s="23" t="s">
-        <v>56</v>
+      <c r="Q5" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="R5" s="5">
         <f xml:space="preserve"> P5/(P5+P8)</f>
@@ -4171,26 +4175,26 @@
     </row>
     <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="23">
-        <v>100</v>
-      </c>
-      <c r="C6" s="23">
-        <v>100</v>
-      </c>
-      <c r="D6" s="23">
+        <v>35</v>
+      </c>
+      <c r="B6" s="20">
+        <v>100</v>
+      </c>
+      <c r="C6" s="20">
+        <v>100</v>
+      </c>
+      <c r="D6" s="20">
         <v>100</v>
       </c>
       <c r="E6" s="5">
         <v>100</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
+      <c r="G6" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="5">
         <v>100</v>
       </c>
@@ -4204,14 +4208,14 @@
         <v>100</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="23" t="s">
-        <v>54</v>
+      <c r="O6" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="P6" s="3">
         <v>25</v>
       </c>
-      <c r="Q6" s="23" t="s">
-        <v>57</v>
+      <c r="Q6" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="R6" s="5">
         <f xml:space="preserve"> P6/(P6+P8)</f>
@@ -4221,7 +4225,7 @@
     </row>
     <row r="7" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="7">
         <v>100</v>
@@ -4236,11 +4240,11 @@
         <v>100</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="G7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="5">
         <v>100</v>
       </c>
@@ -4254,14 +4258,14 @@
         <v>100</v>
       </c>
       <c r="N7" s="4"/>
-      <c r="O7" s="23" t="s">
-        <v>55</v>
+      <c r="O7" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="P7" s="6">
         <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R7" s="8">
         <f xml:space="preserve"> P7/(P7+P8)</f>
@@ -4270,17 +4274,17 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="G8" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
       <c r="J8" s="5">
         <v>100</v>
       </c>
@@ -4293,28 +4297,28 @@
       <c r="M8" s="5">
         <v>100</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="O8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="29">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="P8" s="26">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="G9" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="5">
         <v>100</v>
       </c>
@@ -4332,17 +4336,17 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="G10" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="5">
         <v>100</v>
       </c>
@@ -4366,11 +4370,11 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="G11" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="5">
         <v>100</v>
       </c>
@@ -4383,11 +4387,11 @@
       <c r="M11" s="5">
         <v>100</v>
       </c>
-      <c r="Q11" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
+      <c r="Q11" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -4396,11 +4400,11 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="G12" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="5">
         <v>100</v>
       </c>
@@ -4416,11 +4420,11 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
+      <c r="Q12" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
     </row>
     <row r="13" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -4429,11 +4433,11 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="G13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="5">
         <v>100</v>
       </c>
@@ -4449,11 +4453,11 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="35" t="s">
+      <c r="Q13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
     </row>
     <row r="14" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -4462,11 +4466,11 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="G14" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
       <c r="J14" s="5">
         <v>100</v>
       </c>
@@ -4482,11 +4486,11 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="35" t="s">
+      <c r="Q14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -4495,11 +4499,11 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="G15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="5">
         <v>100</v>
       </c>
@@ -4515,11 +4519,11 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="35" t="s">
+      <c r="Q15" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
     </row>
     <row r="16" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
@@ -4528,11 +4532,11 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="G16" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="8">
         <v>100</v>
       </c>
@@ -4548,11 +4552,11 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
+      <c r="Q16" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
     </row>
     <row r="17" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
@@ -4561,8 +4565,8 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -4570,245 +4574,234 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
+      <c r="Q17" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="62"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="59"/>
       <c r="M18" s="1"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
+      <c r="Q18" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
     </row>
     <row r="19" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20">
         <f>(P4)/(P4+P5)</f>
         <v>0.5</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
     </row>
     <row r="21" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="60" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="60"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
+      <c r="K21" s="57"/>
     </row>
     <row r="22" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="16" t="s">
+      <c r="G22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="64"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
+      <c r="J22" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="61"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
     </row>
     <row r="23" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="23">
-        <v>100</v>
-      </c>
-      <c r="C23" s="23">
-        <v>100</v>
-      </c>
-      <c r="D23" s="23">
-        <v>100</v>
-      </c>
-      <c r="E23" s="23">
-        <v>100</v>
-      </c>
-      <c r="F23" s="23">
+        <v>33</v>
+      </c>
+      <c r="B23" s="20">
+        <v>100</v>
+      </c>
+      <c r="C23" s="20">
+        <v>100</v>
+      </c>
+      <c r="D23" s="20">
+        <v>100</v>
+      </c>
+      <c r="E23" s="20">
+        <v>100</v>
+      </c>
+      <c r="F23" s="20">
         <f xml:space="preserve"> (B9 - B23)/(B9 - B4)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="60">
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="57">
         <f>SUM(F20*F23,K20*K23)</f>
         <v>0.5</v>
       </c>
-      <c r="K23" s="60"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
+      <c r="K23" s="57"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
     </row>
     <row r="24" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="23">
-        <v>100</v>
-      </c>
-      <c r="C24" s="23">
-        <v>100</v>
-      </c>
-      <c r="D24" s="23">
-        <v>100</v>
-      </c>
-      <c r="E24" s="23">
-        <v>100</v>
-      </c>
-      <c r="F24" s="23">
+        <v>34</v>
+      </c>
+      <c r="B24" s="20">
+        <v>100</v>
+      </c>
+      <c r="C24" s="20">
+        <v>100</v>
+      </c>
+      <c r="D24" s="20">
+        <v>100</v>
+      </c>
+      <c r="E24" s="20">
+        <v>100</v>
+      </c>
+      <c r="F24" s="20">
         <f xml:space="preserve"> (B9 - B24)/(B9 - B4)</f>
         <v>1</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="60">
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="57">
         <f>SUM(F20*F24,K20*K24)</f>
         <v>0.5</v>
       </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
+      <c r="K24" s="57"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
     </row>
     <row r="25" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="23">
-        <v>100</v>
-      </c>
-      <c r="C25" s="23">
-        <v>100</v>
-      </c>
-      <c r="D25" s="23">
-        <v>100</v>
-      </c>
-      <c r="E25" s="23">
-        <v>100</v>
-      </c>
-      <c r="F25" s="23">
+        <v>35</v>
+      </c>
+      <c r="B25" s="20">
+        <v>100</v>
+      </c>
+      <c r="C25" s="20">
+        <v>100</v>
+      </c>
+      <c r="D25" s="20">
+        <v>100</v>
+      </c>
+      <c r="E25" s="20">
+        <v>100</v>
+      </c>
+      <c r="F25" s="20">
         <f xml:space="preserve"> (B9 - B25)/(B9 - B4)</f>
         <v>1</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="60">
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="57">
         <f>SUM(F20*F25,K20*K25)</f>
         <v>0.5</v>
       </c>
-      <c r="K25" s="60"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
+      <c r="K25" s="57"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
     </row>
     <row r="26" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B26" s="7">
         <v>100</v>
@@ -4828,322 +4821,341 @@
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="45">
+      <c r="I26" s="54"/>
+      <c r="J26" s="42">
         <f>SUM(F20*F26,K20*K26)</f>
         <v>0.5</v>
       </c>
-      <c r="K26" s="61"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
+      <c r="K26" s="58"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
     </row>
     <row r="27" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
     </row>
     <row r="28" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
     </row>
     <row r="29" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-    </row>
-    <row r="33" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="48" t="s">
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+    </row>
+    <row r="33" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="68"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+    </row>
+    <row r="34" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="51"/>
+      <c r="C34" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-    </row>
-    <row r="34" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="53" t="s">
+      <c r="D34" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="72" t="s">
+      <c r="H34" s="51"/>
+      <c r="I34" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="K34" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-    </row>
-    <row r="35" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="65" t="s">
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+    </row>
+    <row r="35" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="23">
+      <c r="B35" s="63"/>
+      <c r="C35" s="20">
         <v>30</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="20">
         <v>30</v>
       </c>
       <c r="E35" s="5">
         <v>30</v>
       </c>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-    </row>
-    <row r="36" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="23">
+      <c r="G35" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="63"/>
+      <c r="I35" s="20">
         <v>30</v>
       </c>
-      <c r="D36" s="23">
+      <c r="J35" s="20">
+        <v>30</v>
+      </c>
+      <c r="K35" s="5">
+        <v>30</v>
+      </c>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+    </row>
+    <row r="36" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="63"/>
+      <c r="C36" s="20">
+        <v>30</v>
+      </c>
+      <c r="D36" s="20">
         <v>30</v>
       </c>
       <c r="E36" s="5">
         <v>30</v>
       </c>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-    </row>
-    <row r="37" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="23">
+      <c r="G36" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="63"/>
+      <c r="I36" s="20">
         <v>30</v>
       </c>
-      <c r="D37" s="23">
+      <c r="J36" s="20">
+        <v>30</v>
+      </c>
+      <c r="K36" s="5">
+        <v>30</v>
+      </c>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+    </row>
+    <row r="37" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="63"/>
+      <c r="C37" s="20">
+        <v>30</v>
+      </c>
+      <c r="D37" s="20">
         <v>30</v>
       </c>
       <c r="E37" s="5">
         <v>30</v>
       </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-    </row>
-    <row r="38" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="23">
+      <c r="G37" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="63"/>
+      <c r="I37" s="20">
         <v>30</v>
       </c>
-      <c r="D38" s="23">
+      <c r="J37" s="20">
         <v>30</v>
       </c>
-      <c r="E38" s="5">
+      <c r="K37" s="5">
         <v>30</v>
       </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-    </row>
-    <row r="39" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="23">
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+    </row>
+    <row r="38" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="65"/>
+      <c r="C38" s="7">
         <v>30</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D38" s="7">
         <v>30</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E38" s="8">
         <v>30</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="L39" s="28"/>
+      <c r="G38" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="65"/>
+      <c r="I38" s="7">
+        <v>30</v>
+      </c>
+      <c r="J38" s="7">
+        <v>30</v>
+      </c>
+      <c r="K38" s="8">
+        <v>30</v>
+      </c>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+    </row>
+    <row r="39" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F39" s="20"/>
+      <c r="L39" s="25"/>
       <c r="M39" s="28"/>
       <c r="N39" s="28"/>
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
-    </row>
-    <row r="40" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="23">
-        <v>30</v>
-      </c>
-      <c r="D40" s="23">
-        <v>30</v>
-      </c>
-      <c r="E40" s="5">
-        <v>30</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="L40" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+    </row>
+    <row r="40" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F40" s="20"/>
+      <c r="L40" s="25"/>
       <c r="M40" s="28"/>
       <c r="N40" s="28"/>
       <c r="O40" s="28"/>
       <c r="P40" s="28"/>
-    </row>
-    <row r="41" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="23">
-        <v>30</v>
-      </c>
-      <c r="D41" s="23">
-        <v>30</v>
-      </c>
-      <c r="E41" s="5">
-        <v>30</v>
-      </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="L41" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+    </row>
+    <row r="41" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F41" s="20"/>
+      <c r="L41" s="25"/>
       <c r="M41" s="28"/>
       <c r="N41" s="28"/>
       <c r="O41" s="28"/>
       <c r="P41" s="28"/>
-    </row>
-    <row r="42" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="7">
-        <v>30</v>
-      </c>
-      <c r="D42" s="7">
-        <v>30</v>
-      </c>
-      <c r="E42" s="8">
-        <v>30</v>
-      </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-    </row>
-    <row r="43" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-    </row>
-    <row r="44" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+    </row>
+    <row r="42" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F42" s="20"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+    </row>
+    <row r="43" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+    </row>
+    <row r="44" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -5153,7 +5165,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -5163,1229 +5175,1394 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="11"/>
+    <row r="46" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="10"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="74"/>
-    </row>
-    <row r="47" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="14"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="75"/>
-    </row>
-    <row r="48" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="53" t="s">
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="71"/>
+    </row>
+    <row r="47" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="13"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="72"/>
+    </row>
+    <row r="48" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="16" t="s">
+      <c r="B48" s="51"/>
+      <c r="C48" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G48" s="16" t="s">
+      <c r="J48" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O48" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P48" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q48" s="61"/>
+    </row>
+    <row r="49" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="39"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="74">
+        <v>0</v>
+      </c>
+      <c r="E49" s="74">
+        <v>0</v>
+      </c>
+      <c r="F49" s="74">
+        <v>0</v>
+      </c>
+      <c r="G49" s="74">
+        <v>0</v>
+      </c>
+      <c r="H49" s="74">
+        <v>0</v>
+      </c>
+      <c r="I49" s="74">
+        <v>0</v>
+      </c>
+      <c r="J49" s="74">
+        <v>0</v>
+      </c>
+      <c r="K49" s="74">
+        <v>0</v>
+      </c>
+      <c r="L49" s="74">
+        <v>0</v>
+      </c>
+      <c r="M49" s="74">
+        <v>0</v>
+      </c>
+      <c r="N49" s="74">
+        <v>0</v>
+      </c>
+      <c r="O49" s="74">
+        <v>0</v>
+      </c>
+      <c r="P49" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="74">
+        <v>0</v>
+      </c>
+      <c r="E50" s="74">
+        <v>0</v>
+      </c>
+      <c r="F50" s="74">
+        <v>0</v>
+      </c>
+      <c r="G50" s="74">
+        <v>0</v>
+      </c>
+      <c r="H50" s="74">
+        <v>0</v>
+      </c>
+      <c r="I50" s="74">
+        <v>0</v>
+      </c>
+      <c r="J50" s="74">
+        <v>0</v>
+      </c>
+      <c r="K50" s="74">
+        <v>0</v>
+      </c>
+      <c r="L50" s="74">
+        <v>0</v>
+      </c>
+      <c r="M50" s="74">
+        <v>0</v>
+      </c>
+      <c r="N50" s="74">
+        <v>0</v>
+      </c>
+      <c r="O50" s="74">
+        <v>0</v>
+      </c>
+      <c r="P50" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="39"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="74">
+        <v>0</v>
+      </c>
+      <c r="E51" s="74">
+        <v>0</v>
+      </c>
+      <c r="F51" s="74">
+        <v>0</v>
+      </c>
+      <c r="G51" s="74">
+        <v>0</v>
+      </c>
+      <c r="H51" s="74">
+        <v>0</v>
+      </c>
+      <c r="I51" s="74">
+        <v>0</v>
+      </c>
+      <c r="J51" s="74">
+        <v>0</v>
+      </c>
+      <c r="K51" s="74">
+        <v>0</v>
+      </c>
+      <c r="L51" s="74">
+        <v>0</v>
+      </c>
+      <c r="M51" s="74">
+        <v>0</v>
+      </c>
+      <c r="N51" s="74">
+        <v>0</v>
+      </c>
+      <c r="O51" s="74">
+        <v>0</v>
+      </c>
+      <c r="P51" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="74">
+        <v>0</v>
+      </c>
+      <c r="E52" s="74">
+        <v>0</v>
+      </c>
+      <c r="F52" s="74">
+        <v>0</v>
+      </c>
+      <c r="G52" s="74">
+        <v>0</v>
+      </c>
+      <c r="H52" s="74">
+        <v>0</v>
+      </c>
+      <c r="I52" s="74">
+        <v>0</v>
+      </c>
+      <c r="J52" s="74">
+        <v>0</v>
+      </c>
+      <c r="K52" s="74">
+        <v>0</v>
+      </c>
+      <c r="L52" s="74">
+        <v>0</v>
+      </c>
+      <c r="M52" s="74">
+        <v>0</v>
+      </c>
+      <c r="N52" s="74">
+        <v>0</v>
+      </c>
+      <c r="O52" s="74">
+        <v>0</v>
+      </c>
+      <c r="P52" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="39"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="74">
+        <v>0</v>
+      </c>
+      <c r="E53" s="74">
+        <v>0</v>
+      </c>
+      <c r="F53" s="74">
+        <v>0</v>
+      </c>
+      <c r="G53" s="74">
+        <v>0</v>
+      </c>
+      <c r="H53" s="74">
+        <v>0</v>
+      </c>
+      <c r="I53" s="74">
+        <v>0</v>
+      </c>
+      <c r="J53" s="74">
+        <v>0</v>
+      </c>
+      <c r="K53" s="74">
+        <v>0</v>
+      </c>
+      <c r="L53" s="74">
+        <v>0</v>
+      </c>
+      <c r="M53" s="74">
+        <v>0</v>
+      </c>
+      <c r="N53" s="74">
+        <v>0</v>
+      </c>
+      <c r="O53" s="74">
+        <v>0</v>
+      </c>
+      <c r="P53" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="39"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="74">
+        <v>0</v>
+      </c>
+      <c r="E54" s="74">
+        <v>0</v>
+      </c>
+      <c r="F54" s="74">
+        <v>0</v>
+      </c>
+      <c r="G54" s="74">
+        <v>0</v>
+      </c>
+      <c r="H54" s="74">
+        <v>0</v>
+      </c>
+      <c r="I54" s="74">
+        <v>0</v>
+      </c>
+      <c r="J54" s="74">
+        <v>0</v>
+      </c>
+      <c r="K54" s="74">
+        <v>0</v>
+      </c>
+      <c r="L54" s="74">
+        <v>0</v>
+      </c>
+      <c r="M54" s="74">
+        <v>0</v>
+      </c>
+      <c r="N54" s="74">
+        <v>0</v>
+      </c>
+      <c r="O54" s="74">
+        <v>0</v>
+      </c>
+      <c r="P54" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="39"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="74">
+        <v>0</v>
+      </c>
+      <c r="E55" s="74">
+        <v>0</v>
+      </c>
+      <c r="F55" s="74">
+        <v>0</v>
+      </c>
+      <c r="G55" s="74">
+        <v>0</v>
+      </c>
+      <c r="H55" s="74">
+        <v>0</v>
+      </c>
+      <c r="I55" s="74">
+        <v>0</v>
+      </c>
+      <c r="J55" s="74">
+        <v>0</v>
+      </c>
+      <c r="K55" s="74">
+        <v>0</v>
+      </c>
+      <c r="L55" s="74">
+        <v>0</v>
+      </c>
+      <c r="M55" s="74">
+        <v>0</v>
+      </c>
+      <c r="N55" s="74">
+        <v>0</v>
+      </c>
+      <c r="O55" s="74">
+        <v>0</v>
+      </c>
+      <c r="P55" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="42"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="76">
+        <v>0</v>
+      </c>
+      <c r="E56" s="76">
+        <v>0</v>
+      </c>
+      <c r="F56" s="76">
+        <v>0</v>
+      </c>
+      <c r="G56" s="76">
+        <v>0</v>
+      </c>
+      <c r="H56" s="76">
+        <v>0</v>
+      </c>
+      <c r="I56" s="76">
+        <v>0</v>
+      </c>
+      <c r="J56" s="76">
+        <v>0</v>
+      </c>
+      <c r="K56" s="76">
+        <v>0</v>
+      </c>
+      <c r="L56" s="76">
+        <v>0</v>
+      </c>
+      <c r="M56" s="76">
+        <v>0</v>
+      </c>
+      <c r="N56" s="76">
+        <v>0</v>
+      </c>
+      <c r="O56" s="76">
+        <v>0</v>
+      </c>
+      <c r="P56" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="74"/>
+      <c r="O57" s="74"/>
+      <c r="P57" s="74"/>
+      <c r="Q57" s="74"/>
+    </row>
+    <row r="58" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="74"/>
+    </row>
+    <row r="59" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="H48" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J48" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="K48" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L48" s="16" t="s">
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="85"/>
+      <c r="K59" s="85"/>
+      <c r="L59" s="85"/>
+      <c r="M59" s="85"/>
+      <c r="N59" s="85"/>
+      <c r="O59" s="85"/>
+      <c r="P59" s="85"/>
+      <c r="Q59" s="86"/>
+    </row>
+    <row r="60" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="51"/>
+      <c r="C60" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K60" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L60" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M48" s="16" t="s">
+      <c r="M60" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O60" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P60" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q60" s="61"/>
+    </row>
+    <row r="61" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="39"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="74">
+        <v>0</v>
+      </c>
+      <c r="E61" s="74">
+        <v>0</v>
+      </c>
+      <c r="F61" s="74">
+        <v>0</v>
+      </c>
+      <c r="G61" s="74">
+        <v>0</v>
+      </c>
+      <c r="H61" s="74">
+        <v>0</v>
+      </c>
+      <c r="I61" s="74">
+        <v>0</v>
+      </c>
+      <c r="J61" s="74">
+        <v>0</v>
+      </c>
+      <c r="K61" s="74">
+        <v>0</v>
+      </c>
+      <c r="L61" s="74">
+        <v>0</v>
+      </c>
+      <c r="M61" s="74">
+        <v>0</v>
+      </c>
+      <c r="N61" s="74">
+        <v>0</v>
+      </c>
+      <c r="O61" s="74">
+        <v>0</v>
+      </c>
+      <c r="P61" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="39"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="74">
+        <v>0</v>
+      </c>
+      <c r="E62" s="74">
+        <v>0</v>
+      </c>
+      <c r="F62" s="74">
+        <v>0</v>
+      </c>
+      <c r="G62" s="74">
+        <v>0</v>
+      </c>
+      <c r="H62" s="74">
+        <v>0</v>
+      </c>
+      <c r="I62" s="74">
+        <v>0</v>
+      </c>
+      <c r="J62" s="74">
+        <v>0</v>
+      </c>
+      <c r="K62" s="74">
+        <v>0</v>
+      </c>
+      <c r="L62" s="74">
+        <v>0</v>
+      </c>
+      <c r="M62" s="74">
+        <v>0</v>
+      </c>
+      <c r="N62" s="74">
+        <v>0</v>
+      </c>
+      <c r="O62" s="74">
+        <v>0</v>
+      </c>
+      <c r="P62" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="39"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="74">
+        <v>0</v>
+      </c>
+      <c r="E63" s="74">
+        <v>0</v>
+      </c>
+      <c r="F63" s="74">
+        <v>0</v>
+      </c>
+      <c r="G63" s="74">
+        <v>0</v>
+      </c>
+      <c r="H63" s="74">
+        <v>0</v>
+      </c>
+      <c r="I63" s="74">
+        <v>0</v>
+      </c>
+      <c r="J63" s="74">
+        <v>0</v>
+      </c>
+      <c r="K63" s="74">
+        <v>0</v>
+      </c>
+      <c r="L63" s="74">
+        <v>0</v>
+      </c>
+      <c r="M63" s="74">
+        <v>0</v>
+      </c>
+      <c r="N63" s="74">
+        <v>0</v>
+      </c>
+      <c r="O63" s="74">
+        <v>0</v>
+      </c>
+      <c r="P63" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="39"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="74">
+        <v>0</v>
+      </c>
+      <c r="E64" s="74">
+        <v>0</v>
+      </c>
+      <c r="F64" s="74">
+        <v>0</v>
+      </c>
+      <c r="G64" s="74">
+        <v>0</v>
+      </c>
+      <c r="H64" s="74">
+        <v>0</v>
+      </c>
+      <c r="I64" s="74">
+        <v>0</v>
+      </c>
+      <c r="J64" s="74">
+        <v>0</v>
+      </c>
+      <c r="K64" s="74">
+        <v>0</v>
+      </c>
+      <c r="L64" s="74">
+        <v>0</v>
+      </c>
+      <c r="M64" s="74">
+        <v>0</v>
+      </c>
+      <c r="N64" s="74">
+        <v>0</v>
+      </c>
+      <c r="O64" s="74">
+        <v>0</v>
+      </c>
+      <c r="P64" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="39"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="74">
+        <v>0</v>
+      </c>
+      <c r="E65" s="74">
+        <v>0</v>
+      </c>
+      <c r="F65" s="74">
+        <v>0</v>
+      </c>
+      <c r="G65" s="74">
+        <v>0</v>
+      </c>
+      <c r="H65" s="74">
+        <v>0</v>
+      </c>
+      <c r="I65" s="74">
+        <v>0</v>
+      </c>
+      <c r="J65" s="74">
+        <v>0</v>
+      </c>
+      <c r="K65" s="74">
+        <v>0</v>
+      </c>
+      <c r="L65" s="74">
+        <v>0</v>
+      </c>
+      <c r="M65" s="74">
+        <v>0</v>
+      </c>
+      <c r="N65" s="74">
+        <v>0</v>
+      </c>
+      <c r="O65" s="74">
+        <v>0</v>
+      </c>
+      <c r="P65" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="39"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="74">
+        <v>0</v>
+      </c>
+      <c r="E66" s="74">
+        <v>0</v>
+      </c>
+      <c r="F66" s="74">
+        <v>0</v>
+      </c>
+      <c r="G66" s="74">
+        <v>0</v>
+      </c>
+      <c r="H66" s="74">
+        <v>0</v>
+      </c>
+      <c r="I66" s="74">
+        <v>0</v>
+      </c>
+      <c r="J66" s="74">
+        <v>0</v>
+      </c>
+      <c r="K66" s="74">
+        <v>0</v>
+      </c>
+      <c r="L66" s="74">
+        <v>0</v>
+      </c>
+      <c r="M66" s="74">
+        <v>0</v>
+      </c>
+      <c r="N66" s="74">
+        <v>0</v>
+      </c>
+      <c r="O66" s="74">
+        <v>0</v>
+      </c>
+      <c r="P66" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="39"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="74">
+        <v>0</v>
+      </c>
+      <c r="E67" s="74">
+        <v>0</v>
+      </c>
+      <c r="F67" s="74">
+        <v>0</v>
+      </c>
+      <c r="G67" s="74">
+        <v>0</v>
+      </c>
+      <c r="H67" s="74">
+        <v>0</v>
+      </c>
+      <c r="I67" s="74">
+        <v>0</v>
+      </c>
+      <c r="J67" s="74">
+        <v>0</v>
+      </c>
+      <c r="K67" s="74">
+        <v>0</v>
+      </c>
+      <c r="L67" s="74">
+        <v>0</v>
+      </c>
+      <c r="M67" s="74">
+        <v>0</v>
+      </c>
+      <c r="N67" s="74">
+        <v>0</v>
+      </c>
+      <c r="O67" s="74">
+        <v>0</v>
+      </c>
+      <c r="P67" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="42"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="76">
+        <v>0</v>
+      </c>
+      <c r="E68" s="76">
+        <v>0</v>
+      </c>
+      <c r="F68" s="76">
+        <v>0</v>
+      </c>
+      <c r="G68" s="76">
+        <v>0</v>
+      </c>
+      <c r="H68" s="76">
+        <v>0</v>
+      </c>
+      <c r="I68" s="76">
+        <v>0</v>
+      </c>
+      <c r="J68" s="76">
+        <v>0</v>
+      </c>
+      <c r="K68" s="76">
+        <v>0</v>
+      </c>
+      <c r="L68" s="76">
+        <v>0</v>
+      </c>
+      <c r="M68" s="76">
+        <v>0</v>
+      </c>
+      <c r="N68" s="76">
+        <v>0</v>
+      </c>
+      <c r="O68" s="76">
+        <v>0</v>
+      </c>
+      <c r="P68" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="17"/>
+    </row>
+    <row r="72" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="52"/>
+      <c r="C72" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="53"/>
+      <c r="G72" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="52"/>
+      <c r="I72" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" s="55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="63"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="20">
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0.81140000000000001</v>
+      </c>
+      <c r="F73" s="53"/>
+      <c r="G73" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="63"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="63"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="20">
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0.82369999999999999</v>
+      </c>
+      <c r="F74" s="53"/>
+      <c r="G74" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="N48" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="O48" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="P48" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q48" s="64"/>
-    </row>
-    <row r="49" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="77">
-        <v>0</v>
-      </c>
-      <c r="E49" s="77">
-        <v>0</v>
-      </c>
-      <c r="F49" s="77">
-        <v>0</v>
-      </c>
-      <c r="G49" s="77">
-        <v>0</v>
-      </c>
-      <c r="H49" s="77">
-        <v>0</v>
-      </c>
-      <c r="I49" s="77">
-        <v>0</v>
-      </c>
-      <c r="J49" s="77">
-        <v>0</v>
-      </c>
-      <c r="K49" s="77">
-        <v>0</v>
-      </c>
-      <c r="L49" s="77">
-        <v>0</v>
-      </c>
-      <c r="M49" s="77">
-        <v>0</v>
-      </c>
-      <c r="N49" s="77">
-        <v>0</v>
-      </c>
-      <c r="O49" s="77">
-        <v>0</v>
-      </c>
-      <c r="P49" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="77">
-        <v>0</v>
-      </c>
-      <c r="E50" s="77">
-        <v>0</v>
-      </c>
-      <c r="F50" s="77">
-        <v>0</v>
-      </c>
-      <c r="G50" s="77">
-        <v>0</v>
-      </c>
-      <c r="H50" s="77">
-        <v>0</v>
-      </c>
-      <c r="I50" s="77">
-        <v>0</v>
-      </c>
-      <c r="J50" s="77">
-        <v>0</v>
-      </c>
-      <c r="K50" s="77">
-        <v>0</v>
-      </c>
-      <c r="L50" s="77">
-        <v>0</v>
-      </c>
-      <c r="M50" s="77">
-        <v>0</v>
-      </c>
-      <c r="N50" s="77">
-        <v>0</v>
-      </c>
-      <c r="O50" s="77">
-        <v>0</v>
-      </c>
-      <c r="P50" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="77">
-        <v>0</v>
-      </c>
-      <c r="E51" s="77">
-        <v>0</v>
-      </c>
-      <c r="F51" s="77">
-        <v>0</v>
-      </c>
-      <c r="G51" s="77">
-        <v>0</v>
-      </c>
-      <c r="H51" s="77">
-        <v>0</v>
-      </c>
-      <c r="I51" s="77">
-        <v>0</v>
-      </c>
-      <c r="J51" s="77">
-        <v>0</v>
-      </c>
-      <c r="K51" s="77">
-        <v>0</v>
-      </c>
-      <c r="L51" s="77">
-        <v>0</v>
-      </c>
-      <c r="M51" s="77">
-        <v>0</v>
-      </c>
-      <c r="N51" s="77">
-        <v>0</v>
-      </c>
-      <c r="O51" s="77">
-        <v>0</v>
-      </c>
-      <c r="P51" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="77">
-        <v>0</v>
-      </c>
-      <c r="E52" s="77">
-        <v>0</v>
-      </c>
-      <c r="F52" s="77">
-        <v>0</v>
-      </c>
-      <c r="G52" s="77">
-        <v>0</v>
-      </c>
-      <c r="H52" s="77">
-        <v>0</v>
-      </c>
-      <c r="I52" s="77">
-        <v>0</v>
-      </c>
-      <c r="J52" s="77">
-        <v>0</v>
-      </c>
-      <c r="K52" s="77">
-        <v>0</v>
-      </c>
-      <c r="L52" s="77">
-        <v>0</v>
-      </c>
-      <c r="M52" s="77">
-        <v>0</v>
-      </c>
-      <c r="N52" s="77">
-        <v>0</v>
-      </c>
-      <c r="O52" s="77">
-        <v>0</v>
-      </c>
-      <c r="P52" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="77">
-        <v>0</v>
-      </c>
-      <c r="E53" s="77">
-        <v>0</v>
-      </c>
-      <c r="F53" s="77">
-        <v>0</v>
-      </c>
-      <c r="G53" s="77">
-        <v>0</v>
-      </c>
-      <c r="H53" s="77">
-        <v>0</v>
-      </c>
-      <c r="I53" s="77">
-        <v>0</v>
-      </c>
-      <c r="J53" s="77">
-        <v>0</v>
-      </c>
-      <c r="K53" s="77">
-        <v>0</v>
-      </c>
-      <c r="L53" s="77">
-        <v>0</v>
-      </c>
-      <c r="M53" s="77">
-        <v>0</v>
-      </c>
-      <c r="N53" s="77">
-        <v>0</v>
-      </c>
-      <c r="O53" s="77">
-        <v>0</v>
-      </c>
-      <c r="P53" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="77">
-        <v>0</v>
-      </c>
-      <c r="E54" s="77">
-        <v>0</v>
-      </c>
-      <c r="F54" s="77">
-        <v>0</v>
-      </c>
-      <c r="G54" s="77">
-        <v>0</v>
-      </c>
-      <c r="H54" s="77">
-        <v>0</v>
-      </c>
-      <c r="I54" s="77">
-        <v>0</v>
-      </c>
-      <c r="J54" s="77">
-        <v>0</v>
-      </c>
-      <c r="K54" s="77">
-        <v>0</v>
-      </c>
-      <c r="L54" s="77">
-        <v>0</v>
-      </c>
-      <c r="M54" s="77">
-        <v>0</v>
-      </c>
-      <c r="N54" s="77">
-        <v>0</v>
-      </c>
-      <c r="O54" s="77">
-        <v>0</v>
-      </c>
-      <c r="P54" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="77">
-        <v>0</v>
-      </c>
-      <c r="E55" s="77">
-        <v>0</v>
-      </c>
-      <c r="F55" s="77">
-        <v>0</v>
-      </c>
-      <c r="G55" s="77">
-        <v>0</v>
-      </c>
-      <c r="H55" s="77">
-        <v>0</v>
-      </c>
-      <c r="I55" s="77">
-        <v>0</v>
-      </c>
-      <c r="J55" s="77">
-        <v>0</v>
-      </c>
-      <c r="K55" s="77">
-        <v>0</v>
-      </c>
-      <c r="L55" s="77">
-        <v>0</v>
-      </c>
-      <c r="M55" s="77">
-        <v>0</v>
-      </c>
-      <c r="N55" s="77">
-        <v>0</v>
-      </c>
-      <c r="O55" s="77">
-        <v>0</v>
-      </c>
-      <c r="P55" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="77">
-        <v>0</v>
-      </c>
-      <c r="E56" s="77">
-        <v>0</v>
-      </c>
-      <c r="F56" s="77">
-        <v>0</v>
-      </c>
-      <c r="G56" s="77">
-        <v>0</v>
-      </c>
-      <c r="H56" s="77">
-        <v>0</v>
-      </c>
-      <c r="I56" s="77">
-        <v>0</v>
-      </c>
-      <c r="J56" s="77">
-        <v>0</v>
-      </c>
-      <c r="K56" s="77">
-        <v>0</v>
-      </c>
-      <c r="L56" s="77">
-        <v>0</v>
-      </c>
-      <c r="M56" s="77">
-        <v>0</v>
-      </c>
-      <c r="N56" s="77">
-        <v>0</v>
-      </c>
-      <c r="O56" s="77">
-        <v>0</v>
-      </c>
-      <c r="P56" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="42"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="77">
-        <v>0</v>
-      </c>
-      <c r="E57" s="77">
-        <v>0</v>
-      </c>
-      <c r="F57" s="77">
-        <v>0</v>
-      </c>
-      <c r="G57" s="77">
-        <v>0</v>
-      </c>
-      <c r="H57" s="77">
-        <v>0</v>
-      </c>
-      <c r="I57" s="77">
-        <v>0</v>
-      </c>
-      <c r="J57" s="77">
-        <v>0</v>
-      </c>
-      <c r="K57" s="77">
-        <v>0</v>
-      </c>
-      <c r="L57" s="77">
-        <v>0</v>
-      </c>
-      <c r="M57" s="77">
-        <v>0</v>
-      </c>
-      <c r="N57" s="77">
-        <v>0</v>
-      </c>
-      <c r="O57" s="77">
-        <v>0</v>
-      </c>
-      <c r="P57" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="77">
-        <v>0</v>
-      </c>
-      <c r="E58" s="77">
-        <v>0</v>
-      </c>
-      <c r="F58" s="77">
-        <v>0</v>
-      </c>
-      <c r="G58" s="77">
-        <v>0</v>
-      </c>
-      <c r="H58" s="77">
-        <v>0</v>
-      </c>
-      <c r="I58" s="77">
-        <v>0</v>
-      </c>
-      <c r="J58" s="77">
-        <v>0</v>
-      </c>
-      <c r="K58" s="77">
-        <v>0</v>
-      </c>
-      <c r="L58" s="77">
-        <v>0</v>
-      </c>
-      <c r="M58" s="77">
-        <v>0</v>
-      </c>
-      <c r="N58" s="77">
-        <v>0</v>
-      </c>
-      <c r="O58" s="77">
-        <v>0</v>
-      </c>
-      <c r="P58" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="77">
-        <v>0</v>
-      </c>
-      <c r="E59" s="77">
-        <v>0</v>
-      </c>
-      <c r="F59" s="77">
-        <v>0</v>
-      </c>
-      <c r="G59" s="77">
-        <v>0</v>
-      </c>
-      <c r="H59" s="77">
-        <v>0</v>
-      </c>
-      <c r="I59" s="77">
-        <v>0</v>
-      </c>
-      <c r="J59" s="77">
-        <v>0</v>
-      </c>
-      <c r="K59" s="77">
-        <v>0</v>
-      </c>
-      <c r="L59" s="77">
-        <v>0</v>
-      </c>
-      <c r="M59" s="77">
-        <v>0</v>
-      </c>
-      <c r="N59" s="77">
-        <v>0</v>
-      </c>
-      <c r="O59" s="77">
-        <v>0</v>
-      </c>
-      <c r="P59" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="77">
-        <v>0</v>
-      </c>
-      <c r="E60" s="77">
-        <v>0</v>
-      </c>
-      <c r="F60" s="77">
-        <v>0</v>
-      </c>
-      <c r="G60" s="77">
-        <v>0</v>
-      </c>
-      <c r="H60" s="77">
-        <v>0</v>
-      </c>
-      <c r="I60" s="77">
-        <v>0</v>
-      </c>
-      <c r="J60" s="77">
-        <v>0</v>
-      </c>
-      <c r="K60" s="77">
-        <v>0</v>
-      </c>
-      <c r="L60" s="77">
-        <v>0</v>
-      </c>
-      <c r="M60" s="77">
-        <v>0</v>
-      </c>
-      <c r="N60" s="77">
-        <v>0</v>
-      </c>
-      <c r="O60" s="77">
-        <v>0</v>
-      </c>
-      <c r="P60" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="77">
-        <v>0</v>
-      </c>
-      <c r="E61" s="77">
-        <v>0</v>
-      </c>
-      <c r="F61" s="77">
-        <v>0</v>
-      </c>
-      <c r="G61" s="77">
-        <v>0</v>
-      </c>
-      <c r="H61" s="77">
-        <v>0</v>
-      </c>
-      <c r="I61" s="77">
-        <v>0</v>
-      </c>
-      <c r="J61" s="77">
-        <v>0</v>
-      </c>
-      <c r="K61" s="77">
-        <v>0</v>
-      </c>
-      <c r="L61" s="77">
-        <v>0</v>
-      </c>
-      <c r="M61" s="77">
-        <v>0</v>
-      </c>
-      <c r="N61" s="77">
-        <v>0</v>
-      </c>
-      <c r="O61" s="77">
-        <v>0</v>
-      </c>
-      <c r="P61" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="42"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="77">
-        <v>0</v>
-      </c>
-      <c r="E62" s="77">
-        <v>0</v>
-      </c>
-      <c r="F62" s="77">
-        <v>0</v>
-      </c>
-      <c r="G62" s="77">
-        <v>0</v>
-      </c>
-      <c r="H62" s="77">
-        <v>0</v>
-      </c>
-      <c r="I62" s="77">
-        <v>0</v>
-      </c>
-      <c r="J62" s="77">
-        <v>0</v>
-      </c>
-      <c r="K62" s="77">
-        <v>0</v>
-      </c>
-      <c r="L62" s="77">
-        <v>0</v>
-      </c>
-      <c r="M62" s="77">
-        <v>0</v>
-      </c>
-      <c r="N62" s="77">
-        <v>0</v>
-      </c>
-      <c r="O62" s="77">
-        <v>0</v>
-      </c>
-      <c r="P62" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="42"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="77">
-        <v>0</v>
-      </c>
-      <c r="E63" s="77">
-        <v>0</v>
-      </c>
-      <c r="F63" s="77">
-        <v>0</v>
-      </c>
-      <c r="G63" s="77">
-        <v>0</v>
-      </c>
-      <c r="H63" s="77">
-        <v>0</v>
-      </c>
-      <c r="I63" s="77">
-        <v>0</v>
-      </c>
-      <c r="J63" s="77">
-        <v>0</v>
-      </c>
-      <c r="K63" s="77">
-        <v>0</v>
-      </c>
-      <c r="L63" s="77">
-        <v>0</v>
-      </c>
-      <c r="M63" s="77">
-        <v>0</v>
-      </c>
-      <c r="N63" s="77">
-        <v>0</v>
-      </c>
-      <c r="O63" s="77">
-        <v>0</v>
-      </c>
-      <c r="P63" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="45"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="79">
-        <v>0</v>
-      </c>
-      <c r="E64" s="79">
-        <v>0</v>
-      </c>
-      <c r="F64" s="79">
-        <v>0</v>
-      </c>
-      <c r="G64" s="79">
-        <v>0</v>
-      </c>
-      <c r="H64" s="79">
-        <v>0</v>
-      </c>
-      <c r="I64" s="79">
-        <v>0</v>
-      </c>
-      <c r="J64" s="79">
-        <v>0</v>
-      </c>
-      <c r="K64" s="79">
-        <v>0</v>
-      </c>
-      <c r="L64" s="79">
-        <v>0</v>
-      </c>
-      <c r="M64" s="79">
-        <v>0</v>
-      </c>
-      <c r="N64" s="79">
-        <v>0</v>
-      </c>
-      <c r="O64" s="79">
-        <v>0</v>
-      </c>
-      <c r="P64" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="18" t="s">
+      <c r="H74" s="63"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="63"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="20">
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="F75" s="53"/>
+      <c r="G75" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="63"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="65"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="7">
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="E76" s="8">
+        <v>0.82189999999999996</v>
+      </c>
+      <c r="F76" s="53"/>
+      <c r="G76" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" s="65"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="8"/>
+    </row>
+    <row r="77" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="81"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+    </row>
+    <row r="78" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F78" s="53"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+    </row>
+    <row r="79" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F79" s="53"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+    </row>
+    <row r="80" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-    </row>
-    <row r="68" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="53" t="s">
+      <c r="B80" s="80"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="83"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+    </row>
+    <row r="81" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="62"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="84"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+    </row>
+    <row r="82" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="55"/>
-      <c r="C68" s="17" t="s">
+      <c r="B82" s="51"/>
+      <c r="C82" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+    </row>
+    <row r="83" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="63"/>
+      <c r="C83" s="20">
+        <f xml:space="preserve"> D73 - B73</f>
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="D83" s="5">
+        <f>D73 - E73</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+    </row>
+    <row r="84" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" s="63"/>
+      <c r="C84" s="20">
+        <f>B74 - D74</f>
+        <v>-0.81440000000000001</v>
+      </c>
+      <c r="D84" s="5">
+        <f>E74 - D74</f>
+        <v>9.299999999999975E-3</v>
+      </c>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+    </row>
+    <row r="85" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="63"/>
+      <c r="C85" s="20">
+        <f>D75 - B75</f>
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="D85" s="5">
+        <f xml:space="preserve"> D75 - E75</f>
+        <v>1.1299999999999977E-2</v>
+      </c>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+    </row>
+    <row r="86" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" s="65"/>
+      <c r="C86" s="7">
+        <f xml:space="preserve"> B76 - D76</f>
+        <v>-0.81440000000000001</v>
+      </c>
+      <c r="D86" s="8">
+        <f xml:space="preserve"> E76 - D76</f>
+        <v>7.4999999999999512E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E87" s="82"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+    </row>
+    <row r="88" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+    </row>
+    <row r="89" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A89" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+    </row>
+    <row r="90" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="62"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D68" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="58" t="s">
+      <c r="D90" s="84"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+    </row>
+    <row r="91" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="51"/>
+      <c r="C91" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F68" s="56"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-    </row>
-    <row r="69" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="66"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="23">
-        <v>0.81440000000000001</v>
-      </c>
-      <c r="E69" s="5">
-        <v>0.81140000000000001</v>
-      </c>
-      <c r="F69" s="56"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-    </row>
-    <row r="70" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="23">
-        <v>0.81440000000000001</v>
-      </c>
-      <c r="E70" s="5">
-        <v>0.82369999999999999</v>
-      </c>
-      <c r="F70" s="56"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-    </row>
-    <row r="71" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="B71" s="66"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="23">
-        <v>0.81440000000000001</v>
-      </c>
-      <c r="E71" s="5">
-        <v>0.80310000000000004</v>
-      </c>
-      <c r="F71" s="56"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-    </row>
-    <row r="72" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72" s="66"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="23">
-        <v>0.81440000000000001</v>
-      </c>
-      <c r="E72" s="5">
-        <v>0.82189999999999996</v>
-      </c>
-      <c r="F72" s="56"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-    </row>
-    <row r="73" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="65" t="s">
+      <c r="D91" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" s="20"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+    </row>
+    <row r="92" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="66"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-    </row>
-    <row r="74" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74" s="66"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-    </row>
-    <row r="75" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="66"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-    </row>
-    <row r="76" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" s="68"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-    </row>
-    <row r="77" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="81"/>
-      <c r="B77" s="81"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-    </row>
-    <row r="78" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="81"/>
-      <c r="B78" s="81"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="82"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-    </row>
-    <row r="81" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="86"/>
-      <c r="B81" s="87"/>
-      <c r="C81" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" s="89"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="40"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="40"/>
-    </row>
-    <row r="82" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="87"/>
-      <c r="C82" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D82" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" s="40"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-    </row>
-    <row r="83" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" s="66"/>
-      <c r="C83" s="23">
-        <f xml:space="preserve"> D69 - B69</f>
-        <v>0.81440000000000001</v>
-      </c>
-      <c r="D83" s="5">
-        <f>D69 - E69</f>
-        <v>3.0000000000000027E-3</v>
-      </c>
-      <c r="E83" s="23"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-    </row>
-    <row r="84" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="B84" s="66"/>
-      <c r="C84" s="23">
-        <f>B70 - D70</f>
-        <v>-0.81440000000000001</v>
-      </c>
-      <c r="D84" s="5">
-        <f>E70 - D70</f>
-        <v>9.299999999999975E-3</v>
-      </c>
-      <c r="E84" s="23"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-    </row>
-    <row r="85" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="B85" s="66"/>
-      <c r="C85" s="23">
-        <f>D71 - B71</f>
-        <v>0.81440000000000001</v>
-      </c>
-      <c r="D85" s="5">
-        <f xml:space="preserve"> D71 - E71</f>
-        <v>1.1299999999999977E-2</v>
-      </c>
-      <c r="E85" s="23"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-    </row>
-    <row r="86" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B86" s="66"/>
-      <c r="C86" s="23">
-        <f xml:space="preserve"> B72 - D72</f>
-        <v>-0.81440000000000001</v>
-      </c>
-      <c r="D86" s="5">
-        <f xml:space="preserve"> E72 - D72</f>
-        <v>7.4999999999999512E-3</v>
-      </c>
-      <c r="E86" s="23"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-    </row>
-    <row r="87" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="66"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="75"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-    </row>
-    <row r="88" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B88" s="66"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="75"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-    </row>
-    <row r="89" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="B89" s="66"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="75"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-    </row>
-    <row r="90" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B90" s="68"/>
-      <c r="C90" s="57"/>
-      <c r="D90" s="76"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+    </row>
+    <row r="93" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B93" s="63"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+    </row>
+    <row r="94" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="63"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="53"/>
+    </row>
+    <row r="95" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" s="65"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="73"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="53"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C97" s="53"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
+  <mergeCells count="96">
+    <mergeCell ref="M22:R41"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="P60:Q60"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A59:D59"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
@@ -6396,8 +6573,9 @@
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="A48:B48"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:H34"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="L19:P38"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
@@ -6415,10 +6593,10 @@
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="Q16:S16"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="Q12:S12"/>

--- a/Sensitivity Analysis.xlsx
+++ b/Sensitivity Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eashwar\Desktop\ENSE\ENSE622\Final Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7940711F-7C42-41E9-A04F-DB23255869B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0C3BE0-9CC8-49D9-92EF-B4AA8961D5C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0352C288-3703-4171-8A0F-C906E828E2CA}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
   <si>
     <t>Low =&gt; Good</t>
   </si>
@@ -92,6 +114,9 @@
     <t>SVVF1</t>
   </si>
   <si>
+    <t>SVVF2</t>
+  </si>
+  <si>
     <t>MAVF</t>
   </si>
   <si>
@@ -164,30 +189,6 @@
     <t>Maximum Speed(MS)</t>
   </si>
   <si>
-    <t>Worst C,Best RC, Best  MFT, Best MS</t>
-  </si>
-  <si>
-    <t>Best C, Worst RC, Best  MFT, Best MS</t>
-  </si>
-  <si>
-    <t>Best C, Best RC, Worst  MFT, Best MS</t>
-  </si>
-  <si>
-    <t>Best C, Best RC, Best  MFT, Worst MS</t>
-  </si>
-  <si>
-    <t>Worst C, Worst RC,Best  MFT, Best MS</t>
-  </si>
-  <si>
-    <t>Best C, Worst RC, Worst  MFT, Best MS</t>
-  </si>
-  <si>
-    <t>Best C, Best RC, Worst  MFT, Worst MS</t>
-  </si>
-  <si>
-    <t>Worst C,Best RC, Best  MFT, Worst MS</t>
-  </si>
-  <si>
     <t>Rrc</t>
   </si>
   <si>
@@ -263,12 +264,6 @@
     <t>When Rrc is High</t>
   </si>
   <si>
-    <t>When Rmft is Low</t>
-  </si>
-  <si>
-    <t>When Rmft is High</t>
-  </si>
-  <si>
     <t>When Rms is Low</t>
   </si>
   <si>
@@ -303,13 +298,52 @@
   </si>
   <si>
     <t>MAVF values from Sensitivity Analysis-A</t>
+  </si>
+  <si>
+    <t>Maximum Flight Time(MFT) in hr</t>
+  </si>
+  <si>
+    <t>Maximum Speed(MS)in m/s</t>
+  </si>
+  <si>
+    <t>Best C, Worst RC, Worst  MFT, Worst MS</t>
+  </si>
+  <si>
+    <t>Worst C, Best RC, Worst  MFT, Worst MS</t>
+  </si>
+  <si>
+    <t>Worst C, Worst RC, Best  MFT, Worst MS</t>
+  </si>
+  <si>
+    <t>Worst C, Worst RC, Worst  MFT, Best MS</t>
+  </si>
+  <si>
+    <t>Wt2 = Wrc</t>
+  </si>
+  <si>
+    <t>Wt3 = Wmtf</t>
+  </si>
+  <si>
+    <t>Wt4 = Wms</t>
+  </si>
+  <si>
+    <t>SVVF3</t>
+  </si>
+  <si>
+    <t>SVVF4</t>
+  </si>
+  <si>
+    <t>When Rmtf is Low</t>
+  </si>
+  <si>
+    <t>When Rmtf is High</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +383,14 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -375,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -492,6 +534,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -516,30 +573,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
-      </top>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -594,32 +645,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -665,7 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,20 +734,32 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -731,12 +768,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -771,44 +811,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -821,7 +849,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -836,34 +864,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -885,10 +913,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2536,7 +2629,13 @@
                           <a:rPr lang="en-IN" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>43.64   −   </m:t>
+                          <m:t>1137</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-IN" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>   −   </m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-IN" sz="1400" b="0" i="1">
@@ -2550,7 +2649,7 @@
                           <a:rPr lang="en-IN" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>43.64   −   25.16</m:t>
+                          <m:t>1137   −   851.98</m:t>
                         </m:r>
                       </m:den>
                     </m:f>
@@ -2609,7 +2708,7 @@
                 <a:rPr lang="en-IN" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑉𝑐  =  (43.64   −   𝐶)/(43.64   −   25.16)</a:t>
+                <a:t>𝑉𝑐  =  (1137   −   𝐶)/(1137   −   851.98)</a:t>
               </a:r>
               <a:endParaRPr lang="en-IN" sz="1400"/>
             </a:p>
@@ -2746,7 +2845,7 @@
                           <a:rPr lang="en-IN" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>  −   0.411</m:t>
+                          <m:t>  −   1.3808</m:t>
                         </m:r>
                       </m:num>
                       <m:den>
@@ -2754,7 +2853,7 @@
                           <a:rPr lang="en-IN" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>0.734   −   0.411</m:t>
+                          <m:t>2.5844   −   1.3808</m:t>
                         </m:r>
                       </m:den>
                     </m:f>
@@ -2813,7 +2912,7 @@
                 <a:rPr lang="en-IN" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑉𝑟𝑐  =  (𝑅𝐶  −   0.411)/(0.734   −   0.411)</a:t>
+                <a:t>𝑉𝑟𝑐  =  (𝑅𝐶  −   1.3808)/(2.5844   −   1.3808)</a:t>
               </a:r>
               <a:endParaRPr lang="en-IN" sz="1400"/>
             </a:p>
@@ -3318,7 +3417,7 @@
                       <a:rPr lang="en-IN" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>𝑉𝑚𝑐</m:t>
+                      <m:t>𝑉𝑚𝑠</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-IN" sz="1400" b="0" i="1">
@@ -3345,7 +3444,7 @@
                           <a:rPr lang="en-IN" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>  −   0.411</m:t>
+                          <m:t>  −   94.94</m:t>
                         </m:r>
                       </m:num>
                       <m:den>
@@ -3353,7 +3452,7 @@
                           <a:rPr lang="en-IN" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>0.734   −   0.411</m:t>
+                          <m:t>95.25   −   94.94</m:t>
                         </m:r>
                       </m:den>
                     </m:f>
@@ -3412,7 +3511,7 @@
                 <a:rPr lang="en-IN" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑉𝑚𝑐  =  (𝑀𝐶  −   0.411)/(0.734   −   0.411)</a:t>
+                <a:t>𝑉𝑚𝑠  =  (𝑀𝐶  −   94.94)/(95.25   −   94.94)</a:t>
               </a:r>
               <a:endParaRPr lang="en-IN" sz="1400"/>
             </a:p>
@@ -3511,7 +3610,7 @@
                           <a:rPr lang="en-IN" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>  −   0.411</m:t>
+                          <m:t>  −   0.67614</m:t>
                         </m:r>
                       </m:num>
                       <m:den>
@@ -3519,7 +3618,7 @@
                           <a:rPr lang="en-IN" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>0.734   −   0.411</m:t>
+                          <m:t>0.9802   −   0.67614</m:t>
                         </m:r>
                       </m:den>
                     </m:f>
@@ -3578,7 +3677,7 @@
                 <a:rPr lang="en-IN" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑉𝑚𝑡𝑓  =  (𝑀𝑇𝐹  −   0.411)/(0.734   −   0.411)</a:t>
+                <a:t>𝑉𝑚𝑡𝑓  =  (𝑀𝑇𝐹  −   0.67614)/(0.9802   −   0.67614)</a:t>
               </a:r>
               <a:endParaRPr lang="en-IN" sz="1400"/>
             </a:p>
@@ -3961,8 +4060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E092A5B7-1CD1-4569-A0AD-62083D236086}">
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3971,13 +4070,14 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="39.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
     <col min="6" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="20.140625" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="42.140625" customWidth="1"/>
     <col min="13" max="13" width="24.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" customWidth="1"/>
     <col min="16" max="16" width="17.85546875" customWidth="1"/>
     <col min="17" max="17" width="22.140625" customWidth="1"/>
@@ -3985,40 +4085,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="A1" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -4027,45 +4127,45 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>41</v>
+      <c r="D3" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="50" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="57"/>
+      <c r="J3" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="31" t="s">
         <v>38</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>37</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="R3" s="55" t="s">
@@ -4075,290 +4175,271 @@
     </row>
     <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="20">
-        <v>100</v>
-      </c>
-      <c r="C4" s="20">
-        <v>100</v>
-      </c>
-      <c r="D4" s="20">
-        <v>100</v>
+        <v>34</v>
+      </c>
+      <c r="B4" s="23">
+        <v>851.98</v>
+      </c>
+      <c r="C4" s="23">
+        <v>2.5844</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.67678700000000003</v>
       </c>
       <c r="E4" s="5">
-        <v>100</v>
+        <v>95.25</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="5">
-        <v>100</v>
-      </c>
-      <c r="K4" s="5">
-        <v>100</v>
-      </c>
-      <c r="L4" s="5">
-        <v>100</v>
+      <c r="G4" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="18">
+        <v>1137</v>
+      </c>
+      <c r="K4" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="L4" s="18">
+        <v>0.67613999999999996</v>
       </c>
       <c r="M4" s="5">
-        <v>100</v>
+        <v>94.94</v>
       </c>
       <c r="N4" s="4"/>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="P4" s="3">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="23" t="s">
         <v>10</v>
       </c>
       <c r="R4" s="5">
         <f xml:space="preserve"> P4/(P4+P8)</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="20">
-        <v>100</v>
-      </c>
-      <c r="C5" s="20">
-        <v>100</v>
-      </c>
-      <c r="D5" s="20">
-        <v>100</v>
+        <v>35</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1137</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1.6652</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0.98019999999999996</v>
       </c>
       <c r="E5" s="5">
-        <v>100</v>
+        <v>95.013999999999996</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="5">
-        <v>100</v>
-      </c>
-      <c r="K5" s="5">
-        <v>100</v>
-      </c>
-      <c r="L5" s="5">
-        <v>100</v>
+      <c r="G5" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="44"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="18">
+        <v>851.98</v>
+      </c>
+      <c r="K5" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="L5" s="18">
+        <v>0.67613999999999996</v>
       </c>
       <c r="M5" s="5">
-        <v>100</v>
+        <v>94.94</v>
       </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="20" t="s">
-        <v>50</v>
+      <c r="O5" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="P5" s="3">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="R5" s="5">
         <f xml:space="preserve"> P5/(P5+P8)</f>
-        <v>0.2</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="20">
-        <v>100</v>
-      </c>
-      <c r="C6" s="20">
-        <v>100</v>
-      </c>
-      <c r="D6" s="20">
-        <v>100</v>
+        <v>36</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1044.7</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1.3808</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.97887000000000002</v>
       </c>
       <c r="E6" s="5">
-        <v>100</v>
+        <v>94.94</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="5">
-        <v>100</v>
-      </c>
-      <c r="K6" s="5">
-        <v>100</v>
-      </c>
-      <c r="L6" s="5">
-        <v>100</v>
+      <c r="G6" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="18">
+        <v>1137</v>
+      </c>
+      <c r="K6" s="18">
+        <v>2.5844</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0.67613999999999996</v>
       </c>
       <c r="M6" s="5">
-        <v>100</v>
+        <v>94.94</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="20" t="s">
-        <v>51</v>
+      <c r="O6" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="P6" s="3">
         <v>25</v>
       </c>
-      <c r="Q6" s="20" t="s">
-        <v>54</v>
+      <c r="Q6" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="R6" s="5">
         <f xml:space="preserve"> P6/(P6+P8)</f>
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="7">
-        <v>100</v>
+        <v>1136.5999999999999</v>
       </c>
       <c r="C7" s="7">
-        <v>100</v>
+        <v>2.3614999999999999</v>
       </c>
       <c r="D7" s="7">
-        <v>100</v>
+        <v>0.67613999999999996</v>
       </c>
       <c r="E7" s="8">
-        <v>100</v>
+        <v>95.192999999999998</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="5">
-        <v>100</v>
-      </c>
-      <c r="K7" s="5">
-        <v>100</v>
-      </c>
-      <c r="L7" s="5">
-        <v>100</v>
+      <c r="G7" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="18">
+        <v>1137</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0.98019999999999996</v>
       </c>
       <c r="M7" s="5">
-        <v>100</v>
+        <v>94.94</v>
       </c>
       <c r="N7" s="4"/>
-      <c r="O7" s="20" t="s">
-        <v>52</v>
+      <c r="O7" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="P7" s="6">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R7" s="8">
         <f xml:space="preserve"> P7/(P7+P8)</f>
-        <v>0.2</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+    <row r="8" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="5">
-        <v>100</v>
-      </c>
-      <c r="K8" s="5">
-        <v>100</v>
-      </c>
-      <c r="L8" s="5">
-        <v>100</v>
-      </c>
-      <c r="M8" s="5">
-        <v>100</v>
-      </c>
-      <c r="O8" s="26" t="s">
+      <c r="G8" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="19">
+        <v>1137</v>
+      </c>
+      <c r="K8" s="19">
+        <v>1.3808</v>
+      </c>
+      <c r="L8" s="19">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="M8" s="8">
+        <v>95.25</v>
+      </c>
+      <c r="O8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="26">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+      <c r="P8" s="30">
+        <f>P4+P5+P6+P7</f>
+        <v>150</v>
+      </c>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="5">
-        <v>100</v>
-      </c>
-      <c r="K9" s="5">
-        <v>100</v>
-      </c>
-      <c r="L9" s="5">
-        <v>100</v>
-      </c>
-      <c r="M9" s="5">
-        <v>100</v>
-      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="5">
-        <v>100</v>
-      </c>
-      <c r="K10" s="5">
-        <v>100</v>
-      </c>
-      <c r="L10" s="5">
-        <v>100</v>
-      </c>
-      <c r="M10" s="5">
-        <v>100</v>
-      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -4370,28 +4451,18 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="5">
-        <v>100</v>
-      </c>
-      <c r="K11" s="5">
-        <v>100</v>
-      </c>
-      <c r="L11" s="5">
-        <v>100</v>
-      </c>
-      <c r="M11" s="5">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="Q11" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
     </row>
     <row r="12" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -4400,31 +4471,21 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="5">
-        <v>100</v>
-      </c>
-      <c r="K12" s="5">
-        <v>100</v>
-      </c>
-      <c r="L12" s="5">
-        <v>100</v>
-      </c>
-      <c r="M12" s="5">
-        <v>100</v>
-      </c>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
+      <c r="Q12" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
     </row>
     <row r="13" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -4433,31 +4494,21 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="5">
-        <v>100</v>
-      </c>
-      <c r="K13" s="5">
-        <v>100</v>
-      </c>
-      <c r="L13" s="5">
-        <v>100</v>
-      </c>
-      <c r="M13" s="5">
-        <v>100</v>
-      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="32" t="s">
+      <c r="Q13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
     </row>
     <row r="14" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -4466,31 +4517,21 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="5">
-        <v>100</v>
-      </c>
-      <c r="K14" s="5">
-        <v>100</v>
-      </c>
-      <c r="L14" s="5">
-        <v>100</v>
-      </c>
-      <c r="M14" s="5">
-        <v>100</v>
-      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="32" t="s">
+      <c r="Q14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
     </row>
     <row r="15" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -4499,64 +4540,44 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="5">
-        <v>100</v>
-      </c>
-      <c r="K15" s="5">
-        <v>100</v>
-      </c>
-      <c r="L15" s="5">
-        <v>100</v>
-      </c>
-      <c r="M15" s="5">
-        <v>100</v>
-      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="32" t="s">
+      <c r="Q15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-    </row>
-    <row r="16" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+    </row>
+    <row r="16" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="8">
-        <v>100</v>
-      </c>
-      <c r="K16" s="8">
-        <v>100</v>
-      </c>
-      <c r="L16" s="8">
-        <v>100</v>
-      </c>
-      <c r="M16" s="8">
-        <v>100</v>
-      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
+      <c r="Q16" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
     </row>
     <row r="17" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
@@ -4565,8 +4586,8 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -4574,586 +4595,651 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
+      <c r="Q17" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
     </row>
     <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="59"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="60"/>
       <c r="M18" s="1"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
+      <c r="Q18" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
     </row>
     <row r="19" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="G19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20">
-        <f>(P4)/(P4+P5)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23">
+        <f>R4</f>
+        <v>0.25</v>
+      </c>
+      <c r="G20" s="23">
+        <f>R5</f>
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="H20" s="23">
+        <f>R6</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I20" s="23">
+        <f>R7</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="57" t="s">
+      <c r="G21" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="57"/>
+      <c r="H21" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="58"/>
     </row>
     <row r="22" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>65</v>
+      <c r="D22" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="J22" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="61"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
+        <v>59</v>
+      </c>
+      <c r="K22" s="62"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
     </row>
     <row r="23" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="20">
-        <v>100</v>
-      </c>
-      <c r="C23" s="20">
-        <v>100</v>
-      </c>
-      <c r="D23" s="20">
-        <v>100</v>
-      </c>
-      <c r="E23" s="20">
-        <v>100</v>
-      </c>
-      <c r="F23" s="20">
-        <f xml:space="preserve"> (B9 - B23)/(B9 - B4)</f>
+      <c r="A23" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="23">
+        <v>851.98</v>
+      </c>
+      <c r="C23" s="23">
+        <v>2.5844</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0.67678700000000003</v>
+      </c>
+      <c r="E23" s="5">
+        <v>95.25</v>
+      </c>
+      <c r="F23" s="24">
+        <f xml:space="preserve"> (B5- B23)/(B5 - B4)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="57">
-        <f>SUM(F20*F23,K20*K23)</f>
-        <v>0.5</v>
-      </c>
-      <c r="K23" s="57"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
+      <c r="G23" s="24">
+        <f xml:space="preserve"> (C23- C6)/(C4 - C6)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="24">
+        <f xml:space="preserve"> (D23- D7)/(D5 - D7)</f>
+        <v>2.127869499441111E-3</v>
+      </c>
+      <c r="I23" s="24">
+        <f xml:space="preserve"> (E23- E6)/(E4 - E6)</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="90">
+        <f>F20*F23+G20*G23+H20*H23+I20*I23</f>
+        <v>0.65001948633572582</v>
+      </c>
+      <c r="K23" s="90"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
     </row>
     <row r="24" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="20">
-        <v>100</v>
-      </c>
-      <c r="C24" s="20">
-        <v>100</v>
-      </c>
-      <c r="D24" s="20">
-        <v>100</v>
-      </c>
-      <c r="E24" s="20">
-        <v>100</v>
-      </c>
-      <c r="F24" s="20">
-        <f xml:space="preserve"> (B9 - B24)/(B9 - B4)</f>
+        <v>35</v>
+      </c>
+      <c r="B24" s="23">
+        <v>1137</v>
+      </c>
+      <c r="C24" s="23">
+        <v>1.6652</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="E24" s="5">
+        <v>95.013999999999996</v>
+      </c>
+      <c r="F24" s="23">
+        <f xml:space="preserve"> (B5- B24)/(B5 - B4)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="23">
+        <f xml:space="preserve"> (C24- C6)/(C4 - C6)</f>
+        <v>0.23629112662013957</v>
+      </c>
+      <c r="H24" s="23">
+        <f xml:space="preserve"> (D24- D7)/(D5 - D7)</f>
         <v>1</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="57">
-        <f>SUM(F20*F24,K20*K24)</f>
-        <v>0.5</v>
-      </c>
-      <c r="K24" s="57"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
+      <c r="I24" s="23">
+        <f xml:space="preserve"> (E24- E6)/(E4 - E6)</f>
+        <v>0.23870967741934684</v>
+      </c>
+      <c r="J24" s="58">
+        <f>F20*F24+G20*G24+H20*H24+I20*I24</f>
+        <v>0.23781553844539591</v>
+      </c>
+      <c r="K24" s="58"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
     </row>
     <row r="25" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="20">
-        <v>100</v>
-      </c>
-      <c r="C25" s="20">
-        <v>100</v>
-      </c>
-      <c r="D25" s="20">
-        <v>100</v>
-      </c>
-      <c r="E25" s="20">
-        <v>100</v>
-      </c>
-      <c r="F25" s="20">
-        <f xml:space="preserve"> (B9 - B25)/(B9 - B4)</f>
-        <v>1</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="57">
-        <f>SUM(F20*F25,K20*K25)</f>
-        <v>0.5</v>
-      </c>
-      <c r="K25" s="57"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
+        <v>36</v>
+      </c>
+      <c r="B25" s="23">
+        <v>1044.7</v>
+      </c>
+      <c r="C25" s="23">
+        <v>1.3808</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0.97887000000000002</v>
+      </c>
+      <c r="E25" s="5">
+        <v>94.94</v>
+      </c>
+      <c r="F25" s="23">
+        <f xml:space="preserve"> (B5- B25)/(B5 - B4)</f>
+        <v>0.32383692372465078</v>
+      </c>
+      <c r="G25" s="23">
+        <f xml:space="preserve"> (C25- C6)/(C4 - C6)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="23">
+        <f xml:space="preserve"> (D25- D7)/(D5 - D7)</f>
+        <v>0.99562586331645087</v>
+      </c>
+      <c r="I25" s="23">
+        <f xml:space="preserve"> (E25- E6)/(E4 - E6)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="58">
+        <f>F20*F25+G20*G25+H20*H25+I20*I25</f>
+        <v>0.22319149711922709</v>
+      </c>
+      <c r="K25" s="58"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
     </row>
     <row r="26" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="7">
-        <v>100</v>
+        <v>1136.5999999999999</v>
       </c>
       <c r="C26" s="7">
-        <v>100</v>
+        <v>2.3614999999999999</v>
       </c>
       <c r="D26" s="7">
-        <v>100</v>
-      </c>
-      <c r="E26" s="7">
-        <v>100</v>
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="E26" s="8">
+        <v>95.192999999999998</v>
       </c>
       <c r="F26" s="7">
-        <f xml:space="preserve"> (B9 - B26)/(B9 - B4)</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="42">
-        <f>SUM(F20*F26,K20*K26)</f>
-        <v>0.5</v>
-      </c>
-      <c r="K26" s="58"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
+        <f xml:space="preserve"> (B5- B26)/(B5 - B4)</f>
+        <v>1.4034102869977228E-3</v>
+      </c>
+      <c r="G26" s="7">
+        <f xml:space="preserve"> (C26- C6)/(C4 - C6)</f>
+        <v>0.81480558325024921</v>
+      </c>
+      <c r="H26" s="7">
+        <f xml:space="preserve"> (D26- D7)/(D5 - D7)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <f xml:space="preserve"> (E26- E6)/(E4 - E6)</f>
+        <v>0.81612903225805888</v>
+      </c>
+      <c r="J26" s="59">
+        <f>F20*F26+G20*G26+H20*H26+I20*I26</f>
+        <v>0.32631989858380617</v>
+      </c>
+      <c r="K26" s="59"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
     </row>
     <row r="27" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
     </row>
     <row r="28" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
     </row>
     <row r="29" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
     </row>
     <row r="33" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="68"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
+      <c r="A33" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="69"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
     </row>
     <row r="34" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="51"/>
-      <c r="C34" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="70" t="s">
+      <c r="C34" s="70" t="s">
         <v>21</v>
       </c>
+      <c r="D34" s="71" t="s">
+        <v>22</v>
+      </c>
       <c r="E34" s="55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G34" s="50" t="s">
         <v>3</v>
       </c>
       <c r="H34" s="51"/>
-      <c r="I34" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="70" t="s">
+      <c r="I34" s="70" t="s">
         <v>21</v>
       </c>
+      <c r="J34" s="71" t="s">
+        <v>22</v>
+      </c>
       <c r="K34" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
+        <v>23</v>
+      </c>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
     </row>
     <row r="35" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="20">
-        <v>30</v>
-      </c>
-      <c r="D35" s="20">
-        <v>30</v>
-      </c>
-      <c r="E35" s="5">
-        <v>30</v>
-      </c>
-      <c r="G35" s="62" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="23">
+        <v>438.05860000000001</v>
+      </c>
+      <c r="D35" s="23">
+        <f>B23</f>
+        <v>851.98</v>
+      </c>
+      <c r="E35" s="23">
+        <v>1274.1813999999999</v>
+      </c>
+      <c r="G35" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="63"/>
-      <c r="I35" s="20">
-        <v>30</v>
-      </c>
-      <c r="J35" s="20">
-        <v>30</v>
+      <c r="H35" s="64"/>
+      <c r="I35" s="23">
+        <v>15</v>
+      </c>
+      <c r="J35" s="23">
+        <f>P4</f>
+        <v>50</v>
       </c>
       <c r="K35" s="5">
-        <v>30</v>
-      </c>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
+        <v>70</v>
+      </c>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
     </row>
     <row r="36" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="64"/>
+      <c r="C36" s="23">
+        <v>1.8564000000000001</v>
+      </c>
+      <c r="D36" s="23">
+        <f>C23</f>
+        <v>2.5844</v>
+      </c>
+      <c r="E36" s="5">
+        <v>3.3123999999999998</v>
+      </c>
+      <c r="G36" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="64"/>
+      <c r="I36" s="23">
+        <v>26</v>
+      </c>
+      <c r="J36" s="23">
+        <f>P5</f>
+        <v>35</v>
+      </c>
+      <c r="K36" s="5">
+        <v>39</v>
+      </c>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+    </row>
+    <row r="37" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="64"/>
+      <c r="C37" s="23">
+        <v>0.67449999999999999</v>
+      </c>
+      <c r="D37" s="23">
+        <f>D23</f>
+        <v>0.67678700000000003</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.67920000000000003</v>
+      </c>
+      <c r="G37" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="64"/>
+      <c r="I37" s="23">
+        <v>15</v>
+      </c>
+      <c r="J37" s="23">
+        <f>P6</f>
+        <v>25</v>
+      </c>
+      <c r="K37" s="5">
+        <v>34</v>
+      </c>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+    </row>
+    <row r="38" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="20">
-        <v>30</v>
-      </c>
-      <c r="D36" s="20">
-        <v>30</v>
-      </c>
-      <c r="E36" s="5">
-        <v>30</v>
-      </c>
-      <c r="G36" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="H36" s="63"/>
-      <c r="I36" s="20">
-        <v>30</v>
-      </c>
-      <c r="J36" s="20">
-        <v>30</v>
-      </c>
-      <c r="K36" s="5">
-        <v>30</v>
-      </c>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-    </row>
-    <row r="37" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="20">
-        <v>30</v>
-      </c>
-      <c r="D37" s="20">
-        <v>30</v>
-      </c>
-      <c r="E37" s="5">
-        <v>30</v>
-      </c>
-      <c r="G37" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" s="63"/>
-      <c r="I37" s="20">
-        <v>30</v>
-      </c>
-      <c r="J37" s="20">
-        <v>30</v>
-      </c>
-      <c r="K37" s="5">
-        <v>30</v>
-      </c>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-    </row>
-    <row r="38" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="65"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="7">
-        <v>30</v>
+        <v>90.850700000000003</v>
       </c>
       <c r="D38" s="7">
-        <v>30</v>
+        <f>E23</f>
+        <v>95.25</v>
       </c>
       <c r="E38" s="8">
-        <v>30</v>
-      </c>
-      <c r="G38" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="65"/>
+        <v>100.2122</v>
+      </c>
+      <c r="G38" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="66"/>
       <c r="I38" s="7">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J38" s="7">
-        <v>30</v>
+        <f>P7</f>
+        <v>40</v>
       </c>
       <c r="K38" s="8">
-        <v>30</v>
-      </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
+        <v>49</v>
+      </c>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
     </row>
     <row r="39" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F39" s="20"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
+      <c r="F39" s="23"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
     </row>
     <row r="40" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F40" s="20"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
+      <c r="F40" s="23"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
     </row>
     <row r="41" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F41" s="20"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
+      <c r="F41" s="23"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
     </row>
     <row r="42" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F42" s="20"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
+      <c r="F42" s="23"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
     </row>
     <row r="43" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="56"/>
       <c r="B43" s="56"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
     </row>
     <row r="44" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
@@ -5176,1101 +5262,1172 @@
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="11"/>
+      <c r="A46" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="98"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="71"/>
+      <c r="P46" s="98"/>
+      <c r="Q46" s="99"/>
     </row>
     <row r="47" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="13"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="72"/>
+      <c r="A47" s="100"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="101"/>
+      <c r="Q47" s="102"/>
     </row>
     <row r="48" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="15" t="s">
+      <c r="B48" s="104"/>
+      <c r="C48" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H48" s="15" t="s">
+      <c r="E48" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="J48" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="N48" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="O48" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="P48" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q48" s="109"/>
+    </row>
+    <row r="49" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="44"/>
+      <c r="C49" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="23">
+        <v>438.05860000000001</v>
+      </c>
+      <c r="E49" s="23">
+        <f t="shared" ref="E49:E56" si="0">D36</f>
+        <v>2.5844</v>
+      </c>
+      <c r="F49" s="75">
+        <v>0.68164000000000002</v>
+      </c>
+      <c r="G49" s="76">
+        <v>95.608000000000004</v>
+      </c>
+      <c r="H49" s="75">
+        <v>35</v>
+      </c>
+      <c r="I49" s="75">
+        <v>25</v>
+      </c>
+      <c r="J49" s="75">
+        <v>40</v>
+      </c>
+      <c r="K49" s="75">
         <v>50</v>
       </c>
-      <c r="I48" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J48" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L48" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M48" s="15" t="s">
+      <c r="L49" s="75">
+        <f>(B24-D49)/(B24-B23)</f>
+        <v>2.4522538769209179</v>
+      </c>
+      <c r="M49" s="75">
+        <f>(E49-C25)/(C23-C25)</f>
+        <v>1</v>
+      </c>
+      <c r="N49" s="75">
+        <f>(F49-D26)/(D24-D26)</f>
+        <v>1.8088535157534894E-2</v>
+      </c>
+      <c r="O49" s="75">
+        <f>(G49-E25)/(E23-E25)</f>
+        <v>2.1548387096774242</v>
+      </c>
+      <c r="P49" s="111">
+        <f>F20*L49+G20*M49+H20*N49+I20*O49</f>
+        <v>1.2584869895394264</v>
+      </c>
+      <c r="Q49" s="94"/>
+    </row>
+    <row r="50" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="44"/>
+      <c r="C50" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="23">
+        <v>1274.1813999999999</v>
+      </c>
+      <c r="E50" s="23">
+        <f>D36</f>
+        <v>2.5844</v>
+      </c>
+      <c r="F50" s="75">
+        <v>0.68164000000000002</v>
+      </c>
+      <c r="G50" s="76">
+        <v>95.608000000000004</v>
+      </c>
+      <c r="H50" s="75">
+        <v>35</v>
+      </c>
+      <c r="I50" s="75">
+        <v>25</v>
+      </c>
+      <c r="J50" s="75">
+        <v>40</v>
+      </c>
+      <c r="K50" s="75">
+        <v>50</v>
+      </c>
+      <c r="L50" s="75">
+        <f>(B24-D50)/(B24-B23)</f>
+        <v>-0.4813044698617639</v>
+      </c>
+      <c r="M50" s="75">
+        <f>(E50-C25)/(C23-C25)</f>
+        <v>1</v>
+      </c>
+      <c r="N50" s="75">
+        <f>(F50-D26)/(D24-D26)</f>
+        <v>1.8088535157534894E-2</v>
+      </c>
+      <c r="O50" s="75">
+        <f>(G50-E25)/(E23-E25)</f>
+        <v>2.1548387096774242</v>
+      </c>
+      <c r="P50" s="111">
+        <f>F20*L50+G20*M50+H20*N50+I20*O50</f>
+        <v>0.52509740284375606</v>
+      </c>
+      <c r="Q50" s="94"/>
+    </row>
+    <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="44"/>
+      <c r="C51" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="23">
+        <f>D35</f>
+        <v>851.98</v>
+      </c>
+      <c r="E51" s="23">
+        <v>1.8564000000000001</v>
+      </c>
+      <c r="F51" s="75">
+        <v>0.68164000000000002</v>
+      </c>
+      <c r="G51" s="76">
+        <v>95.608000000000004</v>
+      </c>
+      <c r="H51" s="75">
+        <v>35</v>
+      </c>
+      <c r="I51" s="75">
+        <v>25</v>
+      </c>
+      <c r="J51" s="75">
+        <v>40</v>
+      </c>
+      <c r="K51" s="75">
+        <v>50</v>
+      </c>
+      <c r="L51" s="75">
+        <f>(B24-D51)/(B24-B23)</f>
+        <v>1</v>
+      </c>
+      <c r="M51" s="75">
+        <f>(E51-C25)/(C23-C25)</f>
+        <v>0.39514788966434033</v>
+      </c>
+      <c r="N51" s="75" t="e" cm="1">
+        <f t="array" ref="N51">(K40F51-D26)/(D24-D26)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O51" s="75">
+        <f>(G51-E25)/(E23-E25)</f>
+        <v>2.1548387096774242</v>
+      </c>
+      <c r="P51" s="111" t="e">
+        <f>F20*L51+G20*M51+H20*N51+I20*O51</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q51" s="94"/>
+    </row>
+    <row r="52" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="N48" s="15" t="s">
+      <c r="B52" s="44"/>
+      <c r="C52" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="23">
+        <f>D35</f>
+        <v>851.98</v>
+      </c>
+      <c r="E52" s="23">
+        <v>3.3123999999999998</v>
+      </c>
+      <c r="F52" s="75">
+        <v>0.68164000000000002</v>
+      </c>
+      <c r="G52" s="75">
+        <v>95.608000000000004</v>
+      </c>
+      <c r="H52" s="75">
+        <v>35</v>
+      </c>
+      <c r="I52" s="75">
+        <v>25</v>
+      </c>
+      <c r="J52" s="75">
+        <v>40</v>
+      </c>
+      <c r="K52" s="75">
+        <v>50</v>
+      </c>
+      <c r="L52" s="75">
+        <f>(B24-D52)/(B24-B23)</f>
+        <v>1</v>
+      </c>
+      <c r="M52" s="75">
+        <f>(E52-C25)/(C23-C25)</f>
+        <v>1.6048521103356594</v>
+      </c>
+      <c r="N52" s="75">
+        <f>(F52-D26)/(D24-D26)</f>
+        <v>1.8088535157534894E-2</v>
+      </c>
+      <c r="O52" s="75">
+        <f>(G52-E25)/(E23-E25)</f>
+        <v>2.1548387096774242</v>
+      </c>
+      <c r="P52" s="111">
+        <f>F20*L52+G20*M52+H20*N52+I20*O52</f>
+        <v>1.0098550006429705</v>
+      </c>
+      <c r="Q52" s="94"/>
+    </row>
+    <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="O48" s="15" t="s">
+      <c r="B53" s="44"/>
+      <c r="C53" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="23">
+        <f>D35</f>
+        <v>851.98</v>
+      </c>
+      <c r="E53" s="23">
+        <f>D36</f>
+        <v>2.5844</v>
+      </c>
+      <c r="F53" s="23">
+        <v>0.67449999999999999</v>
+      </c>
+      <c r="G53" s="75">
+        <v>95.608000000000004</v>
+      </c>
+      <c r="H53" s="75">
+        <v>35</v>
+      </c>
+      <c r="I53" s="75">
+        <v>25</v>
+      </c>
+      <c r="J53" s="75">
+        <v>40</v>
+      </c>
+      <c r="K53" s="75">
+        <v>50</v>
+      </c>
+      <c r="L53" s="75">
+        <f>(B24-D53)/(B24-B23)</f>
+        <v>1</v>
+      </c>
+      <c r="M53" s="75">
+        <f>(E53-C25)/(C23-C25)</f>
+        <v>1</v>
+      </c>
+      <c r="N53" s="75">
+        <f>(F53-D26)/(D24-D26)</f>
+        <v>-5.3936723015193542E-3</v>
+      </c>
+      <c r="O53" s="75">
+        <f>(G53-E25)/(E23-E25)</f>
+        <v>2.1548387096774242</v>
+      </c>
+      <c r="P53" s="111">
+        <f>F20*L53+G20*M53+H20*N53+I20*O53</f>
+        <v>0.89206891924361775</v>
+      </c>
+      <c r="Q53" s="94"/>
+    </row>
+    <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="44"/>
+      <c r="C54" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="23">
+        <f>D35</f>
+        <v>851.98</v>
+      </c>
+      <c r="E54" s="23">
+        <f>D36</f>
+        <v>2.5844</v>
+      </c>
+      <c r="F54" s="23">
+        <v>0.67920000000000003</v>
+      </c>
+      <c r="G54" s="75">
+        <v>95.608000000000004</v>
+      </c>
+      <c r="H54" s="75">
+        <v>35</v>
+      </c>
+      <c r="I54" s="75">
+        <v>25</v>
+      </c>
+      <c r="J54" s="75">
+        <v>40</v>
+      </c>
+      <c r="K54" s="75">
+        <v>50</v>
+      </c>
+      <c r="L54" s="75">
+        <f>(B24-D54)/(B24-B23)</f>
+        <v>1</v>
+      </c>
+      <c r="M54" s="75">
+        <f>(E54-C25)/(C23-C25)</f>
+        <v>1</v>
+      </c>
+      <c r="N54" s="75">
+        <f>(F54-D26)/(D24-D26)</f>
+        <v>1.0063803196737692E-2</v>
+      </c>
+      <c r="O54" s="75">
+        <f>(G54-E25)/(E23-E25)</f>
+        <v>2.1548387096774242</v>
+      </c>
+      <c r="P54" s="111">
+        <f>F20*L54+G20*M54+H20*N54+I20*O54</f>
+        <v>0.89427713002908304</v>
+      </c>
+      <c r="Q54" s="94"/>
+    </row>
+    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="44"/>
+      <c r="C55" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="23">
+        <f>D35</f>
+        <v>851.98</v>
+      </c>
+      <c r="E55" s="23">
+        <f>D36</f>
+        <v>2.5844</v>
+      </c>
+      <c r="F55" s="75">
+        <v>0.68164000000000002</v>
+      </c>
+      <c r="G55" s="23">
+        <v>90.850700000000003</v>
+      </c>
+      <c r="H55" s="75">
+        <v>35</v>
+      </c>
+      <c r="I55" s="75">
+        <v>25</v>
+      </c>
+      <c r="J55" s="75">
+        <v>40</v>
+      </c>
+      <c r="K55" s="75">
+        <v>50</v>
+      </c>
+      <c r="L55" s="75">
+        <f>(B24-D55)/(B24-B23)</f>
+        <v>1</v>
+      </c>
+      <c r="M55" s="75">
+        <f>(E55-C25)/(C23-C25)</f>
+        <v>1</v>
+      </c>
+      <c r="N55" s="75">
+        <f>(F55-D26)/(D24-D26)</f>
+        <v>1.8088535157534894E-2</v>
+      </c>
+      <c r="O55" s="75">
+        <f>(G55-E25)/(E23-E25)</f>
+        <v>-13.19129032258053</v>
+      </c>
+      <c r="P55" s="111">
+        <f>F20*L55+G20*M55+H20*N55+I20*O55</f>
+        <v>-2.3353404864819507</v>
+      </c>
+      <c r="Q55" s="94"/>
+    </row>
+    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="P48" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q48" s="61"/>
-    </row>
-    <row r="49" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="74">
-        <v>0</v>
-      </c>
-      <c r="E49" s="74">
-        <v>0</v>
-      </c>
-      <c r="F49" s="74">
-        <v>0</v>
-      </c>
-      <c r="G49" s="74">
-        <v>0</v>
-      </c>
-      <c r="H49" s="74">
-        <v>0</v>
-      </c>
-      <c r="I49" s="74">
-        <v>0</v>
-      </c>
-      <c r="J49" s="74">
-        <v>0</v>
-      </c>
-      <c r="K49" s="74">
-        <v>0</v>
-      </c>
-      <c r="L49" s="74">
-        <v>0</v>
-      </c>
-      <c r="M49" s="74">
-        <v>0</v>
-      </c>
-      <c r="N49" s="74">
-        <v>0</v>
-      </c>
-      <c r="O49" s="74">
-        <v>0</v>
-      </c>
-      <c r="P49" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="74">
-        <v>0</v>
-      </c>
-      <c r="E50" s="74">
-        <v>0</v>
-      </c>
-      <c r="F50" s="74">
-        <v>0</v>
-      </c>
-      <c r="G50" s="74">
-        <v>0</v>
-      </c>
-      <c r="H50" s="74">
-        <v>0</v>
-      </c>
-      <c r="I50" s="74">
-        <v>0</v>
-      </c>
-      <c r="J50" s="74">
-        <v>0</v>
-      </c>
-      <c r="K50" s="74">
-        <v>0</v>
-      </c>
-      <c r="L50" s="74">
-        <v>0</v>
-      </c>
-      <c r="M50" s="74">
-        <v>0</v>
-      </c>
-      <c r="N50" s="74">
-        <v>0</v>
-      </c>
-      <c r="O50" s="74">
-        <v>0</v>
-      </c>
-      <c r="P50" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="74">
-        <v>0</v>
-      </c>
-      <c r="E51" s="74">
-        <v>0</v>
-      </c>
-      <c r="F51" s="74">
-        <v>0</v>
-      </c>
-      <c r="G51" s="74">
-        <v>0</v>
-      </c>
-      <c r="H51" s="74">
-        <v>0</v>
-      </c>
-      <c r="I51" s="74">
-        <v>0</v>
-      </c>
-      <c r="J51" s="74">
-        <v>0</v>
-      </c>
-      <c r="K51" s="74">
-        <v>0</v>
-      </c>
-      <c r="L51" s="74">
-        <v>0</v>
-      </c>
-      <c r="M51" s="74">
-        <v>0</v>
-      </c>
-      <c r="N51" s="74">
-        <v>0</v>
-      </c>
-      <c r="O51" s="74">
-        <v>0</v>
-      </c>
-      <c r="P51" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="74">
-        <v>0</v>
-      </c>
-      <c r="E52" s="74">
-        <v>0</v>
-      </c>
-      <c r="F52" s="74">
-        <v>0</v>
-      </c>
-      <c r="G52" s="74">
-        <v>0</v>
-      </c>
-      <c r="H52" s="74">
-        <v>0</v>
-      </c>
-      <c r="I52" s="74">
-        <v>0</v>
-      </c>
-      <c r="J52" s="74">
-        <v>0</v>
-      </c>
-      <c r="K52" s="74">
-        <v>0</v>
-      </c>
-      <c r="L52" s="74">
-        <v>0</v>
-      </c>
-      <c r="M52" s="74">
-        <v>0</v>
-      </c>
-      <c r="N52" s="74">
-        <v>0</v>
-      </c>
-      <c r="O52" s="74">
-        <v>0</v>
-      </c>
-      <c r="P52" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="74">
-        <v>0</v>
-      </c>
-      <c r="E53" s="74">
-        <v>0</v>
-      </c>
-      <c r="F53" s="74">
-        <v>0</v>
-      </c>
-      <c r="G53" s="74">
-        <v>0</v>
-      </c>
-      <c r="H53" s="74">
-        <v>0</v>
-      </c>
-      <c r="I53" s="74">
-        <v>0</v>
-      </c>
-      <c r="J53" s="74">
-        <v>0</v>
-      </c>
-      <c r="K53" s="74">
-        <v>0</v>
-      </c>
-      <c r="L53" s="74">
-        <v>0</v>
-      </c>
-      <c r="M53" s="74">
-        <v>0</v>
-      </c>
-      <c r="N53" s="74">
-        <v>0</v>
-      </c>
-      <c r="O53" s="74">
-        <v>0</v>
-      </c>
-      <c r="P53" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="74">
-        <v>0</v>
-      </c>
-      <c r="E54" s="74">
-        <v>0</v>
-      </c>
-      <c r="F54" s="74">
-        <v>0</v>
-      </c>
-      <c r="G54" s="74">
-        <v>0</v>
-      </c>
-      <c r="H54" s="74">
-        <v>0</v>
-      </c>
-      <c r="I54" s="74">
-        <v>0</v>
-      </c>
-      <c r="J54" s="74">
-        <v>0</v>
-      </c>
-      <c r="K54" s="74">
-        <v>0</v>
-      </c>
-      <c r="L54" s="74">
-        <v>0</v>
-      </c>
-      <c r="M54" s="74">
-        <v>0</v>
-      </c>
-      <c r="N54" s="74">
-        <v>0</v>
-      </c>
-      <c r="O54" s="74">
-        <v>0</v>
-      </c>
-      <c r="P54" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="74">
-        <v>0</v>
-      </c>
-      <c r="E55" s="74">
-        <v>0</v>
-      </c>
-      <c r="F55" s="74">
-        <v>0</v>
-      </c>
-      <c r="G55" s="74">
-        <v>0</v>
-      </c>
-      <c r="H55" s="74">
-        <v>0</v>
-      </c>
-      <c r="I55" s="74">
-        <v>0</v>
-      </c>
-      <c r="J55" s="74">
-        <v>0</v>
-      </c>
-      <c r="K55" s="74">
-        <v>0</v>
-      </c>
-      <c r="L55" s="74">
-        <v>0</v>
-      </c>
-      <c r="M55" s="74">
-        <v>0</v>
-      </c>
-      <c r="N55" s="74">
-        <v>0</v>
-      </c>
-      <c r="O55" s="74">
-        <v>0</v>
-      </c>
-      <c r="P55" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="76">
-        <v>0</v>
-      </c>
-      <c r="E56" s="76">
-        <v>0</v>
-      </c>
-      <c r="F56" s="76">
-        <v>0</v>
-      </c>
-      <c r="G56" s="76">
-        <v>0</v>
-      </c>
-      <c r="H56" s="76">
-        <v>0</v>
-      </c>
-      <c r="I56" s="76">
-        <v>0</v>
-      </c>
-      <c r="J56" s="76">
-        <v>0</v>
-      </c>
-      <c r="K56" s="76">
-        <v>0</v>
-      </c>
-      <c r="L56" s="76">
-        <v>0</v>
-      </c>
-      <c r="M56" s="76">
-        <v>0</v>
-      </c>
-      <c r="N56" s="76">
-        <v>0</v>
-      </c>
-      <c r="O56" s="76">
-        <v>0</v>
-      </c>
-      <c r="P56" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="77">
-        <v>0</v>
-      </c>
+      <c r="B56" s="47"/>
+      <c r="C56" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="7">
+        <f>D35</f>
+        <v>851.98</v>
+      </c>
+      <c r="E56" s="7">
+        <f>D36</f>
+        <v>2.5844</v>
+      </c>
+      <c r="F56" s="77">
+        <v>0.68164000000000002</v>
+      </c>
+      <c r="G56" s="7">
+        <v>100.2122</v>
+      </c>
+      <c r="H56" s="77">
+        <v>35</v>
+      </c>
+      <c r="I56" s="77">
+        <v>25</v>
+      </c>
+      <c r="J56" s="77">
+        <v>40</v>
+      </c>
+      <c r="K56" s="77">
+        <v>50</v>
+      </c>
+      <c r="L56" s="77">
+        <f>(B24-D56)/(B24-B23)</f>
+        <v>1</v>
+      </c>
+      <c r="M56" s="77">
+        <f>(E56-C25)/(C23-C25)</f>
+        <v>1</v>
+      </c>
+      <c r="N56" s="77">
+        <f>(F56-D26)/(D24-D26)</f>
+        <v>1.8088535157534894E-2</v>
+      </c>
+      <c r="O56" s="77">
+        <f>(G56-E25)/(E23-E25)</f>
+        <v>17.007096774193418</v>
+      </c>
+      <c r="P56" s="112">
+        <f>F20*L56+G20*M56+H20*N56+I20*O56</f>
+        <v>4.0222146917862478</v>
+      </c>
+      <c r="Q56" s="96"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="74"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="74"/>
-      <c r="L57" s="74"/>
-      <c r="M57" s="74"/>
-      <c r="N57" s="74"/>
-      <c r="O57" s="74"/>
-      <c r="P57" s="74"/>
-      <c r="Q57" s="74"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="75"/>
+      <c r="N57" s="75"/>
+      <c r="O57" s="75"/>
+      <c r="P57" s="75"/>
+      <c r="Q57" s="75"/>
     </row>
     <row r="58" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="74"/>
-      <c r="L58" s="74"/>
-      <c r="M58" s="74"/>
-      <c r="N58" s="74"/>
-      <c r="O58" s="74"/>
-      <c r="P58" s="74"/>
-      <c r="Q58" s="74"/>
-    </row>
-    <row r="59" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="85"/>
-      <c r="N59" s="85"/>
-      <c r="O59" s="85"/>
-      <c r="P59" s="85"/>
-      <c r="Q59" s="86"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="75"/>
+      <c r="M58" s="75"/>
+      <c r="N58" s="75"/>
+      <c r="O58" s="75"/>
+      <c r="P58" s="75"/>
+      <c r="Q58" s="75"/>
+    </row>
+    <row r="59" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="72"/>
     </row>
     <row r="60" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="53"/>
+      <c r="Q60" s="73"/>
+    </row>
+    <row r="61" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="51"/>
-      <c r="C60" s="15" t="s">
+      <c r="B61" s="51"/>
+      <c r="C61" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D61" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H60" s="15" t="s">
+      <c r="E61" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N61" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O61" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P61" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q61" s="62"/>
+    </row>
+    <row r="62" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="44"/>
+      <c r="C62" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="75">
+        <v>856.12</v>
+      </c>
+      <c r="E62" s="75">
+        <v>4.0404</v>
+      </c>
+      <c r="F62" s="75">
+        <v>0.68164000000000002</v>
+      </c>
+      <c r="G62" s="76">
+        <v>95.608000000000004</v>
+      </c>
+      <c r="H62" s="75">
+        <v>35</v>
+      </c>
+      <c r="I62" s="75">
+        <v>25</v>
+      </c>
+      <c r="J62" s="75">
+        <v>40</v>
+      </c>
+      <c r="K62" s="75">
         <v>50</v>
       </c>
-      <c r="I60" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K60" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L60" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M60" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="N60" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="O60" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P60" s="51" t="s">
+      <c r="L62" s="75">
+        <v>0</v>
+      </c>
+      <c r="M62" s="75">
+        <v>0</v>
+      </c>
+      <c r="N62" s="75">
+        <v>0</v>
+      </c>
+      <c r="O62" s="75">
+        <v>0</v>
+      </c>
+      <c r="P62" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="93"/>
+    </row>
+    <row r="63" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="44"/>
+      <c r="C63" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="75">
+        <v>856.12</v>
+      </c>
+      <c r="E63" s="75">
+        <v>4.0404</v>
+      </c>
+      <c r="F63" s="75">
+        <v>0.68164000000000002</v>
+      </c>
+      <c r="G63" s="76">
+        <v>95.608000000000004</v>
+      </c>
+      <c r="H63" s="75">
+        <v>35</v>
+      </c>
+      <c r="I63" s="75">
+        <v>25</v>
+      </c>
+      <c r="J63" s="75">
+        <v>40</v>
+      </c>
+      <c r="K63" s="75">
+        <v>50</v>
+      </c>
+      <c r="L63" s="75">
+        <v>0</v>
+      </c>
+      <c r="M63" s="75">
+        <v>0</v>
+      </c>
+      <c r="N63" s="75">
+        <v>0</v>
+      </c>
+      <c r="O63" s="75">
+        <v>0</v>
+      </c>
+      <c r="P63" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="94"/>
+    </row>
+    <row r="64" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="Q60" s="61"/>
-    </row>
-    <row r="61" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="38" t="s">
+      <c r="B64" s="44"/>
+      <c r="C64" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="75">
+        <v>856.12</v>
+      </c>
+      <c r="E64" s="75">
+        <v>4.0404</v>
+      </c>
+      <c r="F64" s="75">
+        <v>0.68164000000000002</v>
+      </c>
+      <c r="G64" s="76">
+        <v>95.608000000000004</v>
+      </c>
+      <c r="H64" s="75">
+        <v>35</v>
+      </c>
+      <c r="I64" s="75">
         <v>25</v>
       </c>
-      <c r="B61" s="39"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="74">
+      <c r="J64" s="75">
+        <v>40</v>
+      </c>
+      <c r="K64" s="75">
+        <v>50</v>
+      </c>
+      <c r="L64" s="75">
         <v>0</v>
       </c>
-      <c r="E61" s="74">
+      <c r="M64" s="75">
         <v>0</v>
       </c>
-      <c r="F61" s="74">
+      <c r="N64" s="75">
         <v>0</v>
       </c>
-      <c r="G61" s="74">
+      <c r="O64" s="75">
         <v>0</v>
       </c>
-      <c r="H61" s="74">
+      <c r="P64" s="91">
         <v>0</v>
       </c>
-      <c r="I61" s="74">
+      <c r="Q64" s="94"/>
+    </row>
+    <row r="65" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="44"/>
+      <c r="C65" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="75">
+        <v>856.12</v>
+      </c>
+      <c r="E65" s="75">
+        <v>4.0404</v>
+      </c>
+      <c r="F65" s="75">
+        <v>0.68164000000000002</v>
+      </c>
+      <c r="G65" s="76">
+        <v>95.608000000000004</v>
+      </c>
+      <c r="H65" s="75">
+        <v>35</v>
+      </c>
+      <c r="I65" s="75">
+        <v>25</v>
+      </c>
+      <c r="J65" s="75">
+        <v>40</v>
+      </c>
+      <c r="K65" s="75">
+        <v>50</v>
+      </c>
+      <c r="L65" s="75">
         <v>0</v>
       </c>
-      <c r="J61" s="74">
+      <c r="M65" s="75">
         <v>0</v>
       </c>
-      <c r="K61" s="74">
+      <c r="N65" s="75">
         <v>0</v>
       </c>
-      <c r="L61" s="74">
+      <c r="O65" s="75">
         <v>0</v>
       </c>
-      <c r="M61" s="74">
+      <c r="P65" s="91">
         <v>0</v>
       </c>
-      <c r="N61" s="74">
+      <c r="Q65" s="94"/>
+    </row>
+    <row r="66" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="44"/>
+      <c r="C66" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="75">
+        <v>856.12</v>
+      </c>
+      <c r="E66" s="75">
+        <v>4.0404</v>
+      </c>
+      <c r="F66" s="75">
+        <v>0.68164000000000002</v>
+      </c>
+      <c r="G66" s="76">
+        <v>95.608000000000004</v>
+      </c>
+      <c r="H66" s="75">
+        <v>35</v>
+      </c>
+      <c r="I66" s="75">
+        <v>25</v>
+      </c>
+      <c r="J66" s="75">
+        <v>40</v>
+      </c>
+      <c r="K66" s="75">
+        <v>50</v>
+      </c>
+      <c r="L66" s="75">
         <v>0</v>
       </c>
-      <c r="O61" s="74">
+      <c r="M66" s="75">
         <v>0</v>
       </c>
-      <c r="P61" s="74">
+      <c r="N66" s="75">
         <v>0</v>
       </c>
-      <c r="Q61" s="75">
+      <c r="O66" s="75">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="74">
+      <c r="P66" s="91">
         <v>0</v>
       </c>
-      <c r="E62" s="74">
+      <c r="Q66" s="94"/>
+    </row>
+    <row r="67" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="44"/>
+      <c r="C67" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="75">
+        <v>856.12</v>
+      </c>
+      <c r="E67" s="75">
+        <v>4.0404</v>
+      </c>
+      <c r="F67" s="75">
+        <v>0.68164000000000002</v>
+      </c>
+      <c r="G67" s="76">
+        <v>95.608000000000004</v>
+      </c>
+      <c r="H67" s="75">
+        <v>35</v>
+      </c>
+      <c r="I67" s="75">
+        <v>25</v>
+      </c>
+      <c r="J67" s="75">
+        <v>40</v>
+      </c>
+      <c r="K67" s="75">
+        <v>50</v>
+      </c>
+      <c r="L67" s="75">
         <v>0</v>
       </c>
-      <c r="F62" s="74">
+      <c r="M67" s="75">
         <v>0</v>
       </c>
-      <c r="G62" s="74">
+      <c r="N67" s="75">
         <v>0</v>
       </c>
-      <c r="H62" s="74">
+      <c r="O67" s="75">
         <v>0</v>
       </c>
-      <c r="I62" s="74">
+      <c r="P67" s="91">
         <v>0</v>
       </c>
-      <c r="J62" s="74">
+      <c r="Q67" s="94"/>
+    </row>
+    <row r="68" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="44"/>
+      <c r="C68" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="75">
+        <v>856.12</v>
+      </c>
+      <c r="E68" s="75">
+        <v>4.0404</v>
+      </c>
+      <c r="F68" s="75">
+        <v>0.68164000000000002</v>
+      </c>
+      <c r="G68" s="76">
+        <v>95.608000000000004</v>
+      </c>
+      <c r="H68" s="75">
+        <v>35</v>
+      </c>
+      <c r="I68" s="75">
+        <v>25</v>
+      </c>
+      <c r="J68" s="75">
+        <v>40</v>
+      </c>
+      <c r="K68" s="75">
+        <v>50</v>
+      </c>
+      <c r="L68" s="75">
         <v>0</v>
       </c>
-      <c r="K62" s="74">
+      <c r="M68" s="75">
         <v>0</v>
       </c>
-      <c r="L62" s="74">
+      <c r="N68" s="75">
         <v>0</v>
       </c>
-      <c r="M62" s="74">
+      <c r="O68" s="75">
         <v>0</v>
       </c>
-      <c r="N62" s="74">
+      <c r="P68" s="91">
         <v>0</v>
       </c>
-      <c r="O62" s="74">
+      <c r="Q68" s="94"/>
+    </row>
+    <row r="69" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="47"/>
+      <c r="C69" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="75">
+        <v>856.12</v>
+      </c>
+      <c r="E69" s="75">
+        <v>4.0404</v>
+      </c>
+      <c r="F69" s="77">
+        <v>0.68164000000000002</v>
+      </c>
+      <c r="G69" s="78">
+        <v>95.608000000000004</v>
+      </c>
+      <c r="H69" s="77">
+        <v>35</v>
+      </c>
+      <c r="I69" s="77">
+        <v>25</v>
+      </c>
+      <c r="J69" s="77">
+        <v>40</v>
+      </c>
+      <c r="K69" s="77">
+        <v>50</v>
+      </c>
+      <c r="L69" s="77">
         <v>0</v>
       </c>
-      <c r="P62" s="74">
+      <c r="M69" s="77">
         <v>0</v>
       </c>
-      <c r="Q62" s="75">
+      <c r="N69" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" s="39"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="74">
+      <c r="O69" s="77">
         <v>0</v>
       </c>
-      <c r="E63" s="74">
+      <c r="P69" s="95">
         <v>0</v>
       </c>
-      <c r="F63" s="74">
-        <v>0</v>
-      </c>
-      <c r="G63" s="74">
-        <v>0</v>
-      </c>
-      <c r="H63" s="74">
-        <v>0</v>
-      </c>
-      <c r="I63" s="74">
-        <v>0</v>
-      </c>
-      <c r="J63" s="74">
-        <v>0</v>
-      </c>
-      <c r="K63" s="74">
-        <v>0</v>
-      </c>
-      <c r="L63" s="74">
-        <v>0</v>
-      </c>
-      <c r="M63" s="74">
-        <v>0</v>
-      </c>
-      <c r="N63" s="74">
-        <v>0</v>
-      </c>
-      <c r="O63" s="74">
-        <v>0</v>
-      </c>
-      <c r="P63" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="39"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="74">
-        <v>0</v>
-      </c>
-      <c r="E64" s="74">
-        <v>0</v>
-      </c>
-      <c r="F64" s="74">
-        <v>0</v>
-      </c>
-      <c r="G64" s="74">
-        <v>0</v>
-      </c>
-      <c r="H64" s="74">
-        <v>0</v>
-      </c>
-      <c r="I64" s="74">
-        <v>0</v>
-      </c>
-      <c r="J64" s="74">
-        <v>0</v>
-      </c>
-      <c r="K64" s="74">
-        <v>0</v>
-      </c>
-      <c r="L64" s="74">
-        <v>0</v>
-      </c>
-      <c r="M64" s="74">
-        <v>0</v>
-      </c>
-      <c r="N64" s="74">
-        <v>0</v>
-      </c>
-      <c r="O64" s="74">
-        <v>0</v>
-      </c>
-      <c r="P64" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" s="39"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="74">
-        <v>0</v>
-      </c>
-      <c r="E65" s="74">
-        <v>0</v>
-      </c>
-      <c r="F65" s="74">
-        <v>0</v>
-      </c>
-      <c r="G65" s="74">
-        <v>0</v>
-      </c>
-      <c r="H65" s="74">
-        <v>0</v>
-      </c>
-      <c r="I65" s="74">
-        <v>0</v>
-      </c>
-      <c r="J65" s="74">
-        <v>0</v>
-      </c>
-      <c r="K65" s="74">
-        <v>0</v>
-      </c>
-      <c r="L65" s="74">
-        <v>0</v>
-      </c>
-      <c r="M65" s="74">
-        <v>0</v>
-      </c>
-      <c r="N65" s="74">
-        <v>0</v>
-      </c>
-      <c r="O65" s="74">
-        <v>0</v>
-      </c>
-      <c r="P65" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="74">
-        <v>0</v>
-      </c>
-      <c r="E66" s="74">
-        <v>0</v>
-      </c>
-      <c r="F66" s="74">
-        <v>0</v>
-      </c>
-      <c r="G66" s="74">
-        <v>0</v>
-      </c>
-      <c r="H66" s="74">
-        <v>0</v>
-      </c>
-      <c r="I66" s="74">
-        <v>0</v>
-      </c>
-      <c r="J66" s="74">
-        <v>0</v>
-      </c>
-      <c r="K66" s="74">
-        <v>0</v>
-      </c>
-      <c r="L66" s="74">
-        <v>0</v>
-      </c>
-      <c r="M66" s="74">
-        <v>0</v>
-      </c>
-      <c r="N66" s="74">
-        <v>0</v>
-      </c>
-      <c r="O66" s="74">
-        <v>0</v>
-      </c>
-      <c r="P66" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" s="39"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="74">
-        <v>0</v>
-      </c>
-      <c r="E67" s="74">
-        <v>0</v>
-      </c>
-      <c r="F67" s="74">
-        <v>0</v>
-      </c>
-      <c r="G67" s="74">
-        <v>0</v>
-      </c>
-      <c r="H67" s="74">
-        <v>0</v>
-      </c>
-      <c r="I67" s="74">
-        <v>0</v>
-      </c>
-      <c r="J67" s="74">
-        <v>0</v>
-      </c>
-      <c r="K67" s="74">
-        <v>0</v>
-      </c>
-      <c r="L67" s="74">
-        <v>0</v>
-      </c>
-      <c r="M67" s="74">
-        <v>0</v>
-      </c>
-      <c r="N67" s="74">
-        <v>0</v>
-      </c>
-      <c r="O67" s="74">
-        <v>0</v>
-      </c>
-      <c r="P67" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" s="42"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="76">
-        <v>0</v>
-      </c>
-      <c r="E68" s="76">
-        <v>0</v>
-      </c>
-      <c r="F68" s="76">
-        <v>0</v>
-      </c>
-      <c r="G68" s="76">
-        <v>0</v>
-      </c>
-      <c r="H68" s="76">
-        <v>0</v>
-      </c>
-      <c r="I68" s="76">
-        <v>0</v>
-      </c>
-      <c r="J68" s="76">
-        <v>0</v>
-      </c>
-      <c r="K68" s="76">
-        <v>0</v>
-      </c>
-      <c r="L68" s="76">
-        <v>0</v>
-      </c>
-      <c r="M68" s="76">
-        <v>0</v>
-      </c>
-      <c r="N68" s="76">
-        <v>0</v>
-      </c>
-      <c r="O68" s="76">
-        <v>0</v>
-      </c>
-      <c r="P68" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="77">
-        <v>0</v>
-      </c>
+      <c r="Q69" s="96"/>
     </row>
     <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" s="46"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="17"/>
+      <c r="A71" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B72" s="52"/>
-      <c r="C72" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>21</v>
+      <c r="C72" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F72" s="53"/>
       <c r="G72" s="50" t="s">
         <v>3</v>
       </c>
       <c r="H72" s="52"/>
-      <c r="I72" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J72" s="16" t="s">
-        <v>21</v>
+      <c r="I72" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J72" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="K72" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="62" t="s">
+      <c r="A73" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="63"/>
+      <c r="B73" s="64"/>
       <c r="C73" s="53"/>
-      <c r="D73" s="20">
+      <c r="D73" s="23">
         <v>0.81440000000000001</v>
       </c>
       <c r="E73" s="5">
         <v>0.81140000000000001</v>
       </c>
       <c r="F73" s="53"/>
-      <c r="G73" s="62" t="s">
+      <c r="G73" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="H73" s="63"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
       <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B74" s="63"/>
+      <c r="A74" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="64"/>
       <c r="C74" s="53"/>
-      <c r="D74" s="20">
+      <c r="D74" s="23">
         <v>0.81440000000000001</v>
       </c>
       <c r="E74" s="5">
         <v>0.82369999999999999</v>
       </c>
       <c r="F74" s="53"/>
-      <c r="G74" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="H74" s="63"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
+      <c r="G74" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="H74" s="64"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
       <c r="K74" s="5"/>
     </row>
     <row r="75" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" s="63"/>
+      <c r="A75" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="64"/>
       <c r="C75" s="53"/>
-      <c r="D75" s="20">
+      <c r="D75" s="23">
         <v>0.81440000000000001</v>
       </c>
       <c r="E75" s="5">
         <v>0.80310000000000004</v>
       </c>
       <c r="F75" s="53"/>
-      <c r="G75" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="H75" s="63"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
+      <c r="G75" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="H75" s="64"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
       <c r="K75" s="5"/>
     </row>
     <row r="76" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="B76" s="65"/>
+      <c r="A76" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="66"/>
       <c r="C76" s="54"/>
       <c r="D76" s="7">
         <v>0.81440000000000001</v>
@@ -6279,77 +6436,77 @@
         <v>0.82189999999999996</v>
       </c>
       <c r="F76" s="53"/>
-      <c r="G76" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="H76" s="65"/>
+      <c r="G76" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" s="66"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="8"/>
     </row>
     <row r="77" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="81"/>
-      <c r="B77" s="78"/>
+      <c r="A77" s="82"/>
+      <c r="B77" s="79"/>
       <c r="C77" s="53"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
       <c r="F77" s="53"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
     </row>
     <row r="78" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F78" s="53"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F79" s="53"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
     </row>
     <row r="80" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" s="80"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="83"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
+      <c r="A80" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="81"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="84"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
     </row>
     <row r="81" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="62"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="84"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
+      <c r="A81" s="63"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="85"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
     </row>
     <row r="82" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B82" s="51"/>
-      <c r="C82" s="15" t="s">
-        <v>31</v>
+      <c r="C82" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="D82" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
+        <v>33</v>
+      </c>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
     </row>
     <row r="83" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="62" t="s">
+      <c r="A83" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="63"/>
-      <c r="C83" s="20">
+      <c r="B83" s="64"/>
+      <c r="C83" s="23">
         <f xml:space="preserve"> D73 - B73</f>
         <v>0.81440000000000001</v>
       </c>
@@ -6357,16 +6514,16 @@
         <f>D73 - E73</f>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
     </row>
     <row r="84" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B84" s="63"/>
-      <c r="C84" s="20">
+      <c r="A84" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" s="64"/>
+      <c r="C84" s="23">
         <f>B74 - D74</f>
         <v>-0.81440000000000001</v>
       </c>
@@ -6374,17 +6531,17 @@
         <f>E74 - D74</f>
         <v>9.299999999999975E-3</v>
       </c>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
     </row>
     <row r="85" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B85" s="63"/>
-      <c r="C85" s="20">
+      <c r="A85" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="64"/>
+      <c r="C85" s="23">
         <f>D75 - B75</f>
         <v>0.81440000000000001</v>
       </c>
@@ -6392,16 +6549,16 @@
         <f xml:space="preserve"> D75 - E75</f>
         <v>1.1299999999999977E-2</v>
       </c>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
     </row>
     <row r="86" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="B86" s="65"/>
+      <c r="A86" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" s="66"/>
       <c r="C86" s="7">
         <f xml:space="preserve"> B76 - D76</f>
         <v>-0.81440000000000001</v>
@@ -6412,98 +6569,98 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E87" s="82"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
+      <c r="E87" s="83"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
     </row>
     <row r="88" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
     </row>
     <row r="89" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
+      <c r="A89" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="81"/>
+      <c r="C89" s="81"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
     </row>
     <row r="90" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="62"/>
-      <c r="B90" s="63"/>
-      <c r="C90" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D90" s="84"/>
-      <c r="E90" s="20"/>
+      <c r="A90" s="63"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" s="85"/>
+      <c r="E90" s="23"/>
       <c r="F90" s="53"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
     </row>
     <row r="91" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="51"/>
-      <c r="C91" s="15" t="s">
-        <v>31</v>
+      <c r="C91" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="D91" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E91" s="20"/>
+        <v>33</v>
+      </c>
+      <c r="E91" s="23"/>
       <c r="F91" s="53"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
     </row>
     <row r="92" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="62" t="s">
+      <c r="A92" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="63"/>
+      <c r="B92" s="64"/>
       <c r="C92" s="53"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="20"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="23"/>
       <c r="F92" s="53"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
     </row>
     <row r="93" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B93" s="63"/>
+      <c r="A93" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" s="64"/>
       <c r="C93" s="53"/>
-      <c r="D93" s="72"/>
-      <c r="E93" s="20"/>
+      <c r="D93" s="73"/>
+      <c r="E93" s="23"/>
       <c r="F93" s="53"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
     </row>
     <row r="94" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="B94" s="63"/>
+      <c r="A94" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" s="64"/>
       <c r="C94" s="53"/>
-      <c r="D94" s="72"/>
+      <c r="D94" s="73"/>
       <c r="E94" s="53"/>
       <c r="F94" s="53"/>
     </row>
     <row r="95" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="B95" s="65"/>
+      <c r="A95" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" s="66"/>
       <c r="C95" s="54"/>
-      <c r="D95" s="73"/>
+      <c r="D95" s="74"/>
       <c r="E95" s="53"/>
       <c r="F95" s="53"/>
     </row>
@@ -6520,8 +6677,10 @@
       <c r="F97" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="112">
     <mergeCell ref="M22:R41"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A94:B94"/>
@@ -6543,18 +6702,32 @@
     <mergeCell ref="G76:H76"/>
     <mergeCell ref="G72:H72"/>
     <mergeCell ref="G71:J71"/>
-    <mergeCell ref="P60:Q60"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A60:B60"/>
     <mergeCell ref="A71:D71"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="P69:Q69"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P56:Q56"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
@@ -6620,6 +6793,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="N54:N56 N52:N53" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Sensitivity Analysis.xlsx
+++ b/Sensitivity Analysis.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eashwar\Desktop\ENSE\ENSE622\Final Exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/generaltk/Desktop/Dfolder/ENSE622-Final-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0C3BE0-9CC8-49D9-92EF-B4AA8961D5C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA36536-5A84-3543-A9CA-21D69D7C35E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0352C288-3703-4171-8A0F-C906E828E2CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{0352C288-3703-4171-8A0F-C906E828E2CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="101">
   <si>
     <t>Low =&gt; Good</t>
   </si>
@@ -338,12 +339,36 @@
   <si>
     <t>When Rmtf is High</t>
   </si>
+  <si>
+    <t>LOW Rc</t>
+  </si>
+  <si>
+    <t>HIGH Rc</t>
+  </si>
+  <si>
+    <t>LOW Rrc</t>
+  </si>
+  <si>
+    <t>HIGH RRc</t>
+  </si>
+  <si>
+    <t>LOW Rmtf</t>
+  </si>
+  <si>
+    <t>HIGH Rmtf</t>
+  </si>
+  <si>
+    <t>HIGH Rms</t>
+  </si>
+  <si>
+    <t>LOW Rms</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +424,20 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -690,7 +729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -774,19 +813,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -805,25 +835,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -843,28 +861,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -897,19 +894,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -925,10 +913,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -937,7 +940,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -946,36 +991,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -984,6 +1009,58 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1098,15 +1175,9 @@
             <c:strRef>
               <c:f>[1]Sheet1!$C$59:$C$61</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tornado Table MAVF for Design 4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Change in MAVF</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Low Vt(C, T)</c:v>
+                  <c:v>Change in MAVF Low Vt(C, T)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1163,7 +1234,7 @@
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-IN"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1202,7 +1273,7 @@
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-IN"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1245,7 +1316,7 @@
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-IN"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1288,7 +1359,7 @@
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-IN"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1416,15 +1487,9 @@
             <c:strRef>
               <c:f>[1]Sheet1!$D$59:$D$61</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tornado Table MAVF for Design 4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Change in MAVF</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>High Vt(C, T)</c:v>
+                  <c:v>Change in MAVF High Vt(C, T)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1485,7 +1550,7 @@
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-IN"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1528,7 +1593,7 @@
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-IN"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1571,7 +1636,7 @@
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-IN"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1614,7 +1679,7 @@
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-IN"/>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2554,8 +2619,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2590800" cy="676275"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2629,13 +2694,7 @@
                           <a:rPr lang="en-IN" sz="1400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>1137</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-IN" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>   −   </m:t>
+                          <m:t>1137   −   </m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-IN" sz="1400" b="0" i="1">
@@ -2661,7 +2720,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2764,8 +2823,8 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2590800" cy="723899"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2865,7 +2924,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2930,8 +2989,8 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6915150" cy="1971675"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -3286,7 +3345,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -3363,8 +3422,8 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2590800" cy="723899"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -3464,7 +3523,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -3529,8 +3588,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2590800" cy="723899"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -3630,7 +3689,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -4060,42 +4119,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E092A5B7-1CD1-4569-A0AD-62083D236086}">
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="39.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
     <col min="6" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="42.140625" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="13" max="13" width="24.5" customWidth="1"/>
+    <col min="14" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" customWidth="1"/>
+    <col min="17" max="17" width="22.1640625" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
       <c r="D1" s="27"/>
       <c r="E1" s="28"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-    </row>
-    <row r="2" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+    </row>
+    <row r="2" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25"/>
       <c r="B2" s="26" t="s">
         <v>0</v>
@@ -4110,15 +4168,15 @@
         <v>1</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="88"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="69"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -4126,7 +4184,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
@@ -4143,15 +4201,15 @@
         <v>81</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="87" t="s">
+      <c r="H3" s="80"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="K3" s="68" t="s">
         <v>39</v>
       </c>
       <c r="L3" s="15" t="s">
@@ -4168,12 +4226,12 @@
       <c r="Q3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="55" t="s">
+      <c r="R3" s="46" t="s">
         <v>8</v>
       </c>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -4190,11 +4248,11 @@
         <v>95.25</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="58"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="111"/>
       <c r="J4" s="18">
         <v>1137</v>
       </c>
@@ -4223,7 +4281,7 @@
       </c>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -4240,11 +4298,11 @@
         <v>95.013999999999996</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="58"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="111"/>
       <c r="J5" s="18">
         <v>851.98</v>
       </c>
@@ -4273,7 +4331,7 @@
       </c>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -4290,11 +4348,11 @@
         <v>94.94</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="58"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="111"/>
       <c r="J6" s="18">
         <v>1137</v>
       </c>
@@ -4323,7 +4381,7 @@
       </c>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
@@ -4340,11 +4398,11 @@
         <v>95.192999999999998</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="58"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="111"/>
       <c r="J7" s="18">
         <v>1137</v>
       </c>
@@ -4373,18 +4431,18 @@
       </c>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="59"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="117"/>
       <c r="J8" s="19">
         <v>1137</v>
       </c>
@@ -4408,16 +4466,16 @@
       <c r="R8" s="23"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
@@ -4426,16 +4484,16 @@
       <c r="R9" s="4"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
@@ -4444,36 +4502,36 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
-      <c r="Q11" s="37" t="s">
+      <c r="Q11" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-    </row>
-    <row r="12" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+    </row>
+    <row r="12" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
@@ -4481,22 +4539,22 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="37" t="s">
+      <c r="Q12" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-    </row>
-    <row r="13" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R12" s="122"/>
+      <c r="S12" s="122"/>
+    </row>
+    <row r="13" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
@@ -4504,22 +4562,22 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="37" t="s">
+      <c r="Q13" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-    </row>
-    <row r="14" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R13" s="121"/>
+      <c r="S13" s="121"/>
+    </row>
+    <row r="14" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
@@ -4527,22 +4585,22 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="37" t="s">
+      <c r="Q14" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-    </row>
-    <row r="15" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R14" s="121"/>
+      <c r="S14" s="121"/>
+    </row>
+    <row r="15" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
@@ -4550,22 +4608,22 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="37" t="s">
+      <c r="Q15" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-    </row>
-    <row r="16" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R15" s="121"/>
+      <c r="S15" s="121"/>
+    </row>
+    <row r="16" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
@@ -4573,13 +4631,13 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="37" t="s">
+      <c r="Q16" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-    </row>
-    <row r="17" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R16" s="122"/>
+      <c r="S16" s="122"/>
+    </row>
+    <row r="17" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4595,37 +4653,37 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="37" t="s">
+      <c r="Q17" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-    </row>
-    <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+      <c r="R17" s="122"/>
+      <c r="S17" s="122"/>
+    </row>
+    <row r="18" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="60"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="110"/>
       <c r="M18" s="1"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="37" t="s">
+      <c r="Q18" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-    </row>
-    <row r="19" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R18" s="122"/>
+      <c r="S18" s="122"/>
+    </row>
+    <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -4643,13 +4701,13 @@
       <c r="I19" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -4671,10 +4729,10 @@
         <f>R7</f>
         <v>0.21052631578947367</v>
       </c>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-    </row>
-    <row r="21" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+    </row>
+    <row r="21" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -4692,12 +4750,12 @@
       <c r="I21" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="J21" s="58" t="s">
+      <c r="J21" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="58"/>
-    </row>
-    <row r="22" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="111"/>
+    </row>
+    <row r="22" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>3</v>
       </c>
@@ -4725,19 +4783,19 @@
       <c r="I22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="62"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-    </row>
-    <row r="23" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="89" t="s">
+      <c r="K22" s="81"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+    </row>
+    <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="70" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="23">
@@ -4768,19 +4826,19 @@
         <f xml:space="preserve"> (E23- E6)/(E4 - E6)</f>
         <v>1</v>
       </c>
-      <c r="J23" s="90">
+      <c r="J23" s="116">
         <f>F20*F23+G20*G23+H20*H23+I20*I23</f>
         <v>0.65001948633572582</v>
       </c>
-      <c r="K23" s="90"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-    </row>
-    <row r="24" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K23" s="116"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+    </row>
+    <row r="24" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
@@ -4812,19 +4870,19 @@
         <f xml:space="preserve"> (E24- E6)/(E4 - E6)</f>
         <v>0.23870967741934684</v>
       </c>
-      <c r="J24" s="58">
+      <c r="J24" s="111">
         <f>F20*F24+G20*G24+H20*H24+I20*I24</f>
         <v>0.23781553844539591</v>
       </c>
-      <c r="K24" s="58"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-    </row>
-    <row r="25" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K24" s="111"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+    </row>
+    <row r="25" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
@@ -4856,19 +4914,19 @@
         <f xml:space="preserve"> (E25- E6)/(E4 - E6)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="58">
+      <c r="J25" s="111">
         <f>F20*F25+G20*G25+H20*H25+I20*I25</f>
         <v>0.22319149711922709</v>
       </c>
-      <c r="K25" s="58"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-    </row>
-    <row r="26" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K25" s="111"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+    </row>
+    <row r="26" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
@@ -4900,19 +4958,19 @@
         <f xml:space="preserve"> (E26- E6)/(E4 - E6)</f>
         <v>0.81612903225805888</v>
       </c>
-      <c r="J26" s="59">
+      <c r="J26" s="117">
         <f>F20*F26+G20*G26+H20*H26+I20*I26</f>
         <v>0.32631989858380617</v>
       </c>
-      <c r="K26" s="59"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-    </row>
-    <row r="27" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K26" s="117"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+    </row>
+    <row r="27" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -4923,14 +4981,14 @@
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-    </row>
-    <row r="28" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+    </row>
+    <row r="28" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -4941,14 +4999,14 @@
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-    </row>
-    <row r="29" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+    </row>
+    <row r="29" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -4957,99 +5015,99 @@
       <c r="F29" s="23"/>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-    </row>
-    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-    </row>
-    <row r="33" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="48" t="s">
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+    </row>
+    <row r="32" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+    </row>
+    <row r="33" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="69"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="23"/>
-      <c r="G33" s="48" t="s">
+      <c r="G33" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="69"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-    </row>
-    <row r="34" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="50" t="s">
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="79"/>
+      <c r="R33" s="79"/>
+    </row>
+    <row r="34" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="70" t="s">
+      <c r="B34" s="80"/>
+      <c r="C34" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="D34" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="G34" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="70" t="s">
+      <c r="H34" s="80"/>
+      <c r="I34" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="71" t="s">
+      <c r="J34" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="55" t="s">
+      <c r="K34" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-    </row>
-    <row r="35" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="63" t="s">
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="79"/>
+    </row>
+    <row r="35" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="64"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="23">
         <v>438.05860000000001</v>
       </c>
@@ -5060,12 +5118,12 @@
       <c r="E35" s="23">
         <v>1274.1813999999999</v>
       </c>
-      <c r="G35" s="63" t="s">
+      <c r="G35" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="64"/>
+      <c r="H35" s="85"/>
       <c r="I35" s="23">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J35" s="23">
         <f>P4</f>
@@ -5074,18 +5132,18 @@
       <c r="K35" s="5">
         <v>70</v>
       </c>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-    </row>
-    <row r="36" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="63" t="s">
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+    </row>
+    <row r="36" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="64"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="23">
         <v>1.8564000000000001</v>
       </c>
@@ -5096,10 +5154,10 @@
       <c r="E36" s="5">
         <v>3.3123999999999998</v>
       </c>
-      <c r="G36" s="63" t="s">
+      <c r="G36" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="64"/>
+      <c r="H36" s="85"/>
       <c r="I36" s="23">
         <v>26</v>
       </c>
@@ -5110,18 +5168,18 @@
       <c r="K36" s="5">
         <v>39</v>
       </c>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-    </row>
-    <row r="37" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="63" t="s">
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="79"/>
+    </row>
+    <row r="37" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="64"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="23">
         <v>0.67449999999999999</v>
       </c>
@@ -5132,10 +5190,10 @@
       <c r="E37" s="5">
         <v>0.67920000000000003</v>
       </c>
-      <c r="G37" s="63" t="s">
+      <c r="G37" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="64"/>
+      <c r="H37" s="85"/>
       <c r="I37" s="23">
         <v>15</v>
       </c>
@@ -5146,18 +5204,18 @@
       <c r="K37" s="5">
         <v>34</v>
       </c>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-    </row>
-    <row r="38" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="65" t="s">
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+    </row>
+    <row r="38" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="66"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="7">
         <v>90.850700000000003</v>
       </c>
@@ -5168,10 +5226,10 @@
       <c r="E38" s="8">
         <v>100.2122</v>
       </c>
-      <c r="G38" s="65" t="s">
+      <c r="G38" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="66"/>
+      <c r="H38" s="87"/>
       <c r="I38" s="7">
         <v>36</v>
       </c>
@@ -5182,44 +5240,44 @@
       <c r="K38" s="8">
         <v>49</v>
       </c>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-    </row>
-    <row r="39" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+    </row>
+    <row r="39" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="F39" s="23"/>
       <c r="L39" s="29"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-    </row>
-    <row r="40" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+    </row>
+    <row r="40" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="F40" s="23"/>
       <c r="L40" s="29"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-    </row>
-    <row r="41" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="79"/>
+    </row>
+    <row r="41" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="23"/>
       <c r="L41" s="29"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-    </row>
-    <row r="42" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="79"/>
+    </row>
+    <row r="42" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="F42" s="23"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
@@ -5227,9 +5285,9 @@
       <c r="O42" s="29"/>
       <c r="P42" s="29"/>
     </row>
-    <row r="43" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
+    <row r="43" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
@@ -5241,7 +5299,7 @@
       <c r="O43" s="29"/>
       <c r="P43" s="29"/>
     </row>
-    <row r="44" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -5251,7 +5309,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -5261,29 +5319,29 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="38" t="s">
+    <row r="46" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="120"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="98"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="72"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
-      <c r="P46" s="98"/>
-      <c r="Q46" s="99"/>
-    </row>
-    <row r="47" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="100"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="73"/>
+    </row>
+    <row r="47" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="74"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
       <c r="D47" s="23"/>
@@ -5291,70 +5349,70 @@
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="101"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
       <c r="M47" s="23"/>
       <c r="N47" s="23"/>
       <c r="O47" s="23"/>
-      <c r="P47" s="101"/>
-      <c r="Q47" s="102"/>
-    </row>
-    <row r="48" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="103" t="s">
+      <c r="P47" s="75"/>
+      <c r="Q47" s="76"/>
+    </row>
+    <row r="48" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="104"/>
-      <c r="C48" s="105" t="s">
+      <c r="B48" s="113"/>
+      <c r="C48" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="106" t="s">
+      <c r="D48" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="106" t="s">
+      <c r="E48" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="F48" s="106" t="s">
+      <c r="F48" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="106" t="s">
+      <c r="G48" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="H48" s="106" t="s">
+      <c r="H48" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="I48" s="106" t="s">
+      <c r="I48" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="J48" s="106" t="s">
+      <c r="J48" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="K48" s="106" t="s">
+      <c r="K48" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="106" t="s">
+      <c r="L48" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="M48" s="106" t="s">
+      <c r="M48" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="N48" s="106" t="s">
+      <c r="N48" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="O48" s="106" t="s">
+      <c r="O48" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="P48" s="110" t="s">
+      <c r="P48" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="Q48" s="109"/>
-    </row>
-    <row r="49" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="43" t="s">
+      <c r="Q48" s="104"/>
+    </row>
+    <row r="49" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="44"/>
+      <c r="B49" s="102"/>
       <c r="C49" s="23" t="s">
         <v>34</v>
       </c>
@@ -5362,54 +5420,54 @@
         <v>438.05860000000001</v>
       </c>
       <c r="E49" s="23">
-        <f t="shared" ref="E49:E56" si="0">D36</f>
+        <f t="shared" ref="E49" si="0">D36</f>
         <v>2.5844</v>
       </c>
-      <c r="F49" s="75">
+      <c r="F49" s="59">
         <v>0.68164000000000002</v>
       </c>
-      <c r="G49" s="76">
+      <c r="G49" s="60">
         <v>95.608000000000004</v>
       </c>
-      <c r="H49" s="75">
+      <c r="H49" s="59">
         <v>35</v>
       </c>
-      <c r="I49" s="75">
+      <c r="I49" s="59">
         <v>25</v>
       </c>
-      <c r="J49" s="75">
+      <c r="J49" s="59">
         <v>40</v>
       </c>
-      <c r="K49" s="75">
+      <c r="K49" s="59">
         <v>50</v>
       </c>
-      <c r="L49" s="75">
+      <c r="L49" s="59">
         <f>(B24-D49)/(B24-B23)</f>
         <v>2.4522538769209179</v>
       </c>
-      <c r="M49" s="75">
+      <c r="M49" s="59">
         <f>(E49-C25)/(C23-C25)</f>
         <v>1</v>
       </c>
-      <c r="N49" s="75">
+      <c r="N49" s="59">
         <f>(F49-D26)/(D24-D26)</f>
         <v>1.8088535157534894E-2</v>
       </c>
-      <c r="O49" s="75">
+      <c r="O49" s="59">
         <f>(G49-E25)/(E23-E25)</f>
         <v>2.1548387096774242</v>
       </c>
-      <c r="P49" s="111">
+      <c r="P49" s="105">
         <f>F20*L49+G20*M49+H20*N49+I20*O49</f>
         <v>1.2584869895394264</v>
       </c>
-      <c r="Q49" s="94"/>
-    </row>
-    <row r="50" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="43" t="s">
+      <c r="Q49" s="96"/>
+    </row>
+    <row r="50" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="44"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="23" t="s">
         <v>34</v>
       </c>
@@ -5420,51 +5478,51 @@
         <f>D36</f>
         <v>2.5844</v>
       </c>
-      <c r="F50" s="75">
+      <c r="F50" s="59">
         <v>0.68164000000000002</v>
       </c>
-      <c r="G50" s="76">
+      <c r="G50" s="60">
         <v>95.608000000000004</v>
       </c>
-      <c r="H50" s="75">
+      <c r="H50" s="59">
         <v>35</v>
       </c>
-      <c r="I50" s="75">
+      <c r="I50" s="59">
         <v>25</v>
       </c>
-      <c r="J50" s="75">
+      <c r="J50" s="59">
         <v>40</v>
       </c>
-      <c r="K50" s="75">
+      <c r="K50" s="59">
         <v>50</v>
       </c>
-      <c r="L50" s="75">
+      <c r="L50" s="59">
         <f>(B24-D50)/(B24-B23)</f>
         <v>-0.4813044698617639</v>
       </c>
-      <c r="M50" s="75">
+      <c r="M50" s="59">
         <f>(E50-C25)/(C23-C25)</f>
         <v>1</v>
       </c>
-      <c r="N50" s="75">
+      <c r="N50" s="59">
         <f>(F50-D26)/(D24-D26)</f>
         <v>1.8088535157534894E-2</v>
       </c>
-      <c r="O50" s="75">
+      <c r="O50" s="59">
         <f>(G50-E25)/(E23-E25)</f>
         <v>2.1548387096774242</v>
       </c>
-      <c r="P50" s="111">
+      <c r="P50" s="105">
         <f>F20*L50+G20*M50+H20*N50+I20*O50</f>
         <v>0.52509740284375606</v>
       </c>
-      <c r="Q50" s="94"/>
-    </row>
-    <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="43" t="s">
+      <c r="Q50" s="96"/>
+    </row>
+    <row r="51" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="44"/>
+      <c r="B51" s="102"/>
       <c r="C51" s="23" t="s">
         <v>34</v>
       </c>
@@ -5475,51 +5533,51 @@
       <c r="E51" s="23">
         <v>1.8564000000000001</v>
       </c>
-      <c r="F51" s="75">
+      <c r="F51" s="59">
         <v>0.68164000000000002</v>
       </c>
-      <c r="G51" s="76">
+      <c r="G51" s="60">
         <v>95.608000000000004</v>
       </c>
-      <c r="H51" s="75">
+      <c r="H51" s="59">
         <v>35</v>
       </c>
-      <c r="I51" s="75">
+      <c r="I51" s="59">
         <v>25</v>
       </c>
-      <c r="J51" s="75">
+      <c r="J51" s="59">
         <v>40</v>
       </c>
-      <c r="K51" s="75">
+      <c r="K51" s="59">
         <v>50</v>
       </c>
-      <c r="L51" s="75">
+      <c r="L51" s="59">
         <f>(B24-D51)/(B24-B23)</f>
         <v>1</v>
       </c>
-      <c r="M51" s="75">
+      <c r="M51" s="59">
         <f>(E51-C25)/(C23-C25)</f>
         <v>0.39514788966434033</v>
       </c>
-      <c r="N51" s="75" t="e" cm="1">
+      <c r="N51" s="59" t="e" cm="1">
         <f t="array" ref="N51">(K40F51-D26)/(D24-D26)</f>
         <v>#NAME?</v>
       </c>
-      <c r="O51" s="75">
+      <c r="O51" s="59">
         <f>(G51-E25)/(E23-E25)</f>
         <v>2.1548387096774242</v>
       </c>
-      <c r="P51" s="111" t="e">
+      <c r="P51" s="105" t="e">
         <f>F20*L51+G20*M51+H20*N51+I20*O51</f>
         <v>#NAME?</v>
       </c>
-      <c r="Q51" s="94"/>
-    </row>
-    <row r="52" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="43" t="s">
+      <c r="Q51" s="96"/>
+    </row>
+    <row r="52" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="44"/>
+      <c r="B52" s="102"/>
       <c r="C52" s="23" t="s">
         <v>34</v>
       </c>
@@ -5530,51 +5588,51 @@
       <c r="E52" s="23">
         <v>3.3123999999999998</v>
       </c>
-      <c r="F52" s="75">
+      <c r="F52" s="59">
         <v>0.68164000000000002</v>
       </c>
-      <c r="G52" s="75">
+      <c r="G52" s="59">
         <v>95.608000000000004</v>
       </c>
-      <c r="H52" s="75">
+      <c r="H52" s="59">
         <v>35</v>
       </c>
-      <c r="I52" s="75">
+      <c r="I52" s="59">
         <v>25</v>
       </c>
-      <c r="J52" s="75">
+      <c r="J52" s="59">
         <v>40</v>
       </c>
-      <c r="K52" s="75">
+      <c r="K52" s="59">
         <v>50</v>
       </c>
-      <c r="L52" s="75">
+      <c r="L52" s="59">
         <f>(B24-D52)/(B24-B23)</f>
         <v>1</v>
       </c>
-      <c r="M52" s="75">
+      <c r="M52" s="59">
         <f>(E52-C25)/(C23-C25)</f>
         <v>1.6048521103356594</v>
       </c>
-      <c r="N52" s="75">
+      <c r="N52" s="59">
         <f>(F52-D26)/(D24-D26)</f>
         <v>1.8088535157534894E-2</v>
       </c>
-      <c r="O52" s="75">
+      <c r="O52" s="59">
         <f>(G52-E25)/(E23-E25)</f>
         <v>2.1548387096774242</v>
       </c>
-      <c r="P52" s="111">
+      <c r="P52" s="105">
         <f>F20*L52+G20*M52+H20*N52+I20*O52</f>
         <v>1.0098550006429705</v>
       </c>
-      <c r="Q52" s="94"/>
-    </row>
-    <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="43" t="s">
+      <c r="Q52" s="96"/>
+    </row>
+    <row r="53" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="44"/>
+      <c r="B53" s="102"/>
       <c r="C53" s="23" t="s">
         <v>34</v>
       </c>
@@ -5589,48 +5647,48 @@
       <c r="F53" s="23">
         <v>0.67449999999999999</v>
       </c>
-      <c r="G53" s="75">
+      <c r="G53" s="59">
         <v>95.608000000000004</v>
       </c>
-      <c r="H53" s="75">
+      <c r="H53" s="59">
         <v>35</v>
       </c>
-      <c r="I53" s="75">
+      <c r="I53" s="59">
         <v>25</v>
       </c>
-      <c r="J53" s="75">
+      <c r="J53" s="59">
         <v>40</v>
       </c>
-      <c r="K53" s="75">
+      <c r="K53" s="59">
         <v>50</v>
       </c>
-      <c r="L53" s="75">
+      <c r="L53" s="59">
         <f>(B24-D53)/(B24-B23)</f>
         <v>1</v>
       </c>
-      <c r="M53" s="75">
+      <c r="M53" s="59">
         <f>(E53-C25)/(C23-C25)</f>
         <v>1</v>
       </c>
-      <c r="N53" s="75">
+      <c r="N53" s="59">
         <f>(F53-D26)/(D24-D26)</f>
         <v>-5.3936723015193542E-3</v>
       </c>
-      <c r="O53" s="75">
+      <c r="O53" s="59">
         <f>(G53-E25)/(E23-E25)</f>
         <v>2.1548387096774242</v>
       </c>
-      <c r="P53" s="111">
+      <c r="P53" s="105">
         <f>F20*L53+G20*M53+H20*N53+I20*O53</f>
         <v>0.89206891924361775</v>
       </c>
-      <c r="Q53" s="94"/>
-    </row>
-    <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="43" t="s">
+      <c r="Q53" s="96"/>
+    </row>
+    <row r="54" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="44"/>
+      <c r="B54" s="102"/>
       <c r="C54" s="23" t="s">
         <v>34</v>
       </c>
@@ -5645,48 +5703,48 @@
       <c r="F54" s="23">
         <v>0.67920000000000003</v>
       </c>
-      <c r="G54" s="75">
+      <c r="G54" s="59">
         <v>95.608000000000004</v>
       </c>
-      <c r="H54" s="75">
+      <c r="H54" s="59">
         <v>35</v>
       </c>
-      <c r="I54" s="75">
+      <c r="I54" s="59">
         <v>25</v>
       </c>
-      <c r="J54" s="75">
+      <c r="J54" s="59">
         <v>40</v>
       </c>
-      <c r="K54" s="75">
+      <c r="K54" s="59">
         <v>50</v>
       </c>
-      <c r="L54" s="75">
+      <c r="L54" s="59">
         <f>(B24-D54)/(B24-B23)</f>
         <v>1</v>
       </c>
-      <c r="M54" s="75">
+      <c r="M54" s="59">
         <f>(E54-C25)/(C23-C25)</f>
         <v>1</v>
       </c>
-      <c r="N54" s="75">
+      <c r="N54" s="59">
         <f>(F54-D26)/(D24-D26)</f>
         <v>1.0063803196737692E-2</v>
       </c>
-      <c r="O54" s="75">
+      <c r="O54" s="59">
         <f>(G54-E25)/(E23-E25)</f>
         <v>2.1548387096774242</v>
       </c>
-      <c r="P54" s="111">
+      <c r="P54" s="105">
         <f>F20*L54+G20*M54+H20*N54+I20*O54</f>
         <v>0.89427713002908304</v>
       </c>
-      <c r="Q54" s="94"/>
-    </row>
-    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="43" t="s">
+      <c r="Q54" s="96"/>
+    </row>
+    <row r="55" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="44"/>
+      <c r="B55" s="102"/>
       <c r="C55" s="23" t="s">
         <v>34</v>
       </c>
@@ -5698,51 +5756,51 @@
         <f>D36</f>
         <v>2.5844</v>
       </c>
-      <c r="F55" s="75">
+      <c r="F55" s="59">
         <v>0.68164000000000002</v>
       </c>
       <c r="G55" s="23">
         <v>90.850700000000003</v>
       </c>
-      <c r="H55" s="75">
+      <c r="H55" s="59">
         <v>35</v>
       </c>
-      <c r="I55" s="75">
+      <c r="I55" s="59">
         <v>25</v>
       </c>
-      <c r="J55" s="75">
+      <c r="J55" s="59">
         <v>40</v>
       </c>
-      <c r="K55" s="75">
+      <c r="K55" s="59">
         <v>50</v>
       </c>
-      <c r="L55" s="75">
+      <c r="L55" s="59">
         <f>(B24-D55)/(B24-B23)</f>
         <v>1</v>
       </c>
-      <c r="M55" s="75">
+      <c r="M55" s="59">
         <f>(E55-C25)/(C23-C25)</f>
         <v>1</v>
       </c>
-      <c r="N55" s="75">
+      <c r="N55" s="59">
         <f>(F55-D26)/(D24-D26)</f>
         <v>1.8088535157534894E-2</v>
       </c>
-      <c r="O55" s="75">
+      <c r="O55" s="59">
         <f>(G55-E25)/(E23-E25)</f>
         <v>-13.19129032258053</v>
       </c>
-      <c r="P55" s="111">
+      <c r="P55" s="105">
         <f>F20*L55+G20*M55+H20*N55+I20*O55</f>
         <v>-2.3353404864819507</v>
       </c>
-      <c r="Q55" s="94"/>
-    </row>
-    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="45" t="s">
+      <c r="Q55" s="96"/>
+    </row>
+    <row r="56" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="47"/>
+      <c r="B56" s="98"/>
       <c r="C56" s="7" t="s">
         <v>34</v>
       </c>
@@ -5754,91 +5812,91 @@
         <f>D36</f>
         <v>2.5844</v>
       </c>
-      <c r="F56" s="77">
+      <c r="F56" s="61">
         <v>0.68164000000000002</v>
       </c>
       <c r="G56" s="7">
         <v>100.2122</v>
       </c>
-      <c r="H56" s="77">
+      <c r="H56" s="61">
         <v>35</v>
       </c>
-      <c r="I56" s="77">
+      <c r="I56" s="61">
         <v>25</v>
       </c>
-      <c r="J56" s="77">
+      <c r="J56" s="61">
         <v>40</v>
       </c>
-      <c r="K56" s="77">
+      <c r="K56" s="61">
         <v>50</v>
       </c>
-      <c r="L56" s="77">
+      <c r="L56" s="61">
         <f>(B24-D56)/(B24-B23)</f>
         <v>1</v>
       </c>
-      <c r="M56" s="77">
+      <c r="M56" s="61">
         <f>(E56-C25)/(C23-C25)</f>
         <v>1</v>
       </c>
-      <c r="N56" s="77">
+      <c r="N56" s="61">
         <f>(F56-D26)/(D24-D26)</f>
         <v>1.8088535157534894E-2</v>
       </c>
-      <c r="O56" s="77">
+      <c r="O56" s="61">
         <f>(G56-E25)/(E23-E25)</f>
         <v>17.007096774193418</v>
       </c>
-      <c r="P56" s="112">
+      <c r="P56" s="106">
         <f>F20*L56+G20*M56+H20*N56+I20*O56</f>
         <v>4.0222146917862478</v>
       </c>
-      <c r="Q56" s="96"/>
-    </row>
-    <row r="57" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q56" s="100"/>
+    </row>
+    <row r="57" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="75"/>
-      <c r="P57" s="75"/>
-      <c r="Q57" s="75"/>
-    </row>
-    <row r="58" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
+    </row>
+    <row r="58" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="75"/>
-      <c r="P58" s="75"/>
-      <c r="Q58" s="75"/>
-    </row>
-    <row r="59" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="38" t="s">
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="59"/>
+    </row>
+    <row r="59" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="108"/>
       <c r="E59" s="10"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -5851,9 +5909,9 @@
       <c r="N59" s="12"/>
       <c r="O59" s="12"/>
       <c r="P59" s="11"/>
-      <c r="Q59" s="72"/>
-    </row>
-    <row r="60" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q59" s="56"/>
+    </row>
+    <row r="60" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -5862,22 +5920,22 @@
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="23"/>
       <c r="N60" s="23"/>
       <c r="O60" s="23"/>
-      <c r="P60" s="53"/>
-      <c r="Q60" s="73"/>
-    </row>
-    <row r="61" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="50" t="s">
+      <c r="P60" s="44"/>
+      <c r="Q60" s="57"/>
+    </row>
+    <row r="61" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="51"/>
-      <c r="C61" s="55" t="s">
+      <c r="B61" s="80"/>
+      <c r="C61" s="46" t="s">
         <v>3</v>
       </c>
       <c r="D61" s="16" t="s">
@@ -5916,596 +5974,596 @@
       <c r="O61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="P61" s="51" t="s">
+      <c r="P61" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="Q61" s="62"/>
-    </row>
-    <row r="62" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="43" t="s">
+      <c r="Q61" s="81"/>
+    </row>
+    <row r="62" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="44"/>
+      <c r="B62" s="102"/>
       <c r="C62" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="75">
+      <c r="D62" s="59">
         <v>856.12</v>
       </c>
-      <c r="E62" s="75">
+      <c r="E62" s="59">
         <v>4.0404</v>
       </c>
-      <c r="F62" s="75">
+      <c r="F62" s="59">
         <v>0.68164000000000002</v>
       </c>
-      <c r="G62" s="76">
+      <c r="G62" s="60">
         <v>95.608000000000004</v>
       </c>
-      <c r="H62" s="75">
+      <c r="H62" s="59">
         <v>35</v>
       </c>
-      <c r="I62" s="75">
+      <c r="I62" s="59">
         <v>25</v>
       </c>
-      <c r="J62" s="75">
+      <c r="J62" s="59">
         <v>40</v>
       </c>
-      <c r="K62" s="75">
+      <c r="K62" s="59">
         <v>50</v>
       </c>
-      <c r="L62" s="75">
+      <c r="L62" s="59">
         <v>0</v>
       </c>
-      <c r="M62" s="75">
+      <c r="M62" s="59">
         <v>0</v>
       </c>
-      <c r="N62" s="75">
+      <c r="N62" s="59">
         <v>0</v>
       </c>
-      <c r="O62" s="75">
+      <c r="O62" s="59">
         <v>0</v>
       </c>
-      <c r="P62" s="92">
+      <c r="P62" s="82">
         <v>0</v>
       </c>
-      <c r="Q62" s="93"/>
-    </row>
-    <row r="63" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="43" t="s">
+      <c r="Q62" s="83"/>
+    </row>
+    <row r="63" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="44"/>
+      <c r="B63" s="102"/>
       <c r="C63" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D63" s="75">
+      <c r="D63" s="59">
         <v>856.12</v>
       </c>
-      <c r="E63" s="75">
+      <c r="E63" s="59">
         <v>4.0404</v>
       </c>
-      <c r="F63" s="75">
+      <c r="F63" s="59">
         <v>0.68164000000000002</v>
       </c>
-      <c r="G63" s="76">
+      <c r="G63" s="60">
         <v>95.608000000000004</v>
       </c>
-      <c r="H63" s="75">
+      <c r="H63" s="59">
         <v>35</v>
       </c>
-      <c r="I63" s="75">
+      <c r="I63" s="59">
         <v>25</v>
       </c>
-      <c r="J63" s="75">
+      <c r="J63" s="59">
         <v>40</v>
       </c>
-      <c r="K63" s="75">
+      <c r="K63" s="59">
         <v>50</v>
       </c>
-      <c r="L63" s="75">
+      <c r="L63" s="59">
         <v>0</v>
       </c>
-      <c r="M63" s="75">
+      <c r="M63" s="59">
         <v>0</v>
       </c>
-      <c r="N63" s="75">
+      <c r="N63" s="59">
         <v>0</v>
       </c>
-      <c r="O63" s="75">
+      <c r="O63" s="59">
         <v>0</v>
       </c>
-      <c r="P63" s="91">
+      <c r="P63" s="95">
         <v>0</v>
       </c>
-      <c r="Q63" s="94"/>
-    </row>
-    <row r="64" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="43" t="s">
+      <c r="Q63" s="96"/>
+    </row>
+    <row r="64" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="44"/>
+      <c r="B64" s="102"/>
       <c r="C64" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D64" s="75">
+      <c r="D64" s="59">
         <v>856.12</v>
       </c>
-      <c r="E64" s="75">
+      <c r="E64" s="59">
         <v>4.0404</v>
       </c>
-      <c r="F64" s="75">
+      <c r="F64" s="59">
         <v>0.68164000000000002</v>
       </c>
-      <c r="G64" s="76">
+      <c r="G64" s="60">
         <v>95.608000000000004</v>
       </c>
-      <c r="H64" s="75">
+      <c r="H64" s="59">
         <v>35</v>
       </c>
-      <c r="I64" s="75">
+      <c r="I64" s="59">
         <v>25</v>
       </c>
-      <c r="J64" s="75">
+      <c r="J64" s="59">
         <v>40</v>
       </c>
-      <c r="K64" s="75">
+      <c r="K64" s="59">
         <v>50</v>
       </c>
-      <c r="L64" s="75">
+      <c r="L64" s="59">
         <v>0</v>
       </c>
-      <c r="M64" s="75">
+      <c r="M64" s="59">
         <v>0</v>
       </c>
-      <c r="N64" s="75">
+      <c r="N64" s="59">
         <v>0</v>
       </c>
-      <c r="O64" s="75">
+      <c r="O64" s="59">
         <v>0</v>
       </c>
-      <c r="P64" s="91">
+      <c r="P64" s="95">
         <v>0</v>
       </c>
-      <c r="Q64" s="94"/>
-    </row>
-    <row r="65" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="43" t="s">
+      <c r="Q64" s="96"/>
+    </row>
+    <row r="65" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="44"/>
+      <c r="B65" s="102"/>
       <c r="C65" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D65" s="75">
+      <c r="D65" s="59">
         <v>856.12</v>
       </c>
-      <c r="E65" s="75">
+      <c r="E65" s="59">
         <v>4.0404</v>
       </c>
-      <c r="F65" s="75">
+      <c r="F65" s="59">
         <v>0.68164000000000002</v>
       </c>
-      <c r="G65" s="76">
+      <c r="G65" s="60">
         <v>95.608000000000004</v>
       </c>
-      <c r="H65" s="75">
+      <c r="H65" s="59">
         <v>35</v>
       </c>
-      <c r="I65" s="75">
+      <c r="I65" s="59">
         <v>25</v>
       </c>
-      <c r="J65" s="75">
+      <c r="J65" s="59">
         <v>40</v>
       </c>
-      <c r="K65" s="75">
+      <c r="K65" s="59">
         <v>50</v>
       </c>
-      <c r="L65" s="75">
+      <c r="L65" s="59">
         <v>0</v>
       </c>
-      <c r="M65" s="75">
+      <c r="M65" s="59">
         <v>0</v>
       </c>
-      <c r="N65" s="75">
+      <c r="N65" s="59">
         <v>0</v>
       </c>
-      <c r="O65" s="75">
+      <c r="O65" s="59">
         <v>0</v>
       </c>
-      <c r="P65" s="91">
+      <c r="P65" s="95">
         <v>0</v>
       </c>
-      <c r="Q65" s="94"/>
-    </row>
-    <row r="66" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="43" t="s">
+      <c r="Q65" s="96"/>
+    </row>
+    <row r="66" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="44"/>
+      <c r="B66" s="102"/>
       <c r="C66" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="75">
+      <c r="D66" s="59">
         <v>856.12</v>
       </c>
-      <c r="E66" s="75">
+      <c r="E66" s="59">
         <v>4.0404</v>
       </c>
-      <c r="F66" s="75">
+      <c r="F66" s="59">
         <v>0.68164000000000002</v>
       </c>
-      <c r="G66" s="76">
+      <c r="G66" s="60">
         <v>95.608000000000004</v>
       </c>
-      <c r="H66" s="75">
+      <c r="H66" s="59">
         <v>35</v>
       </c>
-      <c r="I66" s="75">
+      <c r="I66" s="59">
         <v>25</v>
       </c>
-      <c r="J66" s="75">
+      <c r="J66" s="59">
         <v>40</v>
       </c>
-      <c r="K66" s="75">
+      <c r="K66" s="59">
         <v>50</v>
       </c>
-      <c r="L66" s="75">
+      <c r="L66" s="59">
         <v>0</v>
       </c>
-      <c r="M66" s="75">
+      <c r="M66" s="59">
         <v>0</v>
       </c>
-      <c r="N66" s="75">
+      <c r="N66" s="59">
         <v>0</v>
       </c>
-      <c r="O66" s="75">
+      <c r="O66" s="59">
         <v>0</v>
       </c>
-      <c r="P66" s="91">
+      <c r="P66" s="95">
         <v>0</v>
       </c>
-      <c r="Q66" s="94"/>
-    </row>
-    <row r="67" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="43" t="s">
+      <c r="Q66" s="96"/>
+    </row>
+    <row r="67" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="44"/>
+      <c r="B67" s="102"/>
       <c r="C67" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="75">
+      <c r="D67" s="59">
         <v>856.12</v>
       </c>
-      <c r="E67" s="75">
+      <c r="E67" s="59">
         <v>4.0404</v>
       </c>
-      <c r="F67" s="75">
+      <c r="F67" s="59">
         <v>0.68164000000000002</v>
       </c>
-      <c r="G67" s="76">
+      <c r="G67" s="60">
         <v>95.608000000000004</v>
       </c>
-      <c r="H67" s="75">
+      <c r="H67" s="59">
         <v>35</v>
       </c>
-      <c r="I67" s="75">
+      <c r="I67" s="59">
         <v>25</v>
       </c>
-      <c r="J67" s="75">
+      <c r="J67" s="59">
         <v>40</v>
       </c>
-      <c r="K67" s="75">
+      <c r="K67" s="59">
         <v>50</v>
       </c>
-      <c r="L67" s="75">
+      <c r="L67" s="59">
         <v>0</v>
       </c>
-      <c r="M67" s="75">
+      <c r="M67" s="59">
         <v>0</v>
       </c>
-      <c r="N67" s="75">
+      <c r="N67" s="59">
         <v>0</v>
       </c>
-      <c r="O67" s="75">
+      <c r="O67" s="59">
         <v>0</v>
       </c>
-      <c r="P67" s="91">
+      <c r="P67" s="95">
         <v>0</v>
       </c>
-      <c r="Q67" s="94"/>
-    </row>
-    <row r="68" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="43" t="s">
+      <c r="Q67" s="96"/>
+    </row>
+    <row r="68" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="44"/>
+      <c r="B68" s="102"/>
       <c r="C68" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="75">
+      <c r="D68" s="59">
         <v>856.12</v>
       </c>
-      <c r="E68" s="75">
+      <c r="E68" s="59">
         <v>4.0404</v>
       </c>
-      <c r="F68" s="75">
+      <c r="F68" s="59">
         <v>0.68164000000000002</v>
       </c>
-      <c r="G68" s="76">
+      <c r="G68" s="60">
         <v>95.608000000000004</v>
       </c>
-      <c r="H68" s="75">
+      <c r="H68" s="59">
         <v>35</v>
       </c>
-      <c r="I68" s="75">
+      <c r="I68" s="59">
         <v>25</v>
       </c>
-      <c r="J68" s="75">
+      <c r="J68" s="59">
         <v>40</v>
       </c>
-      <c r="K68" s="75">
+      <c r="K68" s="59">
         <v>50</v>
       </c>
-      <c r="L68" s="75">
+      <c r="L68" s="59">
         <v>0</v>
       </c>
-      <c r="M68" s="75">
+      <c r="M68" s="59">
         <v>0</v>
       </c>
-      <c r="N68" s="75">
+      <c r="N68" s="59">
         <v>0</v>
       </c>
-      <c r="O68" s="75">
+      <c r="O68" s="59">
         <v>0</v>
       </c>
-      <c r="P68" s="91">
+      <c r="P68" s="95">
         <v>0</v>
       </c>
-      <c r="Q68" s="94"/>
-    </row>
-    <row r="69" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="45" t="s">
+      <c r="Q68" s="96"/>
+    </row>
+    <row r="69" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="47"/>
+      <c r="B69" s="98"/>
       <c r="C69" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="75">
+      <c r="D69" s="59">
         <v>856.12</v>
       </c>
-      <c r="E69" s="75">
+      <c r="E69" s="59">
         <v>4.0404</v>
       </c>
-      <c r="F69" s="77">
+      <c r="F69" s="61">
         <v>0.68164000000000002</v>
       </c>
-      <c r="G69" s="78">
+      <c r="G69" s="62">
         <v>95.608000000000004</v>
       </c>
-      <c r="H69" s="77">
+      <c r="H69" s="61">
         <v>35</v>
       </c>
-      <c r="I69" s="77">
+      <c r="I69" s="61">
         <v>25</v>
       </c>
-      <c r="J69" s="77">
+      <c r="J69" s="61">
         <v>40</v>
       </c>
-      <c r="K69" s="77">
+      <c r="K69" s="61">
         <v>50</v>
       </c>
-      <c r="L69" s="77">
+      <c r="L69" s="61">
         <v>0</v>
       </c>
-      <c r="M69" s="77">
+      <c r="M69" s="61">
         <v>0</v>
       </c>
-      <c r="N69" s="77">
+      <c r="N69" s="61">
         <v>0</v>
       </c>
-      <c r="O69" s="77">
+      <c r="O69" s="61">
         <v>0</v>
       </c>
-      <c r="P69" s="95">
+      <c r="P69" s="99">
         <v>0</v>
       </c>
-      <c r="Q69" s="96"/>
-    </row>
-    <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="48" t="s">
+      <c r="Q69" s="100"/>
+    </row>
+    <row r="70" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
       <c r="E71" s="20"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="48" t="s">
+      <c r="F71" s="35"/>
+      <c r="G71" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="94"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="50" t="s">
+    <row r="72" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="52"/>
+      <c r="B72" s="92"/>
       <c r="C72" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D72" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="55" t="s">
+      <c r="E72" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F72" s="53"/>
-      <c r="G72" s="50" t="s">
+      <c r="F72" s="44"/>
+      <c r="G72" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H72" s="52"/>
+      <c r="H72" s="92"/>
       <c r="I72" s="17" t="s">
         <v>28</v>
       </c>
       <c r="J72" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K72" s="55" t="s">
+      <c r="K72" s="46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="63" t="s">
+    <row r="73" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="64"/>
-      <c r="C73" s="53"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="44"/>
       <c r="D73" s="23">
         <v>0.81440000000000001</v>
       </c>
       <c r="E73" s="5">
         <v>0.81140000000000001</v>
       </c>
-      <c r="F73" s="53"/>
-      <c r="G73" s="63" t="s">
+      <c r="F73" s="44"/>
+      <c r="G73" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="H73" s="64"/>
+      <c r="H73" s="85"/>
       <c r="I73" s="23"/>
       <c r="J73" s="23"/>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="63" t="s">
+    <row r="74" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B74" s="64"/>
-      <c r="C74" s="53"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="44"/>
       <c r="D74" s="23">
         <v>0.81440000000000001</v>
       </c>
       <c r="E74" s="5">
         <v>0.82369999999999999</v>
       </c>
-      <c r="F74" s="53"/>
-      <c r="G74" s="63" t="s">
+      <c r="F74" s="44"/>
+      <c r="G74" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="H74" s="64"/>
+      <c r="H74" s="85"/>
       <c r="I74" s="23"/>
       <c r="J74" s="23"/>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="63" t="s">
+    <row r="75" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="64"/>
-      <c r="C75" s="53"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="44"/>
       <c r="D75" s="23">
         <v>0.81440000000000001</v>
       </c>
       <c r="E75" s="5">
         <v>0.80310000000000004</v>
       </c>
-      <c r="F75" s="53"/>
-      <c r="G75" s="63" t="s">
+      <c r="F75" s="44"/>
+      <c r="G75" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="H75" s="64"/>
+      <c r="H75" s="85"/>
       <c r="I75" s="23"/>
       <c r="J75" s="23"/>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="65" t="s">
+    <row r="76" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="66"/>
-      <c r="C76" s="54"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="45"/>
       <c r="D76" s="7">
         <v>0.81440000000000001</v>
       </c>
       <c r="E76" s="8">
         <v>0.82189999999999996</v>
       </c>
-      <c r="F76" s="53"/>
-      <c r="G76" s="65" t="s">
+      <c r="F76" s="44"/>
+      <c r="G76" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="H76" s="66"/>
+      <c r="H76" s="87"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="82"/>
-      <c r="B77" s="79"/>
-      <c r="C77" s="53"/>
+    <row r="77" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77" s="64"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="44"/>
       <c r="D77" s="23"/>
       <c r="E77" s="23"/>
-      <c r="F77" s="53"/>
+      <c r="F77" s="44"/>
       <c r="G77" s="23"/>
       <c r="H77" s="23"/>
     </row>
-    <row r="78" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F78" s="53"/>
+    <row r="78" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="F78" s="44"/>
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
     </row>
-    <row r="79" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F79" s="53"/>
+    <row r="79" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="44"/>
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
     </row>
-    <row r="80" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="80" t="s">
+    <row r="80" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="B80" s="81"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="84"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="90"/>
+      <c r="D80" s="91"/>
       <c r="F80" s="23"/>
       <c r="G80" s="23"/>
       <c r="H80" s="23"/>
     </row>
-    <row r="81" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="63"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="42" t="s">
+    <row r="81" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="84"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="85"/>
+      <c r="D81" s="66"/>
       <c r="F81" s="23"/>
       <c r="G81" s="23"/>
       <c r="H81" s="23"/>
     </row>
-    <row r="82" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="50" t="s">
+    <row r="82" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="51"/>
+      <c r="B82" s="80"/>
       <c r="C82" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="55" t="s">
+      <c r="D82" s="46" t="s">
         <v>33</v>
       </c>
       <c r="F82" s="23"/>
       <c r="G82" s="23"/>
       <c r="H82" s="23"/>
     </row>
-    <row r="83" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="63" t="s">
+    <row r="83" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="64"/>
+      <c r="B83" s="85"/>
       <c r="C83" s="23">
         <f xml:space="preserve"> D73 - B73</f>
         <v>0.81440000000000001</v>
@@ -6518,11 +6576,11 @@
       <c r="G83" s="23"/>
       <c r="H83" s="23"/>
     </row>
-    <row r="84" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="63" t="s">
+    <row r="84" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A84" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B84" s="64"/>
+      <c r="B84" s="85"/>
       <c r="C84" s="23">
         <f>B74 - D74</f>
         <v>-0.81440000000000001</v>
@@ -6536,11 +6594,11 @@
       <c r="G84" s="23"/>
       <c r="H84" s="23"/>
     </row>
-    <row r="85" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="63" t="s">
+    <row r="85" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A85" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B85" s="64"/>
+      <c r="B85" s="85"/>
       <c r="C85" s="23">
         <f>D75 - B75</f>
         <v>0.81440000000000001</v>
@@ -6554,11 +6612,11 @@
       <c r="G85" s="23"/>
       <c r="H85" s="23"/>
     </row>
-    <row r="86" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="65" t="s">
+    <row r="86" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="66"/>
+      <c r="B86" s="87"/>
       <c r="C86" s="7">
         <f xml:space="preserve"> B76 - D76</f>
         <v>-0.81440000000000001</v>
@@ -6568,116 +6626,204 @@
         <v>7.4999999999999512E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E87" s="83"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-    </row>
-    <row r="88" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-    </row>
-    <row r="89" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="80" t="s">
+    <row r="87" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="E87" s="65"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+    </row>
+    <row r="88" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+    </row>
+    <row r="89" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A89" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="B89" s="81"/>
-      <c r="C89" s="81"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
+      <c r="B89" s="90"/>
+      <c r="C89" s="90"/>
+      <c r="D89" s="91"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
     </row>
-    <row r="90" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="63"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="42" t="s">
+    <row r="90" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="84"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D90" s="85"/>
+      <c r="D90" s="66"/>
       <c r="E90" s="23"/>
-      <c r="F90" s="53"/>
+      <c r="F90" s="44"/>
       <c r="G90" s="23"/>
       <c r="H90" s="23"/>
     </row>
-    <row r="91" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="50" t="s">
+    <row r="91" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B91" s="51"/>
+      <c r="B91" s="80"/>
       <c r="C91" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D91" s="55" t="s">
+      <c r="D91" s="46" t="s">
         <v>33</v>
       </c>
       <c r="E91" s="23"/>
-      <c r="F91" s="53"/>
+      <c r="F91" s="44"/>
       <c r="G91" s="23"/>
       <c r="H91" s="23"/>
     </row>
-    <row r="92" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="63" t="s">
+    <row r="92" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A92" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="64"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="73"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="57"/>
       <c r="E92" s="23"/>
-      <c r="F92" s="53"/>
+      <c r="F92" s="44"/>
       <c r="G92" s="23"/>
       <c r="H92" s="23"/>
     </row>
-    <row r="93" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="63" t="s">
+    <row r="93" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="B93" s="64"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="73"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="57"/>
       <c r="E93" s="23"/>
-      <c r="F93" s="53"/>
+      <c r="F93" s="44"/>
       <c r="G93" s="23"/>
       <c r="H93" s="23"/>
     </row>
-    <row r="94" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="63" t="s">
+    <row r="94" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A94" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="B94" s="64"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="73"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
-    </row>
-    <row r="95" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="65" t="s">
+      <c r="B94" s="85"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="44"/>
+    </row>
+    <row r="95" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="66"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="53"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-    </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="53"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="44"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="44"/>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
     <mergeCell ref="M22:R41"/>
     <mergeCell ref="P61:Q61"/>
     <mergeCell ref="P62:Q62"/>
@@ -6702,94 +6848,6 @@
     <mergeCell ref="G76:H76"/>
     <mergeCell ref="G72:H72"/>
     <mergeCell ref="G71:J71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6798,4 +6856,3977 @@
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEB7495-4866-A441-BD3F-AA2BD032587D}">
+  <dimension ref="A2:Z94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="T95" sqref="T95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="125" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="94"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="P4" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="110"/>
+    </row>
+    <row r="5" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="X5" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="111"/>
+    </row>
+    <row r="6" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="102"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G6" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H6" s="34"/>
+      <c r="I6" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="38">
+        <v>41</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="49">
+        <f xml:space="preserve"> J6/(J6+J10)</f>
+        <v>0.22527472527472528</v>
+      </c>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39">
+        <f xml:space="preserve"> L6</f>
+        <v>0.22527472527472528</v>
+      </c>
+      <c r="V6" s="39">
+        <f xml:space="preserve"> L7</f>
+        <v>0.19886363636363635</v>
+      </c>
+      <c r="W6" s="39">
+        <f xml:space="preserve"> L8</f>
+        <v>0.15060240963855423</v>
+      </c>
+      <c r="X6" s="39">
+        <f xml:space="preserve"> L9</f>
+        <v>0.22099447513812154</v>
+      </c>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111"/>
+    </row>
+    <row r="7" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="18">
+        <v>851.98</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G7" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="38">
+        <v>35</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="49">
+        <f xml:space="preserve"> J7/(J7+J10)</f>
+        <v>0.19886363636363635</v>
+      </c>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="V7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="111"/>
+    </row>
+    <row r="8" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="102"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E8" s="18">
+        <v>2.5844</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G8" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="38">
+        <v>25</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="49">
+        <f xml:space="preserve"> J8/(J8+J10)</f>
+        <v>0.15060240963855423</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y8" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z8" s="81"/>
+    </row>
+    <row r="9" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="102"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="G9" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="40">
+        <v>40</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="50">
+        <f xml:space="preserve"> J9/(J9+J10)</f>
+        <v>0.22099447513812154</v>
+      </c>
+      <c r="P9" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>851.98</v>
+      </c>
+      <c r="R9" s="39">
+        <v>2.5844</v>
+      </c>
+      <c r="S9" s="39">
+        <v>0.67678700000000003</v>
+      </c>
+      <c r="T9" s="49">
+        <v>95.25</v>
+      </c>
+      <c r="U9" s="24">
+        <f xml:space="preserve"> (Q9-MAX(Q9:Q12))/(MIN(Q9:Q12) - MAX(Q9:Q12))</f>
+        <v>1</v>
+      </c>
+      <c r="V9" s="24">
+        <f xml:space="preserve"> (R9-MIN(R9:R12))/(MAX(R9:R12) - MIN(R9:R12))</f>
+        <v>1</v>
+      </c>
+      <c r="W9" s="24">
+        <f t="shared" ref="W9:X9" si="0" xml:space="preserve"> (S9-MIN(S9:S12))/(MAX(S9:S12) - MIN(S9:S12))</f>
+        <v>2.127869499441111E-3</v>
+      </c>
+      <c r="X9" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y9" s="116">
+        <f>U6*U9+V6*V9+W6*W9+X6*X9</f>
+        <v>0.64545329905049531</v>
+      </c>
+      <c r="Z9" s="116"/>
+    </row>
+    <row r="10" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="98"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="19">
+        <v>1137</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1.3808</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G10" s="50">
+        <v>95.25</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="30">
+        <f>J6+J7+J8+J9</f>
+        <v>141</v>
+      </c>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="P10" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="39">
+        <v>1137</v>
+      </c>
+      <c r="R10" s="39">
+        <v>1.6652</v>
+      </c>
+      <c r="S10" s="39">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="T10" s="49">
+        <v>95.013999999999996</v>
+      </c>
+      <c r="U10" s="24">
+        <f xml:space="preserve"> (Q10-MAX(Q9:Q12))/(MIN(Q9:Q12) - MAX(Q9:Q12))</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="24">
+        <f xml:space="preserve"> (R10-MIN(R9:R12))/(MAX(R9:R12) - MIN(R9:R12))</f>
+        <v>0.23629112662013957</v>
+      </c>
+      <c r="W10" s="24">
+        <f t="shared" ref="W10:X10" si="1" xml:space="preserve"> (S10-MIN(S9:S12))/(MAX(S9:S12) - MIN(S9:S12))</f>
+        <v>1</v>
+      </c>
+      <c r="X10" s="24">
+        <f t="shared" si="1"/>
+        <v>0.23870967741934684</v>
+      </c>
+      <c r="Y10" s="111">
+        <f>U6*U10+V6*V10+W6*W10+X6*X10</f>
+        <v>0.25034564219037447</v>
+      </c>
+      <c r="Z10" s="111"/>
+    </row>
+    <row r="11" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="P11" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="39">
+        <v>1044.7</v>
+      </c>
+      <c r="R11" s="39">
+        <v>1.3808</v>
+      </c>
+      <c r="S11" s="39">
+        <v>0.97887000000000002</v>
+      </c>
+      <c r="T11" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="U11" s="24">
+        <f xml:space="preserve"> (Q11-MAX(Q9:Q12))/(MIN(Q9:Q12) - MAX(Q9:Q12))</f>
+        <v>0.32383692372465078</v>
+      </c>
+      <c r="V11" s="24">
+        <f xml:space="preserve"> (R11-MIN(R9:R12))/(MAX(R9:R12) - MIN(R9:R12))</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="24">
+        <f t="shared" ref="W11:X11" si="2" xml:space="preserve"> (S11-MIN(S9:S12))/(MAX(S9:S12) - MIN(S9:S12))</f>
+        <v>0.99562586331645087</v>
+      </c>
+      <c r="X11" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="111">
+        <f>U6*U11+V6*V11+W6*W11+X6*X11</f>
+        <v>0.22289592813980619</v>
+      </c>
+      <c r="Z11" s="111"/>
+    </row>
+    <row r="12" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P12" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="41">
+        <v>1136.5999999999999</v>
+      </c>
+      <c r="R12" s="41">
+        <v>2.3614999999999999</v>
+      </c>
+      <c r="S12" s="41">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="T12" s="50">
+        <v>95.192999999999998</v>
+      </c>
+      <c r="U12" s="24">
+        <f xml:space="preserve"> (Q12-MAX(Q9:Q12))/(MIN(Q9:Q12) - MAX(Q9:Q12))</f>
+        <v>1.4034102869977228E-3</v>
+      </c>
+      <c r="V12" s="24">
+        <f xml:space="preserve"> (R12-MIN(R9:R12))/(MAX(R9:R12) - MIN(R9:R12))</f>
+        <v>0.81480558325024921</v>
+      </c>
+      <c r="W12" s="24">
+        <f t="shared" ref="W12:X12" si="3" xml:space="preserve"> (S12-MIN(S9:S12))/(MAX(S9:S12) - MIN(S9:S12))</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="24">
+        <f t="shared" si="3"/>
+        <v>0.81612903225805888</v>
+      </c>
+      <c r="Y12" s="117">
+        <f>U6*U12+V6*V12+W6*W12+X6*X12</f>
+        <v>0.34271136121024209</v>
+      </c>
+      <c r="Z12" s="117"/>
+    </row>
+    <row r="13" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="125" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="94"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="P15" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="109"/>
+      <c r="Z15" s="110"/>
+    </row>
+    <row r="16" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="V16" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="W16" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="X16" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="111"/>
+    </row>
+    <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="102"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G17" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="38">
+        <v>70</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="49">
+        <f xml:space="preserve"> J17/(J17+J21)</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39">
+        <f xml:space="preserve"> L17</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="V17" s="39">
+        <f xml:space="preserve"> L18</f>
+        <v>0.17073170731707318</v>
+      </c>
+      <c r="W17" s="39">
+        <f xml:space="preserve"> L19</f>
+        <v>0.12820512820512819</v>
+      </c>
+      <c r="X17" s="39">
+        <f xml:space="preserve"> L20</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="111"/>
+    </row>
+    <row r="18" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="102"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="18">
+        <v>851.98</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G18" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="38">
+        <v>35</v>
+      </c>
+      <c r="K18" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="49">
+        <f xml:space="preserve"> J18/(J18+J21)</f>
+        <v>0.17073170731707318</v>
+      </c>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="V18" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="X18" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y18" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="111"/>
+    </row>
+    <row r="19" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="102"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E19" s="18">
+        <v>2.5844</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G19" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="38">
+        <v>25</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="49">
+        <f xml:space="preserve"> J19/(J19+J21)</f>
+        <v>0.12820512820512819</v>
+      </c>
+      <c r="P19" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="T19" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="W19" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="X19" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y19" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z19" s="81"/>
+    </row>
+    <row r="20" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="102"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="G20" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H20" s="34"/>
+      <c r="I20" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="40">
+        <v>40</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="50">
+        <f xml:space="preserve"> J20/(J20+J21)</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="P20" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="39">
+        <v>851.98</v>
+      </c>
+      <c r="R20" s="39">
+        <v>2.5844</v>
+      </c>
+      <c r="S20" s="39">
+        <v>0.67678700000000003</v>
+      </c>
+      <c r="T20" s="49">
+        <v>95.25</v>
+      </c>
+      <c r="U20" s="24">
+        <f xml:space="preserve"> (Q20-MAX(Q20:Q23))/(MIN(Q20:Q23) - MAX(Q20:Q23))</f>
+        <v>1</v>
+      </c>
+      <c r="V20" s="24">
+        <f xml:space="preserve"> (R20-MIN(R20:R23))/(MAX(R20:R23) - MIN(R20:R23))</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="24">
+        <f t="shared" ref="W20" si="4" xml:space="preserve"> (S20-MIN(S20:S23))/(MAX(S20:S23) - MIN(S20:S23))</f>
+        <v>2.127869499441111E-3</v>
+      </c>
+      <c r="X20" s="24">
+        <f t="shared" ref="X20" si="5" xml:space="preserve"> (T20-MIN(T20:T23))/(MAX(T20:T23) - MIN(T20:T23))</f>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="116">
+        <f>U17*U20+V17*V20+W17*W20+X17*X20</f>
+        <v>0.65314736824191</v>
+      </c>
+      <c r="Z20" s="116"/>
+    </row>
+    <row r="21" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="98"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="19">
+        <v>1137</v>
+      </c>
+      <c r="E21" s="19">
+        <v>1.3808</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G21" s="50">
+        <v>95.25</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="30">
+        <f>J17+J18+J19+J20</f>
+        <v>170</v>
+      </c>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="P21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="39">
+        <v>1137</v>
+      </c>
+      <c r="R21" s="39">
+        <v>1.6652</v>
+      </c>
+      <c r="S21" s="39">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="T21" s="49">
+        <v>95.013999999999996</v>
+      </c>
+      <c r="U21" s="24">
+        <f xml:space="preserve"> (Q21-MAX(Q20:Q23))/(MIN(Q20:Q23) - MAX(Q20:Q23))</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="24">
+        <f xml:space="preserve"> (R21-MIN(R20:R23))/(MAX(R20:R23) - MIN(R20:R23))</f>
+        <v>0.23629112662013957</v>
+      </c>
+      <c r="W21" s="24">
+        <f t="shared" ref="W21" si="6" xml:space="preserve"> (S21-MIN(S20:S23))/(MAX(S20:S23) - MIN(S20:S23))</f>
+        <v>1</v>
+      </c>
+      <c r="X21" s="24">
+        <f t="shared" ref="X21" si="7" xml:space="preserve"> (T21-MIN(T20:T23))/(MAX(T20:T23) - MIN(T20:T23))</f>
+        <v>0.23870967741934684</v>
+      </c>
+      <c r="Y21" s="111">
+        <f>U17*U21+V17*V21+W17*W21+X17*X21</f>
+        <v>0.21401602566149683</v>
+      </c>
+      <c r="Z21" s="111"/>
+    </row>
+    <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="P22" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" s="39">
+        <v>1044.7</v>
+      </c>
+      <c r="R22" s="39">
+        <v>1.3808</v>
+      </c>
+      <c r="S22" s="39">
+        <v>0.97887000000000002</v>
+      </c>
+      <c r="T22" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="U22" s="24">
+        <f xml:space="preserve"> (Q22-MAX(Q20:Q23))/(MIN(Q20:Q23) - MAX(Q20:Q23))</f>
+        <v>0.32383692372465078</v>
+      </c>
+      <c r="V22" s="24">
+        <f xml:space="preserve"> (R22-MIN(R20:R23))/(MAX(R20:R23) - MIN(R20:R23))</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="24">
+        <f t="shared" ref="W22" si="8" xml:space="preserve"> (S22-MIN(S20:S23))/(MAX(S20:S23) - MIN(S20:S23))</f>
+        <v>0.99562586331645087</v>
+      </c>
+      <c r="X22" s="24">
+        <f t="shared" ref="X22" si="9" xml:space="preserve"> (T22-MIN(T20:T23))/(MAX(T20:T23) - MIN(T20:T23))</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="111">
+        <f>U17*U22+V17*V22+W17*W22+X17*X22</f>
+        <v>0.22209677753718349</v>
+      </c>
+      <c r="Z22" s="111"/>
+    </row>
+    <row r="23" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P23" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" s="41">
+        <v>1136.5999999999999</v>
+      </c>
+      <c r="R23" s="41">
+        <v>2.3614999999999999</v>
+      </c>
+      <c r="S23" s="41">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="T23" s="50">
+        <v>95.192999999999998</v>
+      </c>
+      <c r="U23" s="24">
+        <f xml:space="preserve"> (Q23-MAX(Q20:Q23))/(MIN(Q20:Q23) - MAX(Q20:Q23))</f>
+        <v>1.4034102869977228E-3</v>
+      </c>
+      <c r="V23" s="24">
+        <f xml:space="preserve"> (R23-MIN(R20:R23))/(MAX(R20:R23) - MIN(R20:R23))</f>
+        <v>0.81480558325024921</v>
+      </c>
+      <c r="W23" s="24">
+        <f t="shared" ref="W23" si="10" xml:space="preserve"> (S23-MIN(S20:S23))/(MAX(S20:S23) - MIN(S20:S23))</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="24">
+        <f t="shared" ref="X23" si="11" xml:space="preserve"> (T23-MIN(T20:T23))/(MAX(T20:T23) - MIN(T20:T23))</f>
+        <v>0.81612903225805888</v>
+      </c>
+      <c r="Y23" s="117">
+        <f>U17*U23+V17*V23+W17*W23+X17*X23</f>
+        <v>0.29497562536170796</v>
+      </c>
+      <c r="Z23" s="117"/>
+    </row>
+    <row r="24" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="125" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="94"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="P26" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="115"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="109"/>
+      <c r="Z26" s="110"/>
+    </row>
+    <row r="27" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="80"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="V27" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="W27" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="X27" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y27" s="111"/>
+      <c r="Z27" s="111"/>
+    </row>
+    <row r="28" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="102"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G28" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H28" s="34"/>
+      <c r="I28" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="38">
+        <v>50</v>
+      </c>
+      <c r="K28" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="49">
+        <f xml:space="preserve"> J28/(J28+J32)</f>
+        <v>0.26178010471204188</v>
+      </c>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39">
+        <f>L28</f>
+        <v>0.26178010471204188</v>
+      </c>
+      <c r="V28" s="39">
+        <f>L29</f>
+        <v>0.15568862275449102</v>
+      </c>
+      <c r="W28" s="39">
+        <f>L30</f>
+        <v>0.15060240963855423</v>
+      </c>
+      <c r="X28" s="39">
+        <f>L31</f>
+        <v>0.22099447513812154</v>
+      </c>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="111"/>
+    </row>
+    <row r="29" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="102"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="18">
+        <v>851.98</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G29" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H29" s="34"/>
+      <c r="I29" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="38">
+        <v>26</v>
+      </c>
+      <c r="K29" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="49">
+        <f xml:space="preserve"> J29/(J29+J32)</f>
+        <v>0.15568862275449102</v>
+      </c>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="V29" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="W29" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="X29" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y29" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z29" s="111"/>
+    </row>
+    <row r="30" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="102"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E30" s="18">
+        <v>2.5844</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G30" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H30" s="34"/>
+      <c r="I30" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="38">
+        <v>25</v>
+      </c>
+      <c r="K30" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="49">
+        <f xml:space="preserve"> J30/(J30+J32)</f>
+        <v>0.15060240963855423</v>
+      </c>
+      <c r="P30" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="R30" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="S30" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="T30" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="U30" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="V30" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="W30" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="X30" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y30" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z30" s="81"/>
+    </row>
+    <row r="31" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="102"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="G31" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H31" s="34"/>
+      <c r="I31" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="40">
+        <v>40</v>
+      </c>
+      <c r="K31" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" s="50">
+        <f xml:space="preserve"> J31/(J31+J32)</f>
+        <v>0.22099447513812154</v>
+      </c>
+      <c r="P31" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q31" s="39">
+        <v>851.98</v>
+      </c>
+      <c r="R31" s="39">
+        <v>2.5844</v>
+      </c>
+      <c r="S31" s="39">
+        <v>0.67678700000000003</v>
+      </c>
+      <c r="T31" s="49">
+        <v>95.25</v>
+      </c>
+      <c r="U31" s="24">
+        <f xml:space="preserve"> (Q31-MAX(Q31:Q34))/(MIN(Q31:Q34) - MAX(Q31:Q34))</f>
+        <v>1</v>
+      </c>
+      <c r="V31" s="24">
+        <f xml:space="preserve"> (R31-MIN(R31:R34))/(MAX(R31:R34) - MIN(R31:R34))</f>
+        <v>1</v>
+      </c>
+      <c r="W31" s="24">
+        <f t="shared" ref="W31" si="12" xml:space="preserve"> (S31-MIN(S31:S34))/(MAX(S31:S34) - MIN(S31:S34))</f>
+        <v>2.127869499441111E-3</v>
+      </c>
+      <c r="X31" s="24">
+        <f t="shared" ref="X31" si="13" xml:space="preserve"> (T31-MIN(T31:T34))/(MAX(T31:T34) - MIN(T31:T34))</f>
+        <v>1</v>
+      </c>
+      <c r="Y31" s="116">
+        <f>U28*U31+V28*V31+W28*W31+X28*X31</f>
+        <v>0.63878366487866667</v>
+      </c>
+      <c r="Z31" s="116"/>
+    </row>
+    <row r="32" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="98"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="19">
+        <v>1137</v>
+      </c>
+      <c r="E32" s="19">
+        <v>1.3808</v>
+      </c>
+      <c r="F32" s="19">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G32" s="50">
+        <v>95.25</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="30">
+        <f>J28+J29+J30+J31</f>
+        <v>141</v>
+      </c>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="P32" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="39">
+        <v>1137</v>
+      </c>
+      <c r="R32" s="39">
+        <v>1.6652</v>
+      </c>
+      <c r="S32" s="39">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="T32" s="49">
+        <v>95.013999999999996</v>
+      </c>
+      <c r="U32" s="24">
+        <f xml:space="preserve"> (Q32-MAX(Q31:Q34))/(MIN(Q31:Q34) - MAX(Q31:Q34))</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="24">
+        <f xml:space="preserve"> (R32-MIN(R31:R34))/(MAX(R31:R34) - MIN(R31:R34))</f>
+        <v>0.23629112662013957</v>
+      </c>
+      <c r="W32" s="24">
+        <f t="shared" ref="W32" si="14" xml:space="preserve"> (S32-MIN(S31:S34))/(MAX(S31:S34) - MIN(S31:S34))</f>
+        <v>1</v>
+      </c>
+      <c r="X32" s="24">
+        <f t="shared" ref="X32" si="15" xml:space="preserve"> (T32-MIN(T31:T34))/(MAX(T31:T34) - MIN(T31:T34))</f>
+        <v>0.23870967741934684</v>
+      </c>
+      <c r="Y32" s="111">
+        <f>U28*U32+V28*V32+W28*W32+X28*X32</f>
+        <v>0.24014376958282968</v>
+      </c>
+      <c r="Z32" s="111"/>
+    </row>
+    <row r="33" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="P33" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="39">
+        <v>1044.7</v>
+      </c>
+      <c r="R33" s="39">
+        <v>1.3808</v>
+      </c>
+      <c r="S33" s="39">
+        <v>0.97887000000000002</v>
+      </c>
+      <c r="T33" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="U33" s="24">
+        <f xml:space="preserve"> (Q33-MAX(Q31:Q34))/(MIN(Q31:Q34) - MAX(Q31:Q34))</f>
+        <v>0.32383692372465078</v>
+      </c>
+      <c r="V33" s="24">
+        <f xml:space="preserve"> (R33-MIN(R31:R34))/(MAX(R31:R34) - MIN(R31:R34))</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="24">
+        <f t="shared" ref="W33" si="16" xml:space="preserve"> (S33-MIN(S31:S34))/(MAX(S31:S34) - MIN(S31:S34))</f>
+        <v>0.99562586331645087</v>
+      </c>
+      <c r="X33" s="24">
+        <f t="shared" ref="X33" si="17" xml:space="preserve"> (T33-MIN(T31:T34))/(MAX(T31:T34) - MIN(T31:T34))</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="111">
+        <f>U28*U33+V28*V33+W28*W33+X28*X33</f>
+        <v>0.23471771791618792</v>
+      </c>
+      <c r="Z33" s="111"/>
+    </row>
+    <row r="34" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P34" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" s="41">
+        <v>1136.5999999999999</v>
+      </c>
+      <c r="R34" s="41">
+        <v>2.3614999999999999</v>
+      </c>
+      <c r="S34" s="41">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="T34" s="50">
+        <v>95.192999999999998</v>
+      </c>
+      <c r="U34" s="24">
+        <f xml:space="preserve"> (Q34-MAX(Q31:Q34))/(MIN(Q31:Q34) - MAX(Q31:Q34))</f>
+        <v>1.4034102869977228E-3</v>
+      </c>
+      <c r="V34" s="24">
+        <f xml:space="preserve"> (R34-MIN(R31:R34))/(MAX(R31:R34) - MIN(R31:R34))</f>
+        <v>0.81480558325024921</v>
+      </c>
+      <c r="W34" s="24">
+        <f t="shared" ref="W34" si="18" xml:space="preserve"> (S34-MIN(S31:S34))/(MAX(S31:S34) - MIN(S31:S34))</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="24">
+        <f t="shared" ref="X34" si="19" xml:space="preserve"> (T34-MIN(T31:T34))/(MAX(T31:T34) - MIN(T31:T34))</f>
+        <v>0.81612903225805888</v>
+      </c>
+      <c r="Y34" s="117">
+        <f>U28*U34+V28*V34+W28*W34+X28*X34</f>
+        <v>0.30758335108963808</v>
+      </c>
+      <c r="Z34" s="117"/>
+    </row>
+    <row r="36" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="126" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="94"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="P38" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="115"/>
+      <c r="R38" s="115"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="109"/>
+      <c r="Z38" s="110"/>
+    </row>
+    <row r="39" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="80"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="V39" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="W39" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="X39" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y39" s="111"/>
+      <c r="Z39" s="111"/>
+    </row>
+    <row r="40" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="102"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E40" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F40" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G40" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H40" s="34"/>
+      <c r="I40" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="38">
+        <v>50</v>
+      </c>
+      <c r="K40" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="49">
+        <f xml:space="preserve"> J40/(J40+J44)</f>
+        <v>0.24509803921568626</v>
+      </c>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39">
+        <f>L40</f>
+        <v>0.24509803921568626</v>
+      </c>
+      <c r="V40" s="39">
+        <f>L41</f>
+        <v>0.20207253886010362</v>
+      </c>
+      <c r="W40" s="39">
+        <f>L42</f>
+        <v>0.13966480446927373</v>
+      </c>
+      <c r="X40" s="39">
+        <f>L43</f>
+        <v>0.20618556701030927</v>
+      </c>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="111"/>
+    </row>
+    <row r="41" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="102"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="18">
+        <v>851.98</v>
+      </c>
+      <c r="E41" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F41" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G41" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H41" s="34"/>
+      <c r="I41" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" s="38">
+        <v>39</v>
+      </c>
+      <c r="K41" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" s="49">
+        <f xml:space="preserve"> J41/(J41+J44)</f>
+        <v>0.20207253886010362</v>
+      </c>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="V41" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="W41" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="X41" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y41" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z41" s="111"/>
+    </row>
+    <row r="42" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="102"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E42" s="18">
+        <v>2.5844</v>
+      </c>
+      <c r="F42" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G42" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H42" s="34"/>
+      <c r="I42" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" s="38">
+        <v>25</v>
+      </c>
+      <c r="K42" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L42" s="49">
+        <f xml:space="preserve"> J42/(J42+J44)</f>
+        <v>0.13966480446927373</v>
+      </c>
+      <c r="P42" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="S42" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="T42" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="U42" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="V42" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="W42" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="X42" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y42" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z42" s="81"/>
+    </row>
+    <row r="43" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="102"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E43" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F43" s="18">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="G43" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H43" s="34"/>
+      <c r="I43" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" s="40">
+        <v>40</v>
+      </c>
+      <c r="K43" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="50">
+        <f xml:space="preserve"> J43/(J43+J44)</f>
+        <v>0.20618556701030927</v>
+      </c>
+      <c r="P43" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q43" s="39">
+        <v>851.98</v>
+      </c>
+      <c r="R43" s="39">
+        <v>2.5844</v>
+      </c>
+      <c r="S43" s="39">
+        <v>0.67678700000000003</v>
+      </c>
+      <c r="T43" s="49">
+        <v>95.25</v>
+      </c>
+      <c r="U43" s="24">
+        <f xml:space="preserve"> (Q43-MAX(Q43:Q46))/(MIN(Q43:Q46) - MAX(Q43:Q46))</f>
+        <v>1</v>
+      </c>
+      <c r="V43" s="24">
+        <f xml:space="preserve"> (R43-MIN(R43:R46))/(MAX(R43:R46) - MIN(R43:R46))</f>
+        <v>1</v>
+      </c>
+      <c r="W43" s="24">
+        <f t="shared" ref="W43" si="20" xml:space="preserve"> (S43-MIN(S43:S46))/(MAX(S43:S46) - MIN(S43:S46))</f>
+        <v>2.127869499441111E-3</v>
+      </c>
+      <c r="X43" s="24">
+        <f t="shared" ref="X43" si="21" xml:space="preserve"> (T43-MIN(T43:T46))/(MAX(T43:T46) - MIN(T43:T46))</f>
+        <v>1</v>
+      </c>
+      <c r="Y43" s="116">
+        <f>U40*U43+V40*V43+W40*W43+X40*X43</f>
+        <v>0.65365333356367472</v>
+      </c>
+      <c r="Z43" s="116"/>
+    </row>
+    <row r="44" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="98"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="19">
+        <v>1137</v>
+      </c>
+      <c r="E44" s="19">
+        <v>1.3808</v>
+      </c>
+      <c r="F44" s="19">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G44" s="50">
+        <v>95.25</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="30">
+        <f>J40+J41+J42+J43</f>
+        <v>154</v>
+      </c>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="P44" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q44" s="39">
+        <v>1137</v>
+      </c>
+      <c r="R44" s="39">
+        <v>1.6652</v>
+      </c>
+      <c r="S44" s="39">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="T44" s="49">
+        <v>95.013999999999996</v>
+      </c>
+      <c r="U44" s="24">
+        <f xml:space="preserve"> (Q44-MAX(Q43:Q46))/(MIN(Q43:Q46) - MAX(Q43:Q46))</f>
+        <v>0</v>
+      </c>
+      <c r="V44" s="24">
+        <f xml:space="preserve"> (R44-MIN(R43:R46))/(MAX(R43:R46) - MIN(R43:R46))</f>
+        <v>0.23629112662013957</v>
+      </c>
+      <c r="W44" s="24">
+        <f t="shared" ref="W44" si="22" xml:space="preserve"> (S44-MIN(S43:S46))/(MAX(S43:S46) - MIN(S43:S46))</f>
+        <v>1</v>
+      </c>
+      <c r="X44" s="24">
+        <f t="shared" ref="X44" si="23" xml:space="preserve"> (T44-MIN(T43:T46))/(MAX(T43:T46) - MIN(T43:T46))</f>
+        <v>0.23870967741934684</v>
+      </c>
+      <c r="Y44" s="111">
+        <f>U40*U44+V40*V44+W40*W44+X40*X44</f>
+        <v>0.23663124252507559</v>
+      </c>
+      <c r="Z44" s="111"/>
+    </row>
+    <row r="45" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="102"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="P45" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q45" s="39">
+        <v>1044.7</v>
+      </c>
+      <c r="R45" s="39">
+        <v>1.3808</v>
+      </c>
+      <c r="S45" s="39">
+        <v>0.97887000000000002</v>
+      </c>
+      <c r="T45" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="U45" s="24">
+        <f xml:space="preserve"> (Q45-MAX(Q43:Q46))/(MIN(Q43:Q46) - MAX(Q43:Q46))</f>
+        <v>0.32383692372465078</v>
+      </c>
+      <c r="V45" s="24">
+        <f xml:space="preserve"> (R45-MIN(R43:R46))/(MAX(R43:R46) - MIN(R43:R46))</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="24">
+        <f t="shared" ref="W45" si="24" xml:space="preserve"> (S45-MIN(S43:S46))/(MAX(S43:S46) - MIN(S43:S46))</f>
+        <v>0.99562586331645087</v>
+      </c>
+      <c r="X45" s="24">
+        <f t="shared" ref="X45" si="25" xml:space="preserve"> (T45-MIN(T43:T46))/(MAX(T43:T46) - MIN(T43:T46))</f>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="111">
+        <f>U40*U45+V40*V45+W40*W45+X40*X45</f>
+        <v>0.21842568655519562</v>
+      </c>
+      <c r="Z45" s="111"/>
+    </row>
+    <row r="46" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P46" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q46" s="41">
+        <v>1136.5999999999999</v>
+      </c>
+      <c r="R46" s="41">
+        <v>2.3614999999999999</v>
+      </c>
+      <c r="S46" s="41">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="T46" s="50">
+        <v>95.192999999999998</v>
+      </c>
+      <c r="U46" s="24">
+        <f xml:space="preserve"> (Q46-MAX(Q43:Q46))/(MIN(Q43:Q46) - MAX(Q43:Q46))</f>
+        <v>1.4034102869977228E-3</v>
+      </c>
+      <c r="V46" s="24">
+        <f xml:space="preserve"> (R46-MIN(R43:R46))/(MAX(R43:R46) - MIN(R43:R46))</f>
+        <v>0.81480558325024921</v>
+      </c>
+      <c r="W46" s="24">
+        <f t="shared" ref="W46" si="26" xml:space="preserve"> (S46-MIN(S43:S46))/(MAX(S43:S46) - MIN(S43:S46))</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="24">
+        <f t="shared" ref="X46" si="27" xml:space="preserve"> (T46-MIN(T43:T46))/(MAX(T43:T46) - MIN(T43:T46))</f>
+        <v>0.81612903225805888</v>
+      </c>
+      <c r="Y46" s="117">
+        <f>U40*U46+V40*V46+W40*W46+X40*X46</f>
+        <v>0.33326783326402654</v>
+      </c>
+      <c r="Z46" s="117"/>
+    </row>
+    <row r="47" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="126" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="94"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="P49" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q49" s="115"/>
+      <c r="R49" s="115"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="51"/>
+      <c r="U49" s="51"/>
+      <c r="V49" s="51"/>
+      <c r="W49" s="51"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="109"/>
+      <c r="Z49" s="110"/>
+    </row>
+    <row r="50" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="80"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="V50" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="W50" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="X50" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y50" s="111"/>
+      <c r="Z50" s="111"/>
+    </row>
+    <row r="51" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="102"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E51" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F51" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G51" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H51" s="34"/>
+      <c r="I51" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" s="38">
+        <v>50</v>
+      </c>
+      <c r="K51" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="49">
+        <f xml:space="preserve"> J51/(J51+J55)</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39">
+        <f>L51</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="V51" s="39">
+        <f>L52</f>
+        <v>0.2</v>
+      </c>
+      <c r="W51" s="39">
+        <f>L53</f>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="X51" s="39">
+        <f>L54</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="Y51" s="111"/>
+      <c r="Z51" s="111"/>
+    </row>
+    <row r="52" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="102"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="18">
+        <v>851.98</v>
+      </c>
+      <c r="E52" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F52" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G52" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H52" s="34"/>
+      <c r="I52" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J52" s="38">
+        <v>35</v>
+      </c>
+      <c r="K52" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="L52" s="49">
+        <f xml:space="preserve"> J52/(J52+J55)</f>
+        <v>0.2</v>
+      </c>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="V52" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="W52" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="X52" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y52" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z52" s="111"/>
+    </row>
+    <row r="53" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="102"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E53" s="18">
+        <v>2.5844</v>
+      </c>
+      <c r="F53" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G53" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H53" s="34"/>
+      <c r="I53" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J53" s="38">
+        <v>15</v>
+      </c>
+      <c r="K53" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L53" s="49">
+        <f xml:space="preserve"> J53/(J53+J55)</f>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="P53" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q53" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="R53" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="S53" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="T53" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="U53" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="V53" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="W53" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="X53" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y53" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z53" s="81"/>
+    </row>
+    <row r="54" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="102"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E54" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F54" s="18">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="G54" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H54" s="34"/>
+      <c r="I54" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J54" s="40">
+        <v>40</v>
+      </c>
+      <c r="K54" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54" s="50">
+        <f xml:space="preserve"> J54/(J54+J55)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="P54" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q54" s="39">
+        <v>851.98</v>
+      </c>
+      <c r="R54" s="39">
+        <v>2.5844</v>
+      </c>
+      <c r="S54" s="39">
+        <v>0.67678700000000003</v>
+      </c>
+      <c r="T54" s="49">
+        <v>95.25</v>
+      </c>
+      <c r="U54" s="24">
+        <f xml:space="preserve"> (Q54-MAX(Q54:Q57))/(MIN(Q54:Q57) - MAX(Q54:Q57))</f>
+        <v>1</v>
+      </c>
+      <c r="V54" s="24">
+        <f xml:space="preserve"> (R54-MIN(R54:R57))/(MAX(R54:R57) - MIN(R54:R57))</f>
+        <v>1</v>
+      </c>
+      <c r="W54" s="24">
+        <f t="shared" ref="W54" si="28" xml:space="preserve"> (S54-MIN(S54:S57))/(MAX(S54:S57) - MIN(S54:S57))</f>
+        <v>2.127869499441111E-3</v>
+      </c>
+      <c r="X54" s="24">
+        <f t="shared" ref="X54" si="29" xml:space="preserve"> (T54-MIN(T54:T57))/(MAX(T54:T57) - MIN(T54:T57))</f>
+        <v>1</v>
+      </c>
+      <c r="Y54" s="116">
+        <f>U51*U54+V51*V54+W51*W54+X51*X54</f>
+        <v>0.68558603981384891</v>
+      </c>
+      <c r="Z54" s="116"/>
+    </row>
+    <row r="55" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="98"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="19">
+        <v>1137</v>
+      </c>
+      <c r="E55" s="19">
+        <v>1.3808</v>
+      </c>
+      <c r="F55" s="19">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G55" s="50">
+        <v>95.25</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="30">
+        <f>J51+J52+J53+J54</f>
+        <v>140</v>
+      </c>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="P55" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q55" s="39">
+        <v>1137</v>
+      </c>
+      <c r="R55" s="39">
+        <v>1.6652</v>
+      </c>
+      <c r="S55" s="39">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="T55" s="49">
+        <v>95.013999999999996</v>
+      </c>
+      <c r="U55" s="24">
+        <f xml:space="preserve"> (Q55-MAX(Q54:Q57))/(MIN(Q54:Q57) - MAX(Q54:Q57))</f>
+        <v>0</v>
+      </c>
+      <c r="V55" s="24">
+        <f xml:space="preserve"> (R55-MIN(R54:R57))/(MAX(R54:R57) - MIN(R54:R57))</f>
+        <v>0.23629112662013957</v>
+      </c>
+      <c r="W55" s="24">
+        <f t="shared" ref="W55" si="30" xml:space="preserve"> (S55-MIN(S54:S57))/(MAX(S54:S57) - MIN(S54:S57))</f>
+        <v>1</v>
+      </c>
+      <c r="X55" s="24">
+        <f t="shared" ref="X55" si="31" xml:space="preserve"> (T55-MIN(T54:T57))/(MAX(T54:T57) - MIN(T54:T57))</f>
+        <v>0.23870967741934684</v>
+      </c>
+      <c r="Y55" s="111">
+        <f>U51*U55+V51*V55+W51*W55+X51*X55</f>
+        <v>0.19707901385449211</v>
+      </c>
+      <c r="Z55" s="111"/>
+    </row>
+    <row r="56" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="102"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="P56" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q56" s="39">
+        <v>1044.7</v>
+      </c>
+      <c r="R56" s="39">
+        <v>1.3808</v>
+      </c>
+      <c r="S56" s="39">
+        <v>0.97887000000000002</v>
+      </c>
+      <c r="T56" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="U56" s="24">
+        <f xml:space="preserve"> (Q56-MAX(Q54:Q57))/(MIN(Q54:Q57) - MAX(Q54:Q57))</f>
+        <v>0.32383692372465078</v>
+      </c>
+      <c r="V56" s="24">
+        <f xml:space="preserve"> (R56-MIN(R54:R57))/(MAX(R54:R57) - MIN(R54:R57))</f>
+        <v>0</v>
+      </c>
+      <c r="W56" s="24">
+        <f t="shared" ref="W56" si="32" xml:space="preserve"> (S56-MIN(S54:S57))/(MAX(S54:S57) - MIN(S54:S57))</f>
+        <v>0.99562586331645087</v>
+      </c>
+      <c r="X56" s="24">
+        <f t="shared" ref="X56" si="33" xml:space="preserve"> (T56-MIN(T54:T57))/(MAX(T54:T57) - MIN(T54:T57))</f>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="111">
+        <f>U51*U56+V51*V56+W51*W56+X51*X56</f>
+        <v>0.18157113308380063</v>
+      </c>
+      <c r="Z56" s="111"/>
+    </row>
+    <row r="57" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P57" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q57" s="41">
+        <v>1136.5999999999999</v>
+      </c>
+      <c r="R57" s="41">
+        <v>2.3614999999999999</v>
+      </c>
+      <c r="S57" s="41">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="T57" s="50">
+        <v>95.192999999999998</v>
+      </c>
+      <c r="U57" s="24">
+        <f xml:space="preserve"> (Q57-MAX(Q54:Q57))/(MIN(Q54:Q57) - MAX(Q54:Q57))</f>
+        <v>1.4034102869977228E-3</v>
+      </c>
+      <c r="V57" s="24">
+        <f xml:space="preserve"> (R57-MIN(R54:R57))/(MAX(R54:R57) - MIN(R54:R57))</f>
+        <v>0.81480558325024921</v>
+      </c>
+      <c r="W57" s="24">
+        <f t="shared" ref="W57" si="34" xml:space="preserve"> (S57-MIN(S54:S57))/(MAX(S54:S57) - MIN(S54:S57))</f>
+        <v>0</v>
+      </c>
+      <c r="X57" s="24">
+        <f t="shared" ref="X57" si="35" xml:space="preserve"> (T57-MIN(T54:T57))/(MAX(T54:T57) - MIN(T54:T57))</f>
+        <v>0.81612903225805888</v>
+      </c>
+      <c r="Y57" s="117">
+        <f>U51*U57+V51*V57+W51*W57+X51*X57</f>
+        <v>0.34469244231508572</v>
+      </c>
+      <c r="Z57" s="117"/>
+    </row>
+    <row r="59" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="126" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="94"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="P61" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q61" s="115"/>
+      <c r="R61" s="115"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="51"/>
+      <c r="U61" s="51"/>
+      <c r="V61" s="51"/>
+      <c r="W61" s="51"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="109"/>
+      <c r="Z61" s="110"/>
+    </row>
+    <row r="62" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="80"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="L62" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="V62" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="W62" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="X62" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y62" s="111"/>
+      <c r="Z62" s="111"/>
+    </row>
+    <row r="63" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="102"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E63" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F63" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G63" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H63" s="34"/>
+      <c r="I63" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" s="38">
+        <v>50</v>
+      </c>
+      <c r="K63" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="49">
+        <f xml:space="preserve"> J63/(J63+J67)</f>
+        <v>0.23923444976076555</v>
+      </c>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39">
+        <f>L63</f>
+        <v>0.23923444976076555</v>
+      </c>
+      <c r="V63" s="39">
+        <f>L64</f>
+        <v>0.18041237113402062</v>
+      </c>
+      <c r="W63" s="39">
+        <f>L65</f>
+        <v>0.17616580310880828</v>
+      </c>
+      <c r="X63" s="39">
+        <f>L66</f>
+        <v>0.20100502512562815</v>
+      </c>
+      <c r="Y63" s="111"/>
+      <c r="Z63" s="111"/>
+    </row>
+    <row r="64" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="102"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="18">
+        <v>851.98</v>
+      </c>
+      <c r="E64" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F64" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G64" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H64" s="34"/>
+      <c r="I64" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J64" s="38">
+        <v>35</v>
+      </c>
+      <c r="K64" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="L64" s="49">
+        <f xml:space="preserve"> J64/(J64+J67)</f>
+        <v>0.18041237113402062</v>
+      </c>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="V64" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="W64" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="X64" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y64" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z64" s="111"/>
+    </row>
+    <row r="65" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="102"/>
+      <c r="C65" s="111"/>
+      <c r="D65" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E65" s="18">
+        <v>2.5844</v>
+      </c>
+      <c r="F65" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G65" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H65" s="34"/>
+      <c r="I65" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J65" s="38">
+        <v>34</v>
+      </c>
+      <c r="K65" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L65" s="49">
+        <f xml:space="preserve"> J65/(J65+J67)</f>
+        <v>0.17616580310880828</v>
+      </c>
+      <c r="P65" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q65" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="R65" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="S65" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="T65" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="U65" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="V65" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="W65" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="X65" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y65" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z65" s="81"/>
+    </row>
+    <row r="66" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="102"/>
+      <c r="C66" s="111"/>
+      <c r="D66" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E66" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F66" s="18">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="G66" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H66" s="34"/>
+      <c r="I66" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J66" s="40">
+        <v>40</v>
+      </c>
+      <c r="K66" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="L66" s="50">
+        <f xml:space="preserve"> J66/(J66+J67)</f>
+        <v>0.20100502512562815</v>
+      </c>
+      <c r="P66" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q66" s="39">
+        <v>851.98</v>
+      </c>
+      <c r="R66" s="39">
+        <v>2.5844</v>
+      </c>
+      <c r="S66" s="39">
+        <v>0.67678700000000003</v>
+      </c>
+      <c r="T66" s="49">
+        <v>95.25</v>
+      </c>
+      <c r="U66" s="24">
+        <f xml:space="preserve"> (Q66-MAX(Q66:Q69))/(MIN(Q66:Q69) - MAX(Q66:Q69))</f>
+        <v>1</v>
+      </c>
+      <c r="V66" s="24">
+        <f xml:space="preserve"> (R66-MIN(R66:R69))/(MAX(R66:R69) - MIN(R66:R69))</f>
+        <v>1</v>
+      </c>
+      <c r="W66" s="24">
+        <f t="shared" ref="W66" si="36" xml:space="preserve"> (S66-MIN(S66:S69))/(MAX(S66:S69) - MIN(S66:S69))</f>
+        <v>2.127869499441111E-3</v>
+      </c>
+      <c r="X66" s="24">
+        <f t="shared" ref="X66" si="37" xml:space="preserve"> (T66-MIN(T66:T69))/(MAX(T66:T69) - MIN(T66:T69))</f>
+        <v>1</v>
+      </c>
+      <c r="Y66" s="116">
+        <f>U63*U66+V63*V66+W63*W66+X63*X66</f>
+        <v>0.62102670385969405</v>
+      </c>
+      <c r="Z66" s="116"/>
+    </row>
+    <row r="67" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="98"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="19">
+        <v>1137</v>
+      </c>
+      <c r="E67" s="19">
+        <v>1.3808</v>
+      </c>
+      <c r="F67" s="19">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G67" s="50">
+        <v>95.25</v>
+      </c>
+      <c r="I67" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="30">
+        <f>J63+J64+J65+J66</f>
+        <v>159</v>
+      </c>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="P67" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q67" s="39">
+        <v>1137</v>
+      </c>
+      <c r="R67" s="39">
+        <v>1.6652</v>
+      </c>
+      <c r="S67" s="39">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="T67" s="49">
+        <v>95.013999999999996</v>
+      </c>
+      <c r="U67" s="24">
+        <f xml:space="preserve"> (Q67-MAX(Q66:Q69))/(MIN(Q66:Q69) - MAX(Q66:Q69))</f>
+        <v>0</v>
+      </c>
+      <c r="V67" s="24">
+        <f xml:space="preserve"> (R67-MIN(R66:R69))/(MAX(R66:R69) - MIN(R66:R69))</f>
+        <v>0.23629112662013957</v>
+      </c>
+      <c r="W67" s="24">
+        <f t="shared" ref="W67" si="38" xml:space="preserve"> (S67-MIN(S66:S69))/(MAX(S66:S69) - MIN(S66:S69))</f>
+        <v>1</v>
+      </c>
+      <c r="X67" s="24">
+        <f t="shared" ref="X67" si="39" xml:space="preserve"> (T67-MIN(T66:T69))/(MAX(T66:T69) - MIN(T66:T69))</f>
+        <v>0.23870967741934684</v>
+      </c>
+      <c r="Y67" s="111">
+        <f>U63*U67+V63*V67+W63*W67+X63*X67</f>
+        <v>0.26677749024768316</v>
+      </c>
+      <c r="Z67" s="111"/>
+    </row>
+    <row r="68" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="102"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="P68" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q68" s="39">
+        <v>1044.7</v>
+      </c>
+      <c r="R68" s="39">
+        <v>1.3808</v>
+      </c>
+      <c r="S68" s="39">
+        <v>0.97887000000000002</v>
+      </c>
+      <c r="T68" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="U68" s="24">
+        <f xml:space="preserve"> (Q68-MAX(Q66:Q69))/(MIN(Q66:Q69) - MAX(Q66:Q69))</f>
+        <v>0.32383692372465078</v>
+      </c>
+      <c r="V68" s="24">
+        <f xml:space="preserve"> (R68-MIN(R66:R69))/(MAX(R66:R69) - MIN(R66:R69))</f>
+        <v>0</v>
+      </c>
+      <c r="W68" s="24">
+        <f t="shared" ref="W68" si="40" xml:space="preserve"> (S68-MIN(S66:S69))/(MAX(S66:S69) - MIN(S66:S69))</f>
+        <v>0.99562586331645087</v>
+      </c>
+      <c r="X68" s="24">
+        <f t="shared" ref="X68" si="41" xml:space="preserve"> (T68-MIN(T66:T69))/(MAX(T66:T69) - MIN(T66:T69))</f>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="111">
+        <f>U63*U68+V63*V68+W63*W68+X63*X68</f>
+        <v>0.25286817806652895</v>
+      </c>
+      <c r="Z68" s="111"/>
+    </row>
+    <row r="69" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P69" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q69" s="41">
+        <v>1136.5999999999999</v>
+      </c>
+      <c r="R69" s="41">
+        <v>2.3614999999999999</v>
+      </c>
+      <c r="S69" s="41">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="T69" s="50">
+        <v>95.192999999999998</v>
+      </c>
+      <c r="U69" s="24">
+        <f xml:space="preserve"> (Q69-MAX(Q66:Q69))/(MIN(Q66:Q69) - MAX(Q66:Q69))</f>
+        <v>1.4034102869977228E-3</v>
+      </c>
+      <c r="V69" s="24">
+        <f xml:space="preserve"> (R69-MIN(R66:R69))/(MAX(R66:R69) - MIN(R66:R69))</f>
+        <v>0.81480558325024921</v>
+      </c>
+      <c r="W69" s="24">
+        <f t="shared" ref="W69" si="42" xml:space="preserve"> (S69-MIN(S66:S69))/(MAX(S66:S69) - MIN(S66:S69))</f>
+        <v>0</v>
+      </c>
+      <c r="X69" s="24">
+        <f t="shared" ref="X69" si="43" xml:space="preserve"> (T69-MIN(T66:T69))/(MAX(T66:T69) - MIN(T66:T69))</f>
+        <v>0.81612903225805888</v>
+      </c>
+      <c r="Y69" s="117">
+        <f>U63*U69+V63*V69+W63*W69+X63*X69</f>
+        <v>0.3113827880100003</v>
+      </c>
+      <c r="Z69" s="117"/>
+    </row>
+    <row r="72" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="A72" s="126" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="94"/>
+      <c r="C74" s="118"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="P74" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q74" s="115"/>
+      <c r="R74" s="115"/>
+      <c r="S74" s="51"/>
+      <c r="T74" s="51"/>
+      <c r="U74" s="51"/>
+      <c r="V74" s="51"/>
+      <c r="W74" s="51"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="109"/>
+      <c r="Z74" s="110"/>
+    </row>
+    <row r="75" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="80"/>
+      <c r="C75" s="119"/>
+      <c r="D75" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G75" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="L75" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="P75" s="38"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="V75" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="W75" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="X75" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y75" s="111"/>
+      <c r="Z75" s="111"/>
+    </row>
+    <row r="76" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" s="102"/>
+      <c r="C76" s="111"/>
+      <c r="D76" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E76" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F76" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G76" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H76" s="34"/>
+      <c r="I76" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J76" s="38">
+        <v>50</v>
+      </c>
+      <c r="K76" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="49">
+        <f xml:space="preserve"> J76/(J76+J80)</f>
+        <v>0.25510204081632654</v>
+      </c>
+      <c r="P76" s="38"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39">
+        <f>L76</f>
+        <v>0.25510204081632654</v>
+      </c>
+      <c r="V76" s="39">
+        <f>L77</f>
+        <v>0.19337016574585636</v>
+      </c>
+      <c r="W76" s="39">
+        <f>L78</f>
+        <v>0.14619883040935672</v>
+      </c>
+      <c r="X76" s="39">
+        <f>L79</f>
+        <v>0.19780219780219779</v>
+      </c>
+      <c r="Y76" s="111"/>
+      <c r="Z76" s="111"/>
+    </row>
+    <row r="77" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="102"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="18">
+        <v>851.98</v>
+      </c>
+      <c r="E77" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F77" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G77" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H77" s="34"/>
+      <c r="I77" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J77" s="38">
+        <v>35</v>
+      </c>
+      <c r="K77" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="L77" s="49">
+        <f xml:space="preserve"> J77/(J77+J80)</f>
+        <v>0.19337016574585636</v>
+      </c>
+      <c r="P77" s="38"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39"/>
+      <c r="T77" s="39"/>
+      <c r="U77" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="V77" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="W77" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="X77" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y77" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z77" s="111"/>
+    </row>
+    <row r="78" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="102"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E78" s="18">
+        <v>2.5844</v>
+      </c>
+      <c r="F78" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G78" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H78" s="34"/>
+      <c r="I78" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J78" s="38">
+        <v>25</v>
+      </c>
+      <c r="K78" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L78" s="49">
+        <f xml:space="preserve"> J78/(J78+J80)</f>
+        <v>0.14619883040935672</v>
+      </c>
+      <c r="P78" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q78" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="R78" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="S78" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="T78" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="U78" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="V78" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="W78" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="X78" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y78" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z78" s="81"/>
+    </row>
+    <row r="79" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="102"/>
+      <c r="C79" s="111"/>
+      <c r="D79" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E79" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F79" s="18">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="G79" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H79" s="34"/>
+      <c r="I79" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J79" s="40">
+        <v>36</v>
+      </c>
+      <c r="K79" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="L79" s="50">
+        <f xml:space="preserve"> J79/(J79+J80)</f>
+        <v>0.19780219780219779</v>
+      </c>
+      <c r="P79" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q79" s="39">
+        <v>851.98</v>
+      </c>
+      <c r="R79" s="39">
+        <v>2.5844</v>
+      </c>
+      <c r="S79" s="39">
+        <v>0.67678700000000003</v>
+      </c>
+      <c r="T79" s="49">
+        <v>95.25</v>
+      </c>
+      <c r="U79" s="24">
+        <f xml:space="preserve"> (Q79-MAX(Q79:Q82))/(MIN(Q79:Q82) - MAX(Q79:Q82))</f>
+        <v>1</v>
+      </c>
+      <c r="V79" s="24">
+        <f xml:space="preserve"> (R79-MIN(R79:R82))/(MAX(R79:R82) - MIN(R79:R82))</f>
+        <v>1</v>
+      </c>
+      <c r="W79" s="24">
+        <f t="shared" ref="W79" si="44" xml:space="preserve"> (S79-MIN(S79:S82))/(MAX(S79:S82) - MIN(S79:S82))</f>
+        <v>2.127869499441111E-3</v>
+      </c>
+      <c r="X79" s="24">
+        <f t="shared" ref="X79" si="45" xml:space="preserve"> (T79-MIN(T79:T82))/(MAX(T79:T82) - MIN(T79:T82))</f>
+        <v>1</v>
+      </c>
+      <c r="Y79" s="116">
+        <f>U76*U79+V76*V79+W76*W79+X76*X79</f>
+        <v>0.64658549639646268</v>
+      </c>
+      <c r="Z79" s="116"/>
+    </row>
+    <row r="80" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="98"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="19">
+        <v>1137</v>
+      </c>
+      <c r="E80" s="19">
+        <v>1.3808</v>
+      </c>
+      <c r="F80" s="19">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G80" s="50">
+        <v>95.25</v>
+      </c>
+      <c r="I80" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" s="30">
+        <f>J76+J77+J78+J79</f>
+        <v>146</v>
+      </c>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="P80" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q80" s="39">
+        <v>1137</v>
+      </c>
+      <c r="R80" s="39">
+        <v>1.6652</v>
+      </c>
+      <c r="S80" s="39">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="T80" s="49">
+        <v>95.013999999999996</v>
+      </c>
+      <c r="U80" s="24">
+        <f xml:space="preserve"> (Q80-MAX(Q79:Q82))/(MIN(Q79:Q82) - MAX(Q79:Q82))</f>
+        <v>0</v>
+      </c>
+      <c r="V80" s="24">
+        <f xml:space="preserve"> (R80-MIN(R79:R82))/(MAX(R79:R82) - MIN(R79:R82))</f>
+        <v>0.23629112662013957</v>
+      </c>
+      <c r="W80" s="24">
+        <f t="shared" ref="W80" si="46" xml:space="preserve"> (S80-MIN(S79:S82))/(MAX(S79:S82) - MIN(S79:S82))</f>
+        <v>1</v>
+      </c>
+      <c r="X80" s="24">
+        <f t="shared" ref="X80" si="47" xml:space="preserve"> (T80-MIN(T79:T82))/(MAX(T79:T82) - MIN(T79:T82))</f>
+        <v>0.23870967741934684</v>
+      </c>
+      <c r="Y80" s="111">
+        <f>U76*U80+V76*V80+W76*W80+X76*X80</f>
+        <v>0.2391077835583687</v>
+      </c>
+      <c r="Z80" s="111"/>
+    </row>
+    <row r="81" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="102"/>
+      <c r="B81" s="102"/>
+      <c r="C81" s="102"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="34"/>
+      <c r="P81" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q81" s="39">
+        <v>1044.7</v>
+      </c>
+      <c r="R81" s="39">
+        <v>1.3808</v>
+      </c>
+      <c r="S81" s="39">
+        <v>0.97887000000000002</v>
+      </c>
+      <c r="T81" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="U81" s="24">
+        <f xml:space="preserve"> (Q81-MAX(Q79:Q82))/(MIN(Q79:Q82) - MAX(Q79:Q82))</f>
+        <v>0.32383692372465078</v>
+      </c>
+      <c r="V81" s="24">
+        <f xml:space="preserve"> (R81-MIN(R79:R82))/(MAX(R79:R82) - MIN(R79:R82))</f>
+        <v>0</v>
+      </c>
+      <c r="W81" s="24">
+        <f t="shared" ref="W81" si="48" xml:space="preserve"> (S81-MIN(S79:S82))/(MAX(S79:S82) - MIN(S79:S82))</f>
+        <v>0.99562586331645087</v>
+      </c>
+      <c r="X81" s="24">
+        <f t="shared" ref="X81" si="49" xml:space="preserve"> (T81-MIN(T79:T82))/(MAX(T79:T82) - MIN(T79:T82))</f>
+        <v>0</v>
+      </c>
+      <c r="Y81" s="111">
+        <f>U76*U81+V76*V81+W76*W81+X76*X81</f>
+        <v>0.22817079687601066</v>
+      </c>
+      <c r="Z81" s="111"/>
+    </row>
+    <row r="82" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P82" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q82" s="41">
+        <v>1136.5999999999999</v>
+      </c>
+      <c r="R82" s="41">
+        <v>2.3614999999999999</v>
+      </c>
+      <c r="S82" s="41">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="T82" s="50">
+        <v>95.192999999999998</v>
+      </c>
+      <c r="U82" s="24">
+        <f xml:space="preserve"> (Q82-MAX(Q79:Q82))/(MIN(Q79:Q82) - MAX(Q79:Q82))</f>
+        <v>1.4034102869977228E-3</v>
+      </c>
+      <c r="V82" s="24">
+        <f xml:space="preserve"> (R82-MIN(R79:R82))/(MAX(R79:R82) - MIN(R79:R82))</f>
+        <v>0.81480558325024921</v>
+      </c>
+      <c r="W82" s="24">
+        <f t="shared" ref="W82" si="50" xml:space="preserve"> (S82-MIN(S79:S82))/(MAX(S79:S82) - MIN(S79:S82))</f>
+        <v>0</v>
+      </c>
+      <c r="X82" s="24">
+        <f t="shared" ref="X82" si="51" xml:space="preserve"> (T82-MIN(T79:T82))/(MAX(T79:T82) - MIN(T79:T82))</f>
+        <v>0.81612903225805888</v>
+      </c>
+      <c r="Y82" s="117">
+        <f>U76*U82+V76*V82+W76*W82+X76*X82</f>
+        <v>0.31934921978289044</v>
+      </c>
+      <c r="Z82" s="117"/>
+    </row>
+    <row r="84" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+      <c r="A84" s="126" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="94"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="67"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="69"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
+      <c r="P86" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q86" s="115"/>
+      <c r="R86" s="115"/>
+      <c r="S86" s="51"/>
+      <c r="T86" s="51"/>
+      <c r="U86" s="51"/>
+      <c r="V86" s="51"/>
+      <c r="W86" s="51"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="109"/>
+      <c r="Z86" s="110"/>
+    </row>
+    <row r="87" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="80"/>
+      <c r="C87" s="119"/>
+      <c r="D87" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G87" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="K87" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="L87" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="P87" s="38"/>
+      <c r="Q87" s="39"/>
+      <c r="R87" s="39"/>
+      <c r="S87" s="39"/>
+      <c r="T87" s="39"/>
+      <c r="U87" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="V87" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="W87" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="X87" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y87" s="111"/>
+      <c r="Z87" s="111"/>
+    </row>
+    <row r="88" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A88" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" s="102"/>
+      <c r="C88" s="111"/>
+      <c r="D88" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E88" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F88" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G88" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H88" s="34"/>
+      <c r="I88" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J88" s="38">
+        <v>50</v>
+      </c>
+      <c r="K88" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L88" s="49">
+        <f xml:space="preserve"> J88/(J88+J92)</f>
+        <v>0.23923444976076555</v>
+      </c>
+      <c r="P88" s="38"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="39"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="39">
+        <f>L88</f>
+        <v>0.23923444976076555</v>
+      </c>
+      <c r="V88" s="39">
+        <f>L89</f>
+        <v>0.18041237113402062</v>
+      </c>
+      <c r="W88" s="39">
+        <f>L90</f>
+        <v>0.1358695652173913</v>
+      </c>
+      <c r="X88" s="39">
+        <f>L91</f>
+        <v>0.23557692307692307</v>
+      </c>
+      <c r="Y88" s="111"/>
+      <c r="Z88" s="111"/>
+    </row>
+    <row r="89" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="102"/>
+      <c r="C89" s="111"/>
+      <c r="D89" s="18">
+        <v>851.98</v>
+      </c>
+      <c r="E89" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F89" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G89" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H89" s="34"/>
+      <c r="I89" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J89" s="38">
+        <v>35</v>
+      </c>
+      <c r="K89" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="L89" s="49">
+        <f xml:space="preserve"> J89/(J89+J92)</f>
+        <v>0.18041237113402062</v>
+      </c>
+      <c r="P89" s="38"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="V89" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="W89" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="X89" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y89" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z89" s="111"/>
+    </row>
+    <row r="90" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="102"/>
+      <c r="C90" s="111"/>
+      <c r="D90" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E90" s="18">
+        <v>2.5844</v>
+      </c>
+      <c r="F90" s="18">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G90" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H90" s="34"/>
+      <c r="I90" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J90" s="38">
+        <v>25</v>
+      </c>
+      <c r="K90" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L90" s="49">
+        <f xml:space="preserve"> J90/(J90+J92)</f>
+        <v>0.1358695652173913</v>
+      </c>
+      <c r="P90" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q90" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="R90" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="S90" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="T90" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="U90" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="V90" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="W90" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="X90" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y90" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z90" s="81"/>
+    </row>
+    <row r="91" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="102"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="18">
+        <v>1137</v>
+      </c>
+      <c r="E91" s="18">
+        <v>1.3808</v>
+      </c>
+      <c r="F91" s="18">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="G91" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="H91" s="34"/>
+      <c r="I91" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J91" s="40">
+        <v>49</v>
+      </c>
+      <c r="K91" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="L91" s="50">
+        <f xml:space="preserve"> J91/(J91+J92)</f>
+        <v>0.23557692307692307</v>
+      </c>
+      <c r="P91" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q91" s="39">
+        <v>851.98</v>
+      </c>
+      <c r="R91" s="39">
+        <v>2.5844</v>
+      </c>
+      <c r="S91" s="39">
+        <v>0.67678700000000003</v>
+      </c>
+      <c r="T91" s="49">
+        <v>95.25</v>
+      </c>
+      <c r="U91" s="24">
+        <f xml:space="preserve"> (Q91-MAX(Q91:Q94))/(MIN(Q91:Q94) - MAX(Q91:Q94))</f>
+        <v>1</v>
+      </c>
+      <c r="V91" s="24">
+        <f xml:space="preserve"> (R91-MIN(R91:R94))/(MAX(R91:R94) - MIN(R91:R94))</f>
+        <v>1</v>
+      </c>
+      <c r="W91" s="24">
+        <f t="shared" ref="W91" si="52" xml:space="preserve"> (S91-MIN(S91:S94))/(MAX(S91:S94) - MIN(S91:S94))</f>
+        <v>2.127869499441111E-3</v>
+      </c>
+      <c r="X91" s="24">
+        <f t="shared" ref="X91" si="53" xml:space="preserve"> (T91-MIN(T91:T94))/(MAX(T91:T94) - MIN(T91:T94))</f>
+        <v>1</v>
+      </c>
+      <c r="Y91" s="116">
+        <f>U88*U91+V88*V91+W88*W91+X88*X91</f>
+        <v>0.65551285667543757</v>
+      </c>
+      <c r="Z91" s="116"/>
+    </row>
+    <row r="92" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="98"/>
+      <c r="C92" s="117"/>
+      <c r="D92" s="19">
+        <v>1137</v>
+      </c>
+      <c r="E92" s="19">
+        <v>1.3808</v>
+      </c>
+      <c r="F92" s="19">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="G92" s="50">
+        <v>95.25</v>
+      </c>
+      <c r="I92" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J92" s="30">
+        <f>J88+J89+J90+J91</f>
+        <v>159</v>
+      </c>
+      <c r="K92" s="39"/>
+      <c r="L92" s="39"/>
+      <c r="P92" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q92" s="39">
+        <v>1137</v>
+      </c>
+      <c r="R92" s="39">
+        <v>1.6652</v>
+      </c>
+      <c r="S92" s="39">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="T92" s="49">
+        <v>95.013999999999996</v>
+      </c>
+      <c r="U92" s="24">
+        <f xml:space="preserve"> (Q92-MAX(Q91:Q94))/(MIN(Q91:Q94) - MAX(Q91:Q94))</f>
+        <v>0</v>
+      </c>
+      <c r="V92" s="24">
+        <f xml:space="preserve"> (R92-MIN(R91:R94))/(MAX(R91:R94) - MIN(R91:R94))</f>
+        <v>0.23629112662013957</v>
+      </c>
+      <c r="W92" s="24">
+        <f t="shared" ref="W92" si="54" xml:space="preserve"> (S92-MIN(S91:S94))/(MAX(S91:S94) - MIN(S91:S94))</f>
+        <v>1</v>
+      </c>
+      <c r="X92" s="24">
+        <f t="shared" ref="X92" si="55" xml:space="preserve"> (T92-MIN(T91:T94))/(MAX(T91:T94) - MIN(T91:T94))</f>
+        <v>0.23870967741934684</v>
+      </c>
+      <c r="Y92" s="111">
+        <f>U88*U92+V88*V92+W88*W92+X88*X92</f>
+        <v>0.23473389896399435</v>
+      </c>
+      <c r="Z92" s="111"/>
+    </row>
+    <row r="93" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="102"/>
+      <c r="B93" s="102"/>
+      <c r="C93" s="102"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="34"/>
+      <c r="P93" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q93" s="39">
+        <v>1044.7</v>
+      </c>
+      <c r="R93" s="39">
+        <v>1.3808</v>
+      </c>
+      <c r="S93" s="39">
+        <v>0.97887000000000002</v>
+      </c>
+      <c r="T93" s="49">
+        <v>94.94</v>
+      </c>
+      <c r="U93" s="24">
+        <f xml:space="preserve"> (Q93-MAX(Q91:Q94))/(MIN(Q91:Q94) - MAX(Q91:Q94))</f>
+        <v>0.32383692372465078</v>
+      </c>
+      <c r="V93" s="24">
+        <f xml:space="preserve"> (R93-MIN(R91:R94))/(MAX(R91:R94) - MIN(R91:R94))</f>
+        <v>0</v>
+      </c>
+      <c r="W93" s="24">
+        <f t="shared" ref="W93" si="56" xml:space="preserve"> (S93-MIN(S91:S94))/(MAX(S91:S94) - MIN(S91:S94))</f>
+        <v>0.99562586331645087</v>
+      </c>
+      <c r="X93" s="24">
+        <f t="shared" ref="X93" si="57" xml:space="preserve"> (T93-MIN(T91:T94))/(MAX(T91:T94) - MIN(T91:T94))</f>
+        <v>0</v>
+      </c>
+      <c r="Y93" s="111">
+        <f>U88*U93+V88*V93+W88*W93+X88*X93</f>
+        <v>0.21274820142748188</v>
+      </c>
+      <c r="Z93" s="111"/>
+    </row>
+    <row r="94" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P94" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q94" s="41">
+        <v>1136.5999999999999</v>
+      </c>
+      <c r="R94" s="41">
+        <v>2.3614999999999999</v>
+      </c>
+      <c r="S94" s="41">
+        <v>0.67613999999999996</v>
+      </c>
+      <c r="T94" s="50">
+        <v>95.192999999999998</v>
+      </c>
+      <c r="U94" s="24">
+        <f xml:space="preserve"> (Q94-MAX(Q91:Q94))/(MIN(Q91:Q94) - MAX(Q91:Q94))</f>
+        <v>1.4034102869977228E-3</v>
+      </c>
+      <c r="V94" s="24">
+        <f xml:space="preserve"> (R94-MIN(R91:R94))/(MAX(R91:R94) - MIN(R91:R94))</f>
+        <v>0.81480558325024921</v>
+      </c>
+      <c r="W94" s="24">
+        <f t="shared" ref="W94" si="58" xml:space="preserve"> (S94-MIN(S91:S94))/(MAX(S91:S94) - MIN(S91:S94))</f>
+        <v>0</v>
+      </c>
+      <c r="X94" s="24">
+        <f t="shared" ref="X94" si="59" xml:space="preserve"> (T94-MIN(T91:T94))/(MAX(T91:T94) - MIN(T91:T94))</f>
+        <v>0.81612903225805888</v>
+      </c>
+      <c r="Y94" s="117">
+        <f>U88*U94+V88*V94+W88*W94+X88*X94</f>
+        <v>0.33959791762831498</v>
+      </c>
+      <c r="Z94" s="117"/>
+    </row>
+  </sheetData>
+  <mergeCells count="144">
+    <mergeCell ref="Y93:Z93"/>
+    <mergeCell ref="Y94:Z94"/>
+    <mergeCell ref="Y87:Z87"/>
+    <mergeCell ref="Y88:Z88"/>
+    <mergeCell ref="Y89:Z89"/>
+    <mergeCell ref="Y90:Z90"/>
+    <mergeCell ref="Y91:Z91"/>
+    <mergeCell ref="Y92:Z92"/>
+    <mergeCell ref="Y79:Z79"/>
+    <mergeCell ref="Y80:Z80"/>
+    <mergeCell ref="Y81:Z81"/>
+    <mergeCell ref="Y82:Z82"/>
+    <mergeCell ref="P86:R86"/>
+    <mergeCell ref="Y86:Z86"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="Y74:Z74"/>
+    <mergeCell ref="Y75:Z75"/>
+    <mergeCell ref="Y76:Z76"/>
+    <mergeCell ref="Y77:Z77"/>
+    <mergeCell ref="Y78:Z78"/>
+    <mergeCell ref="Y64:Z64"/>
+    <mergeCell ref="Y65:Z65"/>
+    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="Y67:Z67"/>
+    <mergeCell ref="Y68:Z68"/>
+    <mergeCell ref="Y69:Z69"/>
+    <mergeCell ref="Y56:Z56"/>
+    <mergeCell ref="Y57:Z57"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="Y61:Z61"/>
+    <mergeCell ref="Y62:Z62"/>
+    <mergeCell ref="Y63:Z63"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="Y55:Z55"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sensitivity Analysis.xlsx
+++ b/Sensitivity Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eashwar\Desktop\ENSE\ENSE622\Final Exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/generaltk/Desktop/Dfolder/ENSE622-Final-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361F5720-2B00-4B6F-A222-25E8E4A88116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B79358-1B52-C044-BF9A-1DC46C676022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="3405" windowWidth="10590" windowHeight="10005" xr2:uid="{0352C288-3703-4171-8A0F-C906E828E2CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{0352C288-3703-4171-8A0F-C906E828E2CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="105">
   <si>
     <t>Low =&gt; Good</t>
   </si>
@@ -330,22 +330,25 @@
     <t>High Rms</t>
   </si>
   <si>
-    <t>Rated lifing Capacity(RC)</t>
-  </si>
-  <si>
-    <t>Maximum Flight Time(MFT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost (C) </t>
-  </si>
-  <si>
-    <t>Cost Rank</t>
-  </si>
-  <si>
     <t>Maximum speed rank</t>
   </si>
   <si>
-    <t>Maximum flight time rank</t>
+    <t xml:space="preserve">Maximum flight time </t>
+  </si>
+  <si>
+    <t>Maximum flight Time rank</t>
+  </si>
+  <si>
+    <t>Rated lifing capacity</t>
+  </si>
+  <si>
+    <t>Rated lifting capacity rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drone Unit Cost </t>
+  </si>
+  <si>
+    <t>Drone Unit Cost Rank</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -953,12 +956,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -977,6 +974,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -989,126 +1052,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1172,7 +1184,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> Analysis</a:t>
+              <a:t> Analysis (Tornado Diagram)</a:t>
             </a:r>
             <a:endParaRPr lang="en-IN"/>
           </a:p>
@@ -1250,28 +1262,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Rrc</c:v>
+                  <c:v>Maximum flight time </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Maximum Flight Time(MFT)</c:v>
+                  <c:v>Rated lifting capacity rank</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Cost Rank</c:v>
+                  <c:v>Maximum speed rank</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Maximum speed rank</c:v>
+                  <c:v>Drone Unit Cost Rank</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Maximum flight time rank</c:v>
+                  <c:v>Maximum flight Time rank</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Rated lifing Capacity(RC)</c:v>
+                  <c:v>Rated lifing capacity</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Cost (C) </c:v>
+                  <c:v>Maximum Speed</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Maximum Speed</c:v>
+                  <c:v>Drone Unit Cost </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1283,28 +1295,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.5661872852305052E-3</c:v>
+                  <c:v>-3.5464491657366537E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0398135706288798E-4</c:v>
+                  <c:v>-1.0615660962771889E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5661872852305052E-3</c:v>
+                  <c:v>-4.5564937465779609E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4339899392631379E-3</c:v>
+                  <c:v>-1.0615660962771889E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5566553478123097E-2</c:v>
+                  <c:v>-4.7069440117951E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7440052472172356E-2</c:v>
+                  <c:v>-0.12017606471567932</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-0.26666666666666672</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21052631578947362</c:v>
+                  <c:v>-0.33333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1351,28 +1363,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Rrc</c:v>
+                  <c:v>Maximum flight time </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Maximum Flight Time(MFT)</c:v>
+                  <c:v>Rated lifting capacity rank</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Cost Rank</c:v>
+                  <c:v>Maximum speed rank</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Maximum speed rank</c:v>
+                  <c:v>Drone Unit Cost Rank</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Maximum flight time rank</c:v>
+                  <c:v>Maximum flight Time rank</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Rated lifing Capacity(RC)</c:v>
+                  <c:v>Rated lifing capacity</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Cost (C) </c:v>
+                  <c:v>Maximum Speed</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Maximum Speed</c:v>
+                  <c:v>Drone Unit Cost </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1384,25 +1396,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.1278819061841823E-3</c:v>
+                  <c:v>1.3226556162160286E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1337048138995165E-3</c:v>
+                  <c:v>4.319792772729647E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1278819061841823E-3</c:v>
+                  <c:v>9.4138880235901112E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.4933703397117561E-3</c:v>
+                  <c:v>1.9566120205893212E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8992782476031764E-2</c:v>
+                  <c:v>5.9397150625033257E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14274726286185424</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.24999999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1476,28 +1488,28 @@
                     <c:strCache>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>Rrc</c:v>
+                        <c:v>Maximum flight time </c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Maximum Flight Time(MFT)</c:v>
+                        <c:v>Rated lifting capacity rank</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>Cost Rank</c:v>
+                        <c:v>Maximum speed rank</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>Maximum speed rank</c:v>
+                        <c:v>Drone Unit Cost Rank</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Maximum flight time rank</c:v>
+                        <c:v>Maximum flight Time rank</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>Rated lifing Capacity(RC)</c:v>
+                        <c:v>Rated lifing capacity</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>Cost (C) </c:v>
+                        <c:v>Maximum Speed</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>Maximum Speed</c:v>
+                        <c:v>Drone Unit Cost </c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1630,6 +1642,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Change</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in MAVF</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3458,15 +3500,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1283073</xdr:colOff>
+      <xdr:colOff>311897</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:rowOff>119529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1210235</xdr:colOff>
+      <xdr:colOff>239059</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>43702</xdr:rowOff>
+      <xdr:rowOff>118407</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3791,44 +3833,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E092A5B7-1CD1-4569-A0AD-62083D236086}">
-  <dimension ref="A1:S133"/>
+  <dimension ref="A1:AI133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R69" sqref="R69"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="39.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
     <col min="6" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="42.140625" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="42.1640625" customWidth="1"/>
+    <col min="13" max="13" width="24.5" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19.1640625" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" customWidth="1"/>
+    <col min="17" max="17" width="22.1640625" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="145" t="s">
+    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
       <c r="D1" s="22"/>
       <c r="E1" s="23"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-    </row>
-    <row r="2" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+    </row>
+    <row r="2" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="21" t="s">
         <v>0</v>
@@ -3843,11 +3885,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="122" t="s">
+      <c r="G2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="123"/>
-      <c r="I2" s="140"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="116"/>
       <c r="J2" s="40"/>
       <c r="K2" s="40"/>
       <c r="L2" s="40"/>
@@ -3859,7 +3901,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -3876,11 +3918,11 @@
         <v>63</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="117"/>
-      <c r="I3" s="141"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="119"/>
       <c r="J3" s="41" t="s">
         <v>4</v>
       </c>
@@ -3906,7 +3948,7 @@
       </c>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -3923,11 +3965,11 @@
         <v>95.25</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="111" t="s">
+      <c r="G4" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="132"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
       <c r="J4" s="14">
         <v>1137</v>
       </c>
@@ -3951,12 +3993,12 @@
         <v>10</v>
       </c>
       <c r="R4" s="4">
-        <f xml:space="preserve"> P4/(P4+P8)</f>
-        <v>0.25</v>
+        <f xml:space="preserve"> P4/(P8)</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -3973,11 +4015,11 @@
         <v>95.013999999999996</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="132"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
       <c r="J5" s="14">
         <v>851.98</v>
       </c>
@@ -4001,12 +4043,12 @@
         <v>41</v>
       </c>
       <c r="R5" s="4">
-        <f xml:space="preserve"> P5/(P5+P8)</f>
-        <v>0.1891891891891892</v>
+        <f xml:space="preserve"> P5/(P8)</f>
+        <v>0.23333333333333334</v>
       </c>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -4023,11 +4065,11 @@
         <v>94.94</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="111" t="s">
+      <c r="G6" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="100"/>
-      <c r="I6" s="132"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
       <c r="J6" s="14">
         <v>1137</v>
       </c>
@@ -4051,12 +4093,12 @@
         <v>42</v>
       </c>
       <c r="R6" s="4">
-        <f xml:space="preserve"> P6/(P6+P8)</f>
-        <v>0.14285714285714285</v>
+        <f xml:space="preserve"> P6/(P8)</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -4073,11 +4115,11 @@
         <v>95.192999999999998</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="111" t="s">
+      <c r="G7" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="132"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
       <c r="J7" s="14">
         <v>1137</v>
       </c>
@@ -4101,23 +4143,23 @@
         <v>43</v>
       </c>
       <c r="R7" s="7">
-        <f xml:space="preserve"> P7/(P7+P8)</f>
-        <v>0.21052631578947367</v>
+        <f xml:space="preserve"> P7/(P8)</f>
+        <v>0.26666666666666666</v>
       </c>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="113" t="s">
+      <c r="G8" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="114"/>
-      <c r="I8" s="139"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="113"/>
       <c r="J8" s="15">
         <v>1137</v>
       </c>
@@ -4141,16 +4183,16 @@
       <c r="R8" s="18"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -4159,16 +4201,16 @@
       <c r="R9" s="3"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -4177,36 +4219,36 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
-      <c r="Q11" s="143" t="s">
+      <c r="Q11" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-    </row>
-    <row r="12" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+    </row>
+    <row r="12" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -4214,22 +4256,22 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="143" t="s">
+      <c r="Q12" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-    </row>
-    <row r="13" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+    </row>
+    <row r="13" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
@@ -4237,22 +4279,22 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="143" t="s">
+      <c r="Q13" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="R13" s="143"/>
-      <c r="S13" s="143"/>
-    </row>
-    <row r="14" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+    </row>
+    <row r="14" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -4260,22 +4302,22 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="143" t="s">
+      <c r="Q14" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="143"/>
-      <c r="S14" s="143"/>
-    </row>
-    <row r="15" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R14" s="103"/>
+      <c r="S14" s="103"/>
+    </row>
+    <row r="15" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
@@ -4283,22 +4325,22 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="143" t="s">
+      <c r="Q15" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="R15" s="143"/>
-      <c r="S15" s="143"/>
-    </row>
-    <row r="16" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+    </row>
+    <row r="16" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
@@ -4306,13 +4348,13 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="143" t="s">
+      <c r="Q16" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-    </row>
-    <row r="17" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+    </row>
+    <row r="17" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4328,37 +4370,37 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="143" t="s">
+      <c r="Q17" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="R17" s="144"/>
-      <c r="S17" s="144"/>
-    </row>
-    <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="136" t="s">
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+    </row>
+    <row r="18" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="131"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="128"/>
       <c r="M18" s="1"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="143" t="s">
+      <c r="Q18" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="R18" s="144"/>
-      <c r="S18" s="144"/>
-    </row>
-    <row r="19" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+    </row>
+    <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -4376,13 +4418,13 @@
       <c r="I19" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="J19" s="132"/>
-      <c r="K19" s="132"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -4390,24 +4432,24 @@
       <c r="E20" s="18"/>
       <c r="F20" s="18">
         <f>R4</f>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G20" s="18">
         <f>R5</f>
-        <v>0.1891891891891892</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="H20" s="18">
         <f>R6</f>
-        <v>0.14285714285714285</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I20" s="18">
         <f>R7</f>
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="J20" s="132"/>
-      <c r="K20" s="132"/>
-    </row>
-    <row r="21" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+    </row>
+    <row r="21" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -4425,12 +4467,12 @@
       <c r="I21" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="132" t="s">
+      <c r="J21" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="132"/>
-    </row>
-    <row r="22" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="110"/>
+    </row>
+    <row r="22" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>3</v>
       </c>
@@ -4458,18 +4500,18 @@
       <c r="I22" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="116" t="s">
+      <c r="J22" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="138"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="115"/>
-      <c r="R22" s="115"/>
-    </row>
-    <row r="23" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K22" s="132"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="105"/>
+    </row>
+    <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>29</v>
       </c>
@@ -4501,19 +4543,19 @@
         <f xml:space="preserve"> (E23- E6)/(E4 - E6)</f>
         <v>1</v>
       </c>
-      <c r="J23" s="110">
+      <c r="J23" s="133">
         <f>F20*F23+G20*G23+H20*H23+I20*I23</f>
-        <v>0.65001948633572582</v>
-      </c>
-      <c r="K23" s="110"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="115"/>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="115"/>
-      <c r="R23" s="115"/>
-    </row>
-    <row r="24" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+        <v>0.83368797824990692</v>
+      </c>
+      <c r="K23" s="133"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="105"/>
+    </row>
+    <row r="24" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -4545,19 +4587,19 @@
         <f xml:space="preserve"> (E24- E6)/(E4 - E6)</f>
         <v>0.23870967741934684</v>
       </c>
-      <c r="J24" s="132">
+      <c r="J24" s="110">
         <f>F20*F24+G20*G24+H20*H24+I20*I24</f>
-        <v>0.23781553844539591</v>
-      </c>
-      <c r="K24" s="132"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="115"/>
-      <c r="O24" s="115"/>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="115"/>
-      <c r="R24" s="115"/>
-    </row>
-    <row r="25" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+        <v>0.28545717685652505</v>
+      </c>
+      <c r="K24" s="110"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+    </row>
+    <row r="25" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -4589,19 +4631,19 @@
         <f xml:space="preserve"> (E25- E6)/(E4 - E6)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="132">
+      <c r="J25" s="110">
         <f>F20*F25+G20*G25+H20*H25+I20*I25</f>
-        <v>0.22319149711922709</v>
-      </c>
-      <c r="K25" s="132"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="115"/>
-      <c r="O25" s="115"/>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="115"/>
-      <c r="R25" s="115"/>
-    </row>
-    <row r="26" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.27388328512762539</v>
+      </c>
+      <c r="K25" s="110"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
+    </row>
+    <row r="26" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
@@ -4633,19 +4675,19 @@
         <f xml:space="preserve"> (E26- E6)/(E4 - E6)</f>
         <v>0.81612903225805888</v>
       </c>
-      <c r="J26" s="139">
+      <c r="J26" s="113">
         <f>F20*F26+G20*G26+H20*H26+I20*I26</f>
-        <v>0.32631989858380617</v>
-      </c>
-      <c r="K26" s="139"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="115"/>
-      <c r="O26" s="115"/>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="115"/>
-      <c r="R26" s="115"/>
-    </row>
-    <row r="27" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+        <v>0.40822351478953978</v>
+      </c>
+      <c r="K26" s="113"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+    </row>
+    <row r="27" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -4656,14 +4698,14 @@
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="115"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="115"/>
-      <c r="R27" s="115"/>
-    </row>
-    <row r="28" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+    </row>
+    <row r="28" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -4674,14 +4716,14 @@
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="115"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="115"/>
-      <c r="R28" s="115"/>
-    </row>
-    <row r="29" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+    </row>
+    <row r="29" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -4690,65 +4732,65 @@
       <c r="F29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="115"/>
-      <c r="O29" s="115"/>
-      <c r="P29" s="115"/>
-      <c r="Q29" s="115"/>
-      <c r="R29" s="115"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M30" s="115"/>
-      <c r="N30" s="115"/>
-      <c r="O30" s="115"/>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="115"/>
-      <c r="R30" s="115"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M31" s="115"/>
-      <c r="N31" s="115"/>
-      <c r="O31" s="115"/>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="115"/>
-      <c r="R31" s="115"/>
-    </row>
-    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M32" s="115"/>
-      <c r="N32" s="115"/>
-      <c r="O32" s="115"/>
-      <c r="P32" s="115"/>
-      <c r="Q32" s="115"/>
-      <c r="R32" s="115"/>
-    </row>
-    <row r="33" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="122" t="s">
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+    </row>
+    <row r="32" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+    </row>
+    <row r="33" spans="1:27" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
       <c r="D33" s="33"/>
       <c r="E33" s="34"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="122" t="s">
+      <c r="G33" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
       <c r="J33" s="33"/>
       <c r="K33" s="34"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="115"/>
-      <c r="O33" s="115"/>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="115"/>
-      <c r="R33" s="115"/>
-    </row>
-    <row r="34" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="116" t="s">
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
+    </row>
+    <row r="34" spans="1:27" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="117"/>
+      <c r="B34" s="118"/>
       <c r="C34" s="35" t="s">
         <v>21</v>
       </c>
@@ -4758,10 +4800,10 @@
       <c r="E34" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="116" t="s">
+      <c r="G34" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="117"/>
+      <c r="H34" s="118"/>
       <c r="I34" s="35" t="s">
         <v>21</v>
       </c>
@@ -4771,18 +4813,18 @@
       <c r="K34" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="M34" s="115"/>
-      <c r="N34" s="115"/>
-      <c r="O34" s="115"/>
-      <c r="P34" s="115"/>
-      <c r="Q34" s="115"/>
-      <c r="R34" s="115"/>
-    </row>
-    <row r="35" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="101" t="s">
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
+    </row>
+    <row r="35" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="102"/>
+      <c r="B35" s="124"/>
       <c r="C35" s="18">
         <v>438.05860000000001</v>
       </c>
@@ -4793,12 +4835,12 @@
       <c r="E35" s="18">
         <v>1274.1813999999999</v>
       </c>
-      <c r="G35" s="101" t="s">
+      <c r="G35" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="102"/>
+      <c r="H35" s="124"/>
       <c r="I35" s="18">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J35" s="18">
         <f>P4</f>
@@ -4807,18 +4849,18 @@
       <c r="K35" s="4">
         <v>70</v>
       </c>
-      <c r="M35" s="115"/>
-      <c r="N35" s="115"/>
-      <c r="O35" s="115"/>
-      <c r="P35" s="115"/>
-      <c r="Q35" s="115"/>
-      <c r="R35" s="115"/>
-    </row>
-    <row r="36" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="101" t="s">
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+    </row>
+    <row r="36" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="102"/>
+      <c r="B36" s="124"/>
       <c r="C36" s="18">
         <v>1.8564000000000001</v>
       </c>
@@ -4829,10 +4871,10 @@
       <c r="E36" s="4">
         <v>3.3123999999999998</v>
       </c>
-      <c r="G36" s="101" t="s">
+      <c r="G36" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="102"/>
+      <c r="H36" s="124"/>
       <c r="I36" s="18">
         <v>26</v>
       </c>
@@ -4843,18 +4885,18 @@
       <c r="K36" s="4">
         <v>39</v>
       </c>
-      <c r="M36" s="115"/>
-      <c r="N36" s="115"/>
-      <c r="O36" s="115"/>
-      <c r="P36" s="115"/>
-      <c r="Q36" s="115"/>
-      <c r="R36" s="115"/>
-    </row>
-    <row r="37" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="101" t="s">
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="105"/>
+    </row>
+    <row r="37" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="102"/>
+      <c r="B37" s="124"/>
       <c r="C37" s="18">
         <v>0.67449999999999999</v>
       </c>
@@ -4865,10 +4907,10 @@
       <c r="E37" s="4">
         <v>0.67920000000000003</v>
       </c>
-      <c r="G37" s="101" t="s">
+      <c r="G37" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="H37" s="102"/>
+      <c r="H37" s="124"/>
       <c r="I37" s="18">
         <v>15</v>
       </c>
@@ -4879,18 +4921,18 @@
       <c r="K37" s="4">
         <v>34</v>
       </c>
-      <c r="M37" s="115"/>
-      <c r="N37" s="115"/>
-      <c r="O37" s="115"/>
-      <c r="P37" s="115"/>
-      <c r="Q37" s="115"/>
-      <c r="R37" s="115"/>
-    </row>
-    <row r="38" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="103" t="s">
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="105"/>
+    </row>
+    <row r="38" spans="1:27" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="104"/>
+      <c r="B38" s="126"/>
       <c r="C38" s="6">
         <v>90.850700000000003</v>
       </c>
@@ -4901,10 +4943,10 @@
       <c r="E38" s="7">
         <v>100.2122</v>
       </c>
-      <c r="G38" s="103" t="s">
+      <c r="G38" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="H38" s="104"/>
+      <c r="H38" s="126"/>
       <c r="I38" s="6">
         <v>36</v>
       </c>
@@ -4915,44 +4957,48 @@
       <c r="K38" s="7">
         <v>49</v>
       </c>
-      <c r="M38" s="115"/>
-      <c r="N38" s="115"/>
-      <c r="O38" s="115"/>
-      <c r="P38" s="115"/>
-      <c r="Q38" s="115"/>
-      <c r="R38" s="115"/>
-    </row>
-    <row r="39" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M38" s="105"/>
+      <c r="N38" s="105"/>
+      <c r="O38" s="105"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="105"/>
+      <c r="R38" s="105"/>
+    </row>
+    <row r="39" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="F39" s="18"/>
       <c r="L39" s="24"/>
-      <c r="M39" s="115"/>
-      <c r="N39" s="115"/>
-      <c r="O39" s="115"/>
-      <c r="P39" s="115"/>
-      <c r="Q39" s="115"/>
-      <c r="R39" s="115"/>
-    </row>
-    <row r="40" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M39" s="105"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="105"/>
+      <c r="R39" s="105"/>
+    </row>
+    <row r="40" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="F40" s="18"/>
       <c r="L40" s="24"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="115"/>
-      <c r="O40" s="115"/>
-      <c r="P40" s="115"/>
-      <c r="Q40" s="115"/>
-      <c r="R40" s="115"/>
-    </row>
-    <row r="41" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="105"/>
+      <c r="X40" s="89"/>
+      <c r="Y40" s="89"/>
+      <c r="Z40" s="89"/>
+      <c r="AA40" s="89"/>
+    </row>
+    <row r="41" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="18"/>
       <c r="L41" s="24"/>
-      <c r="M41" s="115"/>
-      <c r="N41" s="115"/>
-      <c r="O41" s="115"/>
-      <c r="P41" s="115"/>
-      <c r="Q41" s="115"/>
-      <c r="R41" s="115"/>
-    </row>
-    <row r="42" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M41" s="105"/>
+      <c r="N41" s="105"/>
+      <c r="O41" s="105"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="105"/>
+      <c r="R41" s="105"/>
+    </row>
+    <row r="42" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="F42" s="18"/>
       <c r="L42" s="24"/>
       <c r="M42" s="24"/>
@@ -4960,7 +5006,7 @@
       <c r="O42" s="24"/>
       <c r="P42" s="24"/>
     </row>
-    <row r="43" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="D43" s="18"/>
@@ -4974,7 +5020,7 @@
       <c r="O43" s="24"/>
       <c r="P43" s="24"/>
     </row>
-    <row r="44" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4984,7 +5030,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4994,13 +5040,13 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="136" t="s">
+    <row r="46" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="142"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
       <c r="E46" s="10"/>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
@@ -5015,7 +5061,7 @@
       <c r="P46" s="45"/>
       <c r="Q46" s="46"/>
     </row>
-    <row r="47" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="47"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -5034,11 +5080,11 @@
       <c r="P47" s="48"/>
       <c r="Q47" s="49"/>
     </row>
-    <row r="48" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="133" t="s">
+    <row r="48" spans="1:27" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="134"/>
+      <c r="B48" s="130"/>
       <c r="C48" s="50" t="s">
         <v>3</v>
       </c>
@@ -5078,16 +5124,16 @@
       <c r="O48" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="P48" s="124" t="s">
+      <c r="P48" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="Q48" s="125"/>
-    </row>
-    <row r="49" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="109" t="s">
+      <c r="Q48" s="135"/>
+    </row>
+    <row r="49" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="112"/>
+      <c r="B49" s="142"/>
       <c r="C49" s="70" t="s">
         <v>29</v>
       </c>
@@ -5117,32 +5163,45 @@
         <v>50</v>
       </c>
       <c r="L49" s="70">
-        <f>(D50-D49)/(D50-D49)</f>
+        <f xml:space="preserve"> (MAX(D49:D52) -D49)/(MAX(D49:D52) - MIN(D49:D52))</f>
         <v>1</v>
       </c>
-      <c r="M49" s="70">
-        <f>(E49-E51)/(E49-E51)</f>
+      <c r="M49" s="99">
+        <f xml:space="preserve"> (E49-MIN(E49:E52) )/(MAX(E49:E52) - MIN(E49:E52))</f>
         <v>1</v>
       </c>
-      <c r="N49" s="70">
-        <f>(F49-F52)/(F50-F52)</f>
+      <c r="N49" s="99">
+        <f t="shared" ref="N49:O52" si="1" xml:space="preserve"> (F49-MIN(F49:F52) )/(MAX(F49:F52) - MIN(F49:F52))</f>
         <v>2.127869499441111E-3</v>
       </c>
-      <c r="O49" s="70">
-        <f>(G49-G51)/(G49-G51)</f>
+      <c r="O49" s="99">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P49" s="109">
+      <c r="P49" s="136">
         <f>F20*L49+G20*M49+H20*N49+I20*O49</f>
-        <v>0.65001948633572582</v>
-      </c>
-      <c r="Q49" s="110"/>
-    </row>
-    <row r="50" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="111" t="s">
+        <v>0.83368797824990692</v>
+      </c>
+      <c r="Q49" s="133"/>
+      <c r="V49" s="89"/>
+      <c r="W49" s="89"/>
+      <c r="X49" s="89"/>
+      <c r="Y49" s="89"/>
+      <c r="AA49" s="89"/>
+      <c r="AB49" s="89"/>
+      <c r="AC49" s="89"/>
+      <c r="AD49" s="89"/>
+      <c r="AE49" s="89"/>
+      <c r="AF49" s="89"/>
+      <c r="AG49" s="89"/>
+      <c r="AH49" s="89"/>
+      <c r="AI49" s="89"/>
+    </row>
+    <row r="50" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="100"/>
+      <c r="B50" s="109"/>
       <c r="C50" s="18" t="s">
         <v>30</v>
       </c>
@@ -5170,33 +5229,33 @@
       <c r="K50" s="37">
         <v>50</v>
       </c>
-      <c r="L50" s="37">
-        <f>(D50-D50)/(D50-D49)</f>
+      <c r="L50" s="98">
+        <f xml:space="preserve"> (MAX(D49:D52) -D50)/(MAX(D49:D52) - MIN(D49:D52))</f>
         <v>0</v>
       </c>
-      <c r="M50" s="37">
-        <f>(E50-E51)/(E49-E51)</f>
+      <c r="M50" s="98">
+        <f xml:space="preserve"> (E50-MIN(E49:E52) )/(MAX(E49:E52) - MIN(E49:E52))</f>
         <v>0.23629112662013957</v>
       </c>
-      <c r="N50" s="37">
-        <f>(F50-F52)/(F50-F52)</f>
+      <c r="N50" s="98">
+        <f t="shared" ref="N50:O50" si="2" xml:space="preserve"> (F50-MIN(F49:F52) )/(MAX(F49:F52) - MIN(F49:F52))</f>
         <v>1</v>
       </c>
-      <c r="O50" s="37">
-        <f>(G50-G51)/(G49-G51)</f>
+      <c r="O50" s="98">
+        <f t="shared" si="2"/>
         <v>0.23870967741934684</v>
       </c>
-      <c r="P50" s="105">
+      <c r="P50" s="140">
         <f>F20*L50+G20*M50+H20*N50+I20*O50</f>
-        <v>0.23781553844539591</v>
-      </c>
-      <c r="Q50" s="106"/>
-    </row>
-    <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="111" t="s">
+        <v>0.28545717685652505</v>
+      </c>
+      <c r="Q50" s="141"/>
+    </row>
+    <row r="51" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="100"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="18" t="s">
         <v>31</v>
       </c>
@@ -5224,33 +5283,47 @@
       <c r="K51" s="37">
         <v>50</v>
       </c>
-      <c r="L51" s="37">
-        <f>(D50-D51)/(D50-D49)</f>
+      <c r="L51" s="98">
+        <f xml:space="preserve"> (MAX(D49:D52) -D51)/(MAX(D49:D52) - MIN(D49:D52))</f>
         <v>0.13205685054569663</v>
       </c>
-      <c r="M51" s="37">
-        <f>(E51-E51)/(E49-E51)</f>
+      <c r="M51" s="98">
+        <f xml:space="preserve"> (E51-MIN(E49:E52) )/(MAX(E49:E52) - MIN(E49:E52))</f>
         <v>0</v>
       </c>
-      <c r="N51" s="37">
-        <f>(F51-F52)/(F50-F52)</f>
+      <c r="N51" s="98">
+        <f t="shared" ref="N51:O51" si="3" xml:space="preserve"> (F51-MIN(F49:F52) )/(MAX(F49:F52) - MIN(F49:F52))</f>
         <v>0.99562586331645087</v>
       </c>
-      <c r="O51" s="37">
-        <f>(G51-G51)/(G49-G51)</f>
+      <c r="O51" s="98">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P51" s="105">
+      <c r="P51" s="140">
         <f>F20*L51+G20*M51+H20*N51+I20*O51</f>
-        <v>0.17524647882448854</v>
-      </c>
-      <c r="Q51" s="106"/>
-    </row>
-    <row r="52" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="111" t="s">
+        <v>0.20995659406797401</v>
+      </c>
+      <c r="Q51" s="141"/>
+      <c r="V51" s="89"/>
+      <c r="W51" s="89"/>
+      <c r="X51" s="89"/>
+      <c r="Y51" s="89"/>
+      <c r="Z51" s="89"/>
+      <c r="AA51" s="89"/>
+      <c r="AB51" s="89"/>
+      <c r="AC51" s="89"/>
+      <c r="AD51" s="89"/>
+      <c r="AE51" s="89"/>
+      <c r="AF51" s="89"/>
+      <c r="AG51" s="89"/>
+      <c r="AH51" s="89"/>
+      <c r="AI51" s="89"/>
+    </row>
+    <row r="52" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="100"/>
+      <c r="B52" s="109"/>
       <c r="C52" s="18" t="s">
         <v>32</v>
       </c>
@@ -5278,31 +5351,31 @@
       <c r="K52" s="37">
         <v>50</v>
       </c>
-      <c r="L52" s="37">
-        <f>(D50-D52)/(D50-D49)</f>
+      <c r="L52" s="98">
+        <f xml:space="preserve"> (MAX(D49:D52) -D52)/(MAX(D49:D52) - MIN(D49:D52))</f>
         <v>5.7229404353511041E-4</v>
       </c>
-      <c r="M52" s="37">
-        <f>(E52-E51)/(E49-E51)</f>
+      <c r="M52" s="98">
+        <f xml:space="preserve"> (E52-MIN(E49:E52) )/(MAX(E49:E52) - MIN(E49:E52))</f>
         <v>0.81480558325024921</v>
       </c>
-      <c r="N52" s="37">
-        <f>(F52-F52)/(F50-F52)</f>
+      <c r="N52" s="98">
+        <f t="shared" ref="N52:O52" si="4" xml:space="preserve"> (F52-MIN(F49:F52) )/(MAX(F49:F52) - MIN(F49:F52))</f>
         <v>0</v>
       </c>
-      <c r="O52" s="37">
-        <f>(G52-G51)/(G49-G51)</f>
+      <c r="O52" s="98">
+        <f t="shared" si="4"/>
         <v>0.81612903225805888</v>
       </c>
-      <c r="P52" s="105">
+      <c r="P52" s="140">
         <f>F20*L52+G20*M52+H20*N52+I20*O52</f>
-        <v>0.3261121195229405</v>
-      </c>
-      <c r="Q52" s="106"/>
-    </row>
-    <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="111"/>
-      <c r="B53" s="100"/>
+        <v>0.40794647604171885</v>
+      </c>
+      <c r="Q52" s="141"/>
+    </row>
+    <row r="53" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="108"/>
+      <c r="B53" s="109"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
@@ -5316,14 +5389,23 @@
       <c r="M53" s="37"/>
       <c r="N53" s="37"/>
       <c r="O53" s="37"/>
-      <c r="P53" s="105"/>
-      <c r="Q53" s="106"/>
-    </row>
-    <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="111" t="s">
+      <c r="P53" s="140"/>
+      <c r="Q53" s="141"/>
+      <c r="V53" s="89"/>
+      <c r="W53" s="89"/>
+      <c r="X53" s="89"/>
+      <c r="Y53" s="89"/>
+      <c r="Z53" s="89"/>
+      <c r="AA53" s="89"/>
+      <c r="AB53" s="89"/>
+      <c r="AC53" s="89"/>
+      <c r="AD53" s="89"/>
+    </row>
+    <row r="54" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="100"/>
+      <c r="B54" s="109"/>
       <c r="C54" s="18" t="s">
         <v>29</v>
       </c>
@@ -5352,33 +5434,33 @@
       <c r="K54" s="37">
         <v>50</v>
       </c>
-      <c r="L54" s="37">
-        <f>(D54-D54)/(D54-D56)</f>
+      <c r="L54" s="99">
+        <f xml:space="preserve"> (MAX(D54:D57) -D54)/(MAX(D54:D57) - MIN(D54:D57))</f>
         <v>0</v>
       </c>
-      <c r="M54" s="37">
-        <f>(E54-E56)/(E54-E56)</f>
+      <c r="M54" s="99">
+        <f xml:space="preserve"> (E54-MIN(E54:E57) )/(MAX(E54:E57) - MIN(E54:E57))</f>
         <v>1</v>
       </c>
-      <c r="N54" s="37">
-        <f>(F54-F57)/(F55-F57)</f>
+      <c r="N54" s="99">
+        <f t="shared" ref="N54" si="5" xml:space="preserve"> (F54-MIN(F54:F57) )/(MAX(F54:F57) - MIN(F54:F57))</f>
         <v>2.127869499441111E-3</v>
       </c>
-      <c r="O54" s="37">
-        <f>(G54-G56)/(G54-G56)</f>
+      <c r="O54" s="99">
+        <f t="shared" ref="O54" si="6" xml:space="preserve"> (G54-MIN(G54:G57) )/(MAX(G54:G57) - MIN(G54:G57))</f>
         <v>1</v>
       </c>
-      <c r="P54" s="105">
+      <c r="P54" s="140">
         <f>F20*L54+G20*M54+H20*N54+I20*O54</f>
-        <v>0.40001948633572593</v>
-      </c>
-      <c r="Q54" s="106"/>
-    </row>
-    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="111" t="s">
+        <v>0.50035464491657355</v>
+      </c>
+      <c r="Q54" s="141"/>
+    </row>
+    <row r="55" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="100"/>
+      <c r="B55" s="109"/>
       <c r="C55" s="18" t="s">
         <v>30</v>
       </c>
@@ -5406,33 +5488,33 @@
       <c r="K55" s="37">
         <v>50</v>
       </c>
-      <c r="L55" s="37">
-        <f>(D54-D55)/(D54-D56)</f>
+      <c r="L55" s="98">
+        <f xml:space="preserve"> (MAX(D54:D57) -D55)/(MAX(D54:D57) - MIN(D54:D57))</f>
         <v>0.5977887532497187</v>
       </c>
-      <c r="M55" s="37">
-        <f>(E55-E56)/(E54-E56)</f>
+      <c r="M55" s="98">
+        <f xml:space="preserve"> (E55-MIN(E54:E57) )/(MAX(E54:E57) - MIN(E54:E57))</f>
         <v>0.23629112662013957</v>
       </c>
-      <c r="N55" s="37">
-        <f>(F55-F57)/(F55-F57)</f>
+      <c r="N55" s="98">
+        <f t="shared" ref="N55" si="7" xml:space="preserve"> (F55-MIN(F54:F57) )/(MAX(F54:F57) - MIN(F54:F57))</f>
         <v>1</v>
       </c>
-      <c r="O55" s="37">
-        <f>(G55-G56)/(G54-G56)</f>
+      <c r="O55" s="98">
+        <f t="shared" ref="O55" si="8" xml:space="preserve"> (G55-MIN(G54:G57) )/(MAX(G54:G57) - MIN(G54:G57))</f>
         <v>0.23870967741934684</v>
       </c>
-      <c r="P55" s="105">
+      <c r="P55" s="140">
         <f>F20*L55+G20*M55+H20*N55+I20*O55</f>
-        <v>0.38726272675782558</v>
-      </c>
-      <c r="Q55" s="106"/>
-    </row>
-    <row r="56" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="111" t="s">
+        <v>0.48472009460643128</v>
+      </c>
+      <c r="Q55" s="141"/>
+    </row>
+    <row r="56" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="100"/>
+      <c r="B56" s="109"/>
       <c r="C56" s="69" t="s">
         <v>31</v>
       </c>
@@ -5460,33 +5542,33 @@
       <c r="K56" s="75">
         <v>50</v>
       </c>
-      <c r="L56" s="75">
-        <f>(D54-D56)/(D54-D56)</f>
+      <c r="L56" s="98">
+        <f xml:space="preserve"> (MAX(D54:D57) -D56)/(MAX(D54:D57) - MIN(D54:D57))</f>
         <v>1</v>
       </c>
-      <c r="M56" s="37">
-        <f>(E56-E56)/(E54-E56)</f>
+      <c r="M56" s="98">
+        <f xml:space="preserve"> (E56-MIN(E54:E57) )/(MAX(E54:E57) - MIN(E54:E57))</f>
         <v>0</v>
       </c>
-      <c r="N56" s="37">
-        <f>(F56-F57)/(F55-F57)</f>
+      <c r="N56" s="98">
+        <f t="shared" ref="N56" si="9" xml:space="preserve"> (F56-MIN(F54:F57) )/(MAX(F54:F57) - MIN(F54:F57))</f>
         <v>0.99562586331645087</v>
       </c>
-      <c r="O56" s="37">
-        <f>(G56-G56)/(G54-G56)</f>
+      <c r="O56" s="98">
+        <f t="shared" ref="O56" si="10" xml:space="preserve"> (G56-MIN(G54:G57) )/(MAX(G54:G57) - MIN(G54:G57))</f>
         <v>0</v>
       </c>
-      <c r="P56" s="105">
+      <c r="P56" s="140">
         <f>F20*L56+G20*M56+H20*N56+I20*O56</f>
-        <v>0.39223226618806439</v>
-      </c>
-      <c r="Q56" s="106"/>
-    </row>
-    <row r="57" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="127" t="s">
+        <v>0.49927097721940844</v>
+      </c>
+      <c r="Q56" s="141"/>
+    </row>
+    <row r="57" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="129"/>
+      <c r="B57" s="143"/>
       <c r="C57" s="84" t="s">
         <v>32</v>
       </c>
@@ -5514,31 +5596,31 @@
       <c r="K57" s="84">
         <v>50</v>
       </c>
-      <c r="L57" s="84">
-        <f>(D54-D57)/(D54-D56)</f>
+      <c r="L57" s="98">
+        <f xml:space="preserve"> (MAX(D54:D57) -D57)/(MAX(D54:D57) - MIN(D54:D57))</f>
         <v>0.59953181390735844</v>
       </c>
-      <c r="M57" s="84">
-        <f>(E57-E56)/(E54-E56)</f>
+      <c r="M57" s="98">
+        <f xml:space="preserve"> (E57-MIN(E54:E57) )/(MAX(E54:E57) - MIN(E54:E57))</f>
         <v>0.81480558325024921</v>
       </c>
-      <c r="N57" s="84">
-        <f>(F57-F57)/(F55-F57)</f>
+      <c r="N57" s="98">
+        <f t="shared" ref="N57" si="11" xml:space="preserve"> (F57-MIN(F54:F57) )/(MAX(F54:F57) - MIN(F54:F57))</f>
         <v>0</v>
       </c>
-      <c r="O57" s="84">
-        <f>(G57-G56)/(G54-G56)</f>
+      <c r="O57" s="98">
+        <f t="shared" ref="O57" si="12" xml:space="preserve"> (G57-MIN(G54:G57) )/(MAX(G54:G57) - MIN(G54:G57))</f>
         <v>0.81612903225805888</v>
       </c>
-      <c r="P57" s="127">
+      <c r="P57" s="138">
         <f>F20*L57+G20*M57+H20*N57+I20*O57</f>
-        <v>0.47585199948889634</v>
-      </c>
-      <c r="Q57" s="128"/>
-    </row>
-    <row r="58" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="111"/>
-      <c r="B58" s="100"/>
+        <v>0.60759964932965993</v>
+      </c>
+      <c r="Q57" s="139"/>
+    </row>
+    <row r="58" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="108"/>
+      <c r="B58" s="109"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -5552,14 +5634,14 @@
       <c r="M58" s="37"/>
       <c r="N58" s="37"/>
       <c r="O58" s="37"/>
-      <c r="P58" s="105"/>
-      <c r="Q58" s="106"/>
-    </row>
-    <row r="59" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="109" t="s">
+      <c r="P58" s="140"/>
+      <c r="Q58" s="141"/>
+    </row>
+    <row r="59" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="112"/>
+      <c r="B59" s="142"/>
       <c r="C59" s="70" t="s">
         <v>29</v>
       </c>
@@ -5587,33 +5669,33 @@
       <c r="K59" s="70">
         <v>50</v>
       </c>
-      <c r="L59" s="70">
-        <f>(D60-D59)/(D60-D59)</f>
+      <c r="L59" s="99">
+        <f xml:space="preserve"> (MAX(D59:D62) -D59)/(MAX(D59:D62) - MIN(D59:D62))</f>
         <v>1</v>
       </c>
-      <c r="M59" s="70">
-        <f>(E59-E61)/(E62-E61)</f>
+      <c r="M59" s="99">
+        <f xml:space="preserve"> (E59-MIN(E59:E62) )/(MAX(E59:E62) - MIN(E59:E62))</f>
         <v>0.48495972264708886</v>
       </c>
-      <c r="N59" s="70">
-        <f>(F59-F62)/(F60-F62)</f>
+      <c r="N59" s="99">
+        <f t="shared" ref="N59" si="13" xml:space="preserve"> (F59-MIN(F59:F62) )/(MAX(F59:F62) - MIN(F59:F62))</f>
         <v>2.127869499441111E-3</v>
       </c>
-      <c r="O59" s="70">
-        <f>(G59-G61)/(G59-G61)</f>
+      <c r="O59" s="99">
+        <f t="shared" ref="O59" si="14" xml:space="preserve"> (G59-MIN(G59:G62) )/(MAX(G59:G62) - MIN(G59:G62))</f>
         <v>1</v>
       </c>
-      <c r="P59" s="109">
+      <c r="P59" s="136">
         <f>F20*L59+G20*M59+H20*N59+I20*O59</f>
-        <v>0.55257943386355346</v>
-      </c>
-      <c r="Q59" s="110"/>
-    </row>
-    <row r="60" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="111" t="s">
+        <v>0.7135119135342276</v>
+      </c>
+      <c r="Q59" s="133"/>
+    </row>
+    <row r="60" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="100"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="18" t="s">
         <v>30</v>
       </c>
@@ -5641,33 +5723,33 @@
       <c r="K60" s="37">
         <v>50</v>
       </c>
-      <c r="L60" s="37">
-        <f>(D60-D60)/(D60-D59)</f>
+      <c r="L60" s="98">
+        <f xml:space="preserve"> (MAX(D59:D62) -D60)/(MAX(D59:D62) - MIN(D59:D62))</f>
         <v>0</v>
       </c>
-      <c r="M60" s="37">
-        <f>(E60-E61)/(E62-E61)</f>
+      <c r="M60" s="98">
+        <f xml:space="preserve"> (E60-MIN(E59:E62) )/(MAX(E59:E62) - MIN(E59:E62))</f>
         <v>0.28999694096053841</v>
       </c>
-      <c r="N60" s="37">
-        <f>(F60-F62)/(F60-F62)</f>
+      <c r="N60" s="98">
+        <f t="shared" ref="N60" si="15" xml:space="preserve"> (F60-MIN(F59:F62) )/(MAX(F59:F62) - MIN(F59:F62))</f>
         <v>1</v>
       </c>
-      <c r="O60" s="37">
-        <f>(G60-G61)/(G59-G61)</f>
+      <c r="O60" s="98">
+        <f t="shared" ref="O60" si="16" xml:space="preserve"> (G60-MIN(G59:G62) )/(MAX(G59:G62) - MIN(G59:G62))</f>
         <v>0.23870967741934684</v>
       </c>
-      <c r="P60" s="105">
+      <c r="P60" s="140">
         <f>F20*L60+G20*M60+H20*N60+I20*O60</f>
-        <v>0.24797609791520106</v>
-      </c>
-      <c r="Q60" s="106"/>
-    </row>
-    <row r="61" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="111" t="s">
+        <v>0.29798853353595145</v>
+      </c>
+      <c r="Q60" s="141"/>
+    </row>
+    <row r="61" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="100"/>
+      <c r="B61" s="109"/>
       <c r="C61" s="18" t="s">
         <v>31</v>
       </c>
@@ -5695,33 +5777,33 @@
       <c r="K61" s="37">
         <v>50</v>
       </c>
-      <c r="L61" s="37">
-        <f>(D60-D61)/(D60-D59)</f>
+      <c r="L61" s="98">
+        <f xml:space="preserve"> (MAX(D59:D62) -D61)/(MAX(D59:D62) - MIN(D59:D62))</f>
         <v>0.32383692372465078</v>
       </c>
-      <c r="M61" s="37">
-        <f>(E61-E61)/(E62-E61)</f>
+      <c r="M61" s="98">
+        <f xml:space="preserve"> (E61-MIN(E59:E62) )/(MAX(E59:E62) - MIN(E59:E62))</f>
         <v>0</v>
       </c>
-      <c r="N61" s="37">
-        <f>(F61-F62)/(F60-F62)</f>
+      <c r="N61" s="98">
+        <f t="shared" ref="N61" si="17" xml:space="preserve"> (F61-MIN(F59:F62) )/(MAX(F59:F62) - MIN(F59:F62))</f>
         <v>0.99562586331645087</v>
       </c>
-      <c r="O61" s="37">
-        <f>(G61-G61)/(G59-G61)</f>
+      <c r="O61" s="98">
+        <f t="shared" ref="O61" si="18" xml:space="preserve"> (G61-MIN(G59:G62) )/(MAX(G59:G62) - MIN(G59:G62))</f>
         <v>0</v>
       </c>
-      <c r="P61" s="105">
+      <c r="P61" s="140">
         <f>F20*L61+G20*M61+H20*N61+I20*O61</f>
-        <v>0.22319149711922709</v>
-      </c>
-      <c r="Q61" s="106"/>
-    </row>
-    <row r="62" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="111" t="s">
+        <v>0.27388328512762539</v>
+      </c>
+      <c r="Q61" s="141"/>
+    </row>
+    <row r="62" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="100"/>
+      <c r="B62" s="109"/>
       <c r="C62" s="18" t="s">
         <v>32</v>
       </c>
@@ -5749,31 +5831,31 @@
       <c r="K62" s="37">
         <v>50</v>
       </c>
-      <c r="L62" s="37">
-        <f>(D60-D62)/(D60-D59)</f>
+      <c r="L62" s="98">
+        <f xml:space="preserve"> (MAX(D59:D62) -D62)/(MAX(D59:D62) - MIN(D59:D62))</f>
         <v>1.4034102869977228E-3</v>
       </c>
-      <c r="M62" s="37">
-        <f>(E62-E61)/(E62-E61)</f>
+      <c r="M62" s="98">
+        <f xml:space="preserve"> (E62-MIN(E59:E62) )/(MAX(E59:E62) - MIN(E59:E62))</f>
         <v>1</v>
       </c>
-      <c r="N62" s="37">
-        <f>(F62-F62)/(F60-F62)</f>
+      <c r="N62" s="98">
+        <f t="shared" ref="N62" si="19" xml:space="preserve"> (F62-MIN(F59:F62) )/(MAX(F59:F62) - MIN(F59:F62))</f>
         <v>0</v>
       </c>
-      <c r="O62" s="37">
-        <f>(G62-G61)/(G59-G61)</f>
+      <c r="O62" s="98">
+        <f t="shared" ref="O62" si="20" xml:space="preserve"> (G62-MIN(G59:G62) )/(MAX(G59:G62) - MIN(G59:G62))</f>
         <v>0.81612903225805888</v>
       </c>
-      <c r="P62" s="105">
+      <c r="P62" s="140">
         <f>F20*L62+G20*M62+H20*N62+I20*O62</f>
-        <v>0.36135668013105626</v>
-      </c>
-      <c r="Q62" s="106"/>
-    </row>
-    <row r="63" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="111"/>
-      <c r="B63" s="100"/>
+        <v>0.45143554536448161</v>
+      </c>
+      <c r="Q62" s="141"/>
+    </row>
+    <row r="63" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="108"/>
+      <c r="B63" s="109"/>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
@@ -5787,14 +5869,14 @@
       <c r="M63" s="37"/>
       <c r="N63" s="37"/>
       <c r="O63" s="37"/>
-      <c r="P63" s="105"/>
-      <c r="Q63" s="106"/>
-    </row>
-    <row r="64" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="109" t="s">
+      <c r="P63" s="140"/>
+      <c r="Q63" s="141"/>
+    </row>
+    <row r="64" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="112"/>
+      <c r="B64" s="142"/>
       <c r="C64" s="70" t="s">
         <v>29</v>
       </c>
@@ -5822,33 +5904,33 @@
       <c r="K64" s="70">
         <v>50</v>
       </c>
-      <c r="L64" s="70">
-        <f>(D65-D64)/(D65-D64)</f>
+      <c r="L64" s="99">
+        <f xml:space="preserve"> (MAX(D64:D67) -D64)/(MAX(D64:D67) - MIN(D64:D67))</f>
         <v>1</v>
       </c>
-      <c r="M64" s="70">
-        <f>(E64-E66)/(E64-E66)</f>
+      <c r="M64" s="99">
+        <f xml:space="preserve"> (E64-MIN(E64:E67) )/(MAX(E64:E67) - MIN(E64:E67))</f>
         <v>1</v>
       </c>
-      <c r="N64" s="70">
-        <f>(F65-F68)/(F66-F68)</f>
-        <v>1.0013587095324199</v>
-      </c>
-      <c r="O64" s="70">
-        <f>(G64-G66)/(G64-G66)</f>
+      <c r="N64" s="99">
+        <f t="shared" ref="N64" si="21" xml:space="preserve"> (F64-MIN(F64:F67) )/(MAX(F64:F67) - MIN(F64:F67))</f>
+        <v>2.127869499441111E-3</v>
+      </c>
+      <c r="O64" s="99">
+        <f t="shared" ref="O64" si="22" xml:space="preserve"> (G64-MIN(G64:G67) )/(MAX(G64:G67) - MIN(G64:G67))</f>
         <v>1</v>
       </c>
-      <c r="P64" s="109">
+      <c r="P64" s="136">
         <f>F20*L64+G20*M64+H20*N64+I20*O64</f>
-        <v>0.79276674919758006</v>
-      </c>
-      <c r="Q64" s="110"/>
-    </row>
-    <row r="65" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="111" t="s">
+        <v>0.83368797824990692</v>
+      </c>
+      <c r="Q64" s="133"/>
+    </row>
+    <row r="65" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="100"/>
+      <c r="B65" s="109"/>
       <c r="C65" s="18" t="s">
         <v>30</v>
       </c>
@@ -5876,33 +5958,33 @@
       <c r="K65" s="37">
         <v>50</v>
       </c>
-      <c r="L65" s="37">
-        <f>(D65-D65)/(D65-D64)</f>
+      <c r="L65" s="98">
+        <f xml:space="preserve"> (MAX(D64:D67) -D65)/(MAX(D64:D67) - MIN(D64:D67))</f>
         <v>0</v>
       </c>
-      <c r="M65" s="37">
-        <f>(E65-E66)/(E64-E66)</f>
+      <c r="M65" s="98">
+        <f xml:space="preserve"> (E65-MIN(E64:E67) )/(MAX(E64:E67) - MIN(E64:E67))</f>
         <v>0.14723545247463243</v>
       </c>
-      <c r="N65" s="37">
-        <f>(F66-F68)/(F66-F68)</f>
+      <c r="N65" s="98">
+        <f t="shared" ref="N65" si="23" xml:space="preserve"> (F65-MIN(F64:F67) )/(MAX(F64:F67) - MIN(F64:F67))</f>
         <v>1</v>
       </c>
-      <c r="O65" s="37">
-        <f>(G65-G66)/(G64-G66)</f>
+      <c r="O65" s="98">
+        <f t="shared" ref="O65" si="24" xml:space="preserve"> (G65-MIN(G64:G67) )/(MAX(G64:G67) - MIN(G64:G67))</f>
         <v>0.23870967741934684</v>
       </c>
-      <c r="P65" s="105">
+      <c r="P65" s="140">
         <f>F20*L65+G20*M65+H20*N65+I20*O65</f>
-        <v>0.22096716766111077</v>
-      </c>
-      <c r="Q65" s="106"/>
-    </row>
-    <row r="66" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="111" t="s">
+        <v>0.26467751955590668</v>
+      </c>
+      <c r="Q65" s="141"/>
+    </row>
+    <row r="66" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="100"/>
+      <c r="B66" s="109"/>
       <c r="C66" s="18" t="s">
         <v>31</v>
       </c>
@@ -5930,33 +6012,33 @@
       <c r="K66" s="37">
         <v>50</v>
       </c>
-      <c r="L66" s="37">
-        <f>(D65-D66)/(D65-D64)</f>
+      <c r="L66" s="98">
+        <f xml:space="preserve"> (MAX(D64:D67) -D66)/(MAX(D64:D67) - MIN(D64:D67))</f>
         <v>0.32383692372465078</v>
       </c>
-      <c r="M66" s="37">
-        <f>(E66-E66)/(E64-E66)</f>
+      <c r="M66" s="98">
+        <f xml:space="preserve"> (E66-MIN(E64:E67) )/(MAX(E64:E67) - MIN(E64:E67))</f>
         <v>0</v>
       </c>
-      <c r="N66" s="37">
-        <f>(F67-F68)/(F66-F68)</f>
-        <v>0.6907352355266787</v>
-      </c>
-      <c r="O66" s="37">
-        <f>(G66-G66)/(G64-G66)</f>
+      <c r="N66" s="98">
+        <f t="shared" ref="N66" si="25" xml:space="preserve"> (F66-MIN(F64:F67) )/(MAX(F64:F67) - MIN(F64:F67))</f>
+        <v>0.99562586331645087</v>
+      </c>
+      <c r="O66" s="98">
+        <f t="shared" ref="O66" si="26" xml:space="preserve"> (G66-MIN(G64:G67) )/(MAX(G64:G67) - MIN(G64:G67))</f>
         <v>0</v>
       </c>
-      <c r="P66" s="105">
+      <c r="P66" s="140">
         <f>F20*L66+G20*M66+H20*N66+I20*O66</f>
-        <v>0.17963569314925965</v>
-      </c>
-      <c r="Q66" s="106"/>
-    </row>
-    <row r="67" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="111" t="s">
+        <v>0.27388328512762539</v>
+      </c>
+      <c r="Q66" s="141"/>
+    </row>
+    <row r="67" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="100"/>
+      <c r="B67" s="109"/>
       <c r="C67" s="18" t="s">
         <v>32</v>
       </c>
@@ -5984,31 +6066,31 @@
       <c r="K67" s="37">
         <v>50</v>
       </c>
-      <c r="L67" s="37">
-        <f>(D65-D67)/(D65-D64)</f>
+      <c r="L67" s="98">
+        <f xml:space="preserve"> (MAX(D64:D67) -D67)/(MAX(D64:D67) - MIN(D64:D67))</f>
         <v>1.4034102869977228E-3</v>
       </c>
-      <c r="M67" s="37">
-        <f>(E67-E66)/(E64-E66)</f>
+      <c r="M67" s="98">
+        <f xml:space="preserve"> (E67-MIN(E64:E67) )/(MAX(E64:E67) - MIN(E64:E67))</f>
         <v>0.50771381238351632</v>
       </c>
-      <c r="N67" s="37">
-        <f>(F68-F68)/(F66-F68)</f>
+      <c r="N67" s="98">
+        <f t="shared" ref="N67" si="27" xml:space="preserve"> (F67-MIN(F64:F67) )/(MAX(F64:F67) - MIN(F64:F67))</f>
         <v>0</v>
       </c>
-      <c r="O67" s="37">
-        <f>(G67-G66)/(G64-G66)</f>
+      <c r="O67" s="98">
+        <f t="shared" ref="O67" si="28" xml:space="preserve"> (G67-MIN(G64:G67) )/(MAX(G64:G67) - MIN(G64:G67))</f>
         <v>0.81612903225805888</v>
       </c>
-      <c r="P67" s="105">
+      <c r="P67" s="140">
         <f>F20*L67+G20*M67+H20*N67+I20*O67</f>
-        <v>0.26822145544685666</v>
-      </c>
-      <c r="Q67" s="106"/>
-    </row>
-    <row r="68" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="111"/>
-      <c r="B68" s="100"/>
+        <v>0.33656876825396875</v>
+      </c>
+      <c r="Q67" s="141"/>
+    </row>
+    <row r="68" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="108"/>
+      <c r="B68" s="109"/>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
@@ -6022,14 +6104,14 @@
       <c r="M68" s="37"/>
       <c r="N68" s="30"/>
       <c r="O68" s="37"/>
-      <c r="P68" s="105"/>
-      <c r="Q68" s="106"/>
-    </row>
-    <row r="69" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="109" t="s">
+      <c r="P68" s="140"/>
+      <c r="Q68" s="141"/>
+    </row>
+    <row r="69" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="112"/>
+      <c r="B69" s="142"/>
       <c r="C69" s="70" t="s">
         <v>29</v>
       </c>
@@ -6058,33 +6140,33 @@
       <c r="K69" s="70">
         <v>50</v>
       </c>
-      <c r="L69" s="70">
-        <f>(D70-D69)/(D70-D69)</f>
+      <c r="L69" s="99">
+        <f xml:space="preserve"> (MAX(D69:D72) -D69)/(MAX(D69:D72) - MIN(D69:D72))</f>
         <v>1</v>
       </c>
-      <c r="M69" s="70">
-        <f>(E69-E71)/(E69-E71)</f>
+      <c r="M69" s="99">
+        <f xml:space="preserve"> (E69-MIN(E69:E72) )/(MAX(E69:E72) - MIN(E69:E72))</f>
         <v>1</v>
       </c>
-      <c r="N69" s="70">
-        <f>(F69-F69)/(F70-F69)</f>
+      <c r="N69" s="99">
+        <f t="shared" ref="N69" si="29" xml:space="preserve"> (F69-MIN(F69:F72) )/(MAX(F69:F72) - MIN(F69:F72))</f>
         <v>0</v>
       </c>
-      <c r="O69" s="70">
-        <f>(G69-G71)/(G69-G71)</f>
+      <c r="O69" s="99">
+        <f t="shared" ref="O69" si="30" xml:space="preserve"> (G69-MIN(G69:G72) )/(MAX(G69:G72) - MIN(G69:G72))</f>
         <v>1</v>
       </c>
-      <c r="P69" s="109">
+      <c r="P69" s="136">
         <f>F20*L69+G20*M69+H20*N69+I20*O69</f>
-        <v>0.64971550497866293</v>
-      </c>
-      <c r="Q69" s="110"/>
-    </row>
-    <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="111" t="s">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="Q69" s="133"/>
+    </row>
+    <row r="70" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="100"/>
+      <c r="B70" s="109"/>
       <c r="C70" s="18" t="s">
         <v>30</v>
       </c>
@@ -6112,33 +6194,33 @@
       <c r="K70" s="37">
         <v>50</v>
       </c>
-      <c r="L70" s="37">
-        <f>(D70-D70)/(D70-D69)</f>
+      <c r="L70" s="98">
+        <f xml:space="preserve"> (MAX(D69:D72) -D70)/(MAX(D69:D72) - MIN(D69:D72))</f>
         <v>0</v>
       </c>
-      <c r="M70" s="37">
-        <f>(E70-E71)/(E69-E71)</f>
+      <c r="M70" s="98">
+        <f xml:space="preserve"> (E70-MIN(E69:E72) )/(MAX(E69:E72) - MIN(E69:E72))</f>
         <v>0.23629112662013957</v>
       </c>
-      <c r="N70" s="37">
-        <f>(F70-F69)/(F70-F69)</f>
+      <c r="N70" s="98">
+        <f t="shared" ref="N70" si="31" xml:space="preserve"> (F70-MIN(F69:F72) )/(MAX(F69:F72) - MIN(F69:F72))</f>
         <v>1</v>
       </c>
-      <c r="O70" s="37">
-        <f>(G70-G71)/(G69-G71)</f>
+      <c r="O70" s="98">
+        <f t="shared" ref="O70" si="32" xml:space="preserve"> (G70-MIN(G69:G72) )/(MAX(G69:G72) - MIN(G69:G72))</f>
         <v>0.23870967741934684</v>
       </c>
-      <c r="P70" s="105">
+      <c r="P70" s="140">
         <f>F20*L70+G20*M70+H20*N70+I20*O70</f>
-        <v>0.23781553844539591</v>
-      </c>
-      <c r="Q70" s="106"/>
-    </row>
-    <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="111" t="s">
+        <v>0.28545717685652505</v>
+      </c>
+      <c r="Q70" s="141"/>
+    </row>
+    <row r="71" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A71" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="100"/>
+      <c r="B71" s="109"/>
       <c r="C71" s="18" t="s">
         <v>31</v>
       </c>
@@ -6166,33 +6248,33 @@
       <c r="K71" s="37">
         <v>50</v>
       </c>
-      <c r="L71" s="37">
-        <f>(D70-D71)/(D70-D69)</f>
+      <c r="L71" s="98">
+        <f xml:space="preserve"> (MAX(D69:D72) -D71)/(MAX(D69:D72) - MIN(D69:D72))</f>
         <v>0.32383692372465078</v>
       </c>
-      <c r="M71" s="37">
-        <f>(E71-E71)/(E69-E71)</f>
+      <c r="M71" s="98">
+        <f xml:space="preserve"> (E71-MIN(E69:E72) )/(MAX(E69:E72) - MIN(E69:E72))</f>
         <v>0</v>
       </c>
-      <c r="N71" s="37">
-        <f>(F71-F69)/(F70-F69)</f>
+      <c r="N71" s="98">
+        <f t="shared" ref="N71" si="33" xml:space="preserve"> (F71-MIN(F69:F72) )/(MAX(F69:F72) - MIN(F69:F72))</f>
         <v>0.99564932940791639</v>
       </c>
-      <c r="O71" s="37">
-        <f>(G71-G71)/(G69-G71)</f>
+      <c r="O71" s="98">
+        <f t="shared" ref="O71" si="34" xml:space="preserve"> (G71-MIN(G69:G72) )/(MAX(G69:G72) - MIN(G69:G72))</f>
         <v>0</v>
       </c>
-      <c r="P71" s="105">
+      <c r="P71" s="140">
         <f>F20*L71+G20*M71+H20*N71+I20*O71</f>
-        <v>0.22319484941800788</v>
-      </c>
-      <c r="Q71" s="106"/>
-    </row>
-    <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="111" t="s">
+        <v>0.27388719614286966</v>
+      </c>
+      <c r="Q71" s="141"/>
+    </row>
+    <row r="72" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A72" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="100"/>
+      <c r="B72" s="109"/>
       <c r="C72" s="18" t="s">
         <v>32</v>
       </c>
@@ -6220,31 +6302,31 @@
       <c r="K72" s="37">
         <v>50</v>
       </c>
-      <c r="L72" s="37">
-        <f>(D70-D72)/(D70-D69)</f>
+      <c r="L72" s="98">
+        <f xml:space="preserve"> (MAX(D69:D72) -D72)/(MAX(D69:D72) - MIN(D69:D72))</f>
         <v>1.4034102869977228E-3</v>
       </c>
-      <c r="M72" s="37">
-        <f>(E72-E71)/(E69-E71)</f>
+      <c r="M72" s="98">
+        <f xml:space="preserve"> (E72-MIN(E69:E72) )/(MAX(E69:E72) - MIN(E69:E72))</f>
         <v>0.81480558325024921</v>
       </c>
-      <c r="N72" s="37">
-        <f>(F72-F69)/(F70-F69)</f>
+      <c r="N72" s="98">
+        <f t="shared" ref="N72" si="35" xml:space="preserve"> (F72-MIN(F69:F72) )/(MAX(F69:F72) - MIN(F69:F72))</f>
         <v>5.364736669937766E-3</v>
       </c>
-      <c r="O72" s="37">
-        <f>(G72-G71)/(G69-G71)</f>
+      <c r="O72" s="98">
+        <f t="shared" ref="O72" si="36" xml:space="preserve"> (G72-MIN(G69:G72) )/(MAX(G69:G72) - MIN(G69:G72))</f>
         <v>0.81612903225805888</v>
       </c>
-      <c r="P72" s="105">
+      <c r="P72" s="140">
         <f>F20*L72+G20*M72+H20*N72+I20*O72</f>
-        <v>0.32708628953665442</v>
-      </c>
-      <c r="Q72" s="106"/>
-    </row>
-    <row r="73" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="111"/>
-      <c r="B73" s="100"/>
+        <v>0.40911763756786268</v>
+      </c>
+      <c r="Q72" s="141"/>
+    </row>
+    <row r="73" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="108"/>
+      <c r="B73" s="109"/>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
@@ -6258,14 +6340,14 @@
       <c r="M73" s="37"/>
       <c r="N73" s="37"/>
       <c r="O73" s="37"/>
-      <c r="P73" s="105"/>
-      <c r="Q73" s="106"/>
-    </row>
-    <row r="74" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="109" t="s">
+      <c r="P73" s="140"/>
+      <c r="Q73" s="141"/>
+    </row>
+    <row r="74" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="112"/>
+      <c r="B74" s="142"/>
       <c r="C74" s="70" t="s">
         <v>29</v>
       </c>
@@ -6294,33 +6376,33 @@
       <c r="K74" s="70">
         <v>50</v>
       </c>
-      <c r="L74" s="70">
-        <f>(D75-D74)/(D75-D74)</f>
+      <c r="L74" s="99">
+        <f xml:space="preserve"> (MAX(D74:D77) -D74)/(MAX(D74:D77) - MIN(D74:D77))</f>
         <v>1</v>
       </c>
-      <c r="M74" s="70">
-        <f>(E74-E76)/(E74-E76)</f>
+      <c r="M74" s="99">
+        <f xml:space="preserve"> (E74-MIN(E74:E77) )/(MAX(E74:E77) - MIN(E74:E77))</f>
         <v>1</v>
       </c>
-      <c r="N74" s="70">
-        <f>(F74-F77)/(F75-F77)</f>
+      <c r="N74" s="99">
+        <f t="shared" ref="N74" si="37" xml:space="preserve"> (F74-MIN(F74:F77) )/(MAX(F74:F77) - MIN(F74:F77))</f>
         <v>1.0063803196737692E-2</v>
       </c>
-      <c r="O74" s="70">
-        <f>(G74-G76)/(G74-G76)</f>
+      <c r="O74" s="99">
+        <f t="shared" ref="O74" si="38" xml:space="preserve"> (G74-MIN(G74:G77) )/(MAX(G74:G77) - MIN(G74:G77))</f>
         <v>1</v>
       </c>
-      <c r="P74" s="109">
+      <c r="P74" s="136">
         <f>F20*L74+G20*M74+H20*N74+I20*O74</f>
-        <v>0.65115319114962533</v>
-      </c>
-      <c r="Q74" s="110"/>
-    </row>
-    <row r="75" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="111" t="s">
+        <v>0.83501063386612295</v>
+      </c>
+      <c r="Q74" s="133"/>
+    </row>
+    <row r="75" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="100"/>
+      <c r="B75" s="109"/>
       <c r="C75" s="18" t="s">
         <v>30</v>
       </c>
@@ -6348,33 +6430,33 @@
       <c r="K75" s="37">
         <v>50</v>
       </c>
-      <c r="L75" s="37">
-        <f>(D75-D75)/(D75-D74)</f>
+      <c r="L75" s="98">
+        <f xml:space="preserve"> (MAX(D74:D77) -D75)/(MAX(D74:D77) - MIN(D74:D77))</f>
         <v>0</v>
       </c>
-      <c r="M75" s="37">
-        <f>(E75-E76)/(E74-E76)</f>
+      <c r="M75" s="98">
+        <f xml:space="preserve"> (E75-MIN(E74:E77) )/(MAX(E74:E77) - MIN(E74:E77))</f>
         <v>0.23629112662013957</v>
       </c>
-      <c r="N75" s="37">
-        <f>(F75-F77)/(F75-F77)</f>
+      <c r="N75" s="98">
+        <f t="shared" ref="N75" si="39" xml:space="preserve"> (F75-MIN(F74:F77) )/(MAX(F74:F77) - MIN(F74:F77))</f>
         <v>1</v>
       </c>
-      <c r="O75" s="37">
-        <f>(G75-G76)/(G74-G76)</f>
+      <c r="O75" s="98">
+        <f t="shared" ref="O75" si="40" xml:space="preserve"> (G75-MIN(G74:G77) )/(MAX(G74:G77) - MIN(G74:G77))</f>
         <v>0.23870967741934684</v>
       </c>
-      <c r="P75" s="105">
+      <c r="P75" s="140">
         <f>F20*L75+G20*M75+H20*N75+I20*O75</f>
-        <v>0.23781553844539591</v>
-      </c>
-      <c r="Q75" s="106"/>
-    </row>
-    <row r="76" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="111" t="s">
+        <v>0.28545717685652505</v>
+      </c>
+      <c r="Q75" s="141"/>
+    </row>
+    <row r="76" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="100"/>
+      <c r="B76" s="109"/>
       <c r="C76" s="18" t="s">
         <v>31</v>
       </c>
@@ -6402,33 +6484,33 @@
       <c r="K76" s="37">
         <v>50</v>
       </c>
-      <c r="L76" s="37">
-        <f>(D75-D76)/(D75-D74)</f>
+      <c r="L76" s="98">
+        <f xml:space="preserve"> (MAX(D74:D77) -D76)/(MAX(D74:D77) - MIN(D74:D77))</f>
         <v>0.32383692372465078</v>
       </c>
-      <c r="M76" s="37">
-        <f>(E76-E76)/(E74-E76)</f>
+      <c r="M76" s="98">
+        <f xml:space="preserve"> (E76-MIN(E74:E77) )/(MAX(E74:E77) - MIN(E74:E77))</f>
         <v>0</v>
       </c>
-      <c r="N76" s="37">
-        <f>(F76-F77)/(F75-F77)</f>
+      <c r="N76" s="98">
+        <f t="shared" ref="N76" si="41" xml:space="preserve"> (F76-MIN(F74:F77) )/(MAX(F74:F77) - MIN(F74:F77))</f>
         <v>0.99562586331645087</v>
       </c>
-      <c r="O76" s="37">
-        <f>(G76-G76)/(G74-G76)</f>
+      <c r="O76" s="98">
+        <f t="shared" ref="O76" si="42" xml:space="preserve"> (G76-MIN(G74:G77) )/(MAX(G74:G77) - MIN(G74:G77))</f>
         <v>0</v>
       </c>
-      <c r="P76" s="105">
+      <c r="P76" s="140">
         <f>F20*L76+G20*M76+H20*N76+I20*O76</f>
-        <v>0.22319149711922709</v>
-      </c>
-      <c r="Q76" s="106"/>
-    </row>
-    <row r="77" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="111" t="s">
+        <v>0.27388328512762539</v>
+      </c>
+      <c r="Q76" s="141"/>
+    </row>
+    <row r="77" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="100"/>
+      <c r="B77" s="109"/>
       <c r="C77" s="18" t="s">
         <v>32</v>
       </c>
@@ -6456,31 +6538,31 @@
       <c r="K77" s="37">
         <v>50</v>
       </c>
-      <c r="L77" s="37">
-        <f>(D75-D77)/(D75-D74)</f>
+      <c r="L77" s="98">
+        <f xml:space="preserve"> (MAX(D74:D77) -D77)/(MAX(D74:D77) - MIN(D74:D77))</f>
         <v>1.4034102869977228E-3</v>
       </c>
-      <c r="M77" s="37">
-        <f>(E77-E76)/(E74-E76)</f>
+      <c r="M77" s="98">
+        <f xml:space="preserve"> (E77-MIN(E74:E77) )/(MAX(E74:E77) - MIN(E74:E77))</f>
         <v>0.81480558325024921</v>
       </c>
-      <c r="N77" s="37">
-        <f>(F77-F77)/(F75-F77)</f>
+      <c r="N77" s="98">
+        <f t="shared" ref="N77" si="43" xml:space="preserve"> (F77-MIN(F74:F77) )/(MAX(F74:F77) - MIN(F74:F77))</f>
         <v>0</v>
       </c>
-      <c r="O77" s="37">
-        <f>(G77-G76)/(G74-G76)</f>
+      <c r="O77" s="98">
+        <f t="shared" ref="O77" si="44" xml:space="preserve"> (G77-MIN(G74:G77) )/(MAX(G74:G77) - MIN(G74:G77))</f>
         <v>0.81612903225805888</v>
       </c>
-      <c r="P77" s="105">
+      <c r="P77" s="140">
         <f>F20*L77+G20*M77+H20*N77+I20*O77</f>
-        <v>0.32631989858380617</v>
-      </c>
-      <c r="Q77" s="106"/>
-    </row>
-    <row r="78" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="111"/>
-      <c r="B78" s="100"/>
+        <v>0.40822351478953978</v>
+      </c>
+      <c r="Q77" s="141"/>
+    </row>
+    <row r="78" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78" s="108"/>
+      <c r="B78" s="109"/>
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
       <c r="E78" s="18"/>
@@ -6494,14 +6576,14 @@
       <c r="M78" s="37"/>
       <c r="N78" s="37"/>
       <c r="O78" s="37"/>
-      <c r="P78" s="105"/>
-      <c r="Q78" s="106"/>
-    </row>
-    <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="109" t="s">
+      <c r="P78" s="140"/>
+      <c r="Q78" s="141"/>
+    </row>
+    <row r="79" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A79" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="112"/>
+      <c r="B79" s="142"/>
       <c r="C79" s="70" t="s">
         <v>29</v>
       </c>
@@ -6530,33 +6612,33 @@
       <c r="K79" s="70">
         <v>50</v>
       </c>
-      <c r="L79" s="70">
-        <f>(D80-D79)/(D80-D79)</f>
+      <c r="L79" s="99">
+        <f xml:space="preserve"> (MAX(D79:D82) -D79)/(MAX(D79:D82) - MIN(D79:D82))</f>
         <v>1</v>
       </c>
-      <c r="M79" s="70">
-        <f>(E79-E81)/(E79-E81)</f>
+      <c r="M79" s="99">
+        <f xml:space="preserve"> (E79-MIN(E79:E82) )/(MAX(E79:E82) - MIN(E79:E82))</f>
         <v>1</v>
       </c>
-      <c r="N79" s="70">
-        <f>(F79-F82)/(F80-F82)</f>
+      <c r="N79" s="99">
+        <f t="shared" ref="N79" si="45" xml:space="preserve"> (F79-MIN(F79:F82) )/(MAX(F79:F82) - MIN(F79:F82))</f>
         <v>2.127869499441111E-3</v>
       </c>
-      <c r="O79" s="70">
-        <f>(G79-G79)/(G82-G79)</f>
+      <c r="O79" s="99">
+        <f t="shared" ref="O79" si="46" xml:space="preserve"> (G79-MIN(G79:G82) )/(MAX(G79:G82) - MIN(G79:G82))</f>
         <v>0</v>
       </c>
-      <c r="P79" s="109">
+      <c r="P79" s="136">
         <f>F20*L79+G20*M79+H20*N79+I20*O79</f>
-        <v>0.4394931705462522</v>
-      </c>
-      <c r="Q79" s="110"/>
-    </row>
-    <row r="80" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="111" t="s">
+        <v>0.56702131158324021</v>
+      </c>
+      <c r="Q79" s="133"/>
+    </row>
+    <row r="80" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="100"/>
+      <c r="B80" s="109"/>
       <c r="C80" s="18" t="s">
         <v>30</v>
       </c>
@@ -6584,33 +6666,33 @@
       <c r="K80" s="37">
         <v>50</v>
       </c>
-      <c r="L80" s="37">
-        <f>(D80-D80)/(D80-D79)</f>
+      <c r="L80" s="98">
+        <f xml:space="preserve"> (MAX(D79:D82) -D80)/(MAX(D79:D82) - MIN(D79:D82))</f>
         <v>0</v>
       </c>
-      <c r="M80" s="37">
-        <f>(E80-E81)/(E79-E81)</f>
+      <c r="M80" s="98">
+        <f xml:space="preserve"> (E80-MIN(E79:E82) )/(MAX(E79:E82) - MIN(E79:E82))</f>
         <v>0.23629112662013957</v>
       </c>
-      <c r="N80" s="37">
-        <f>(F80-F82)/(F80-F82)</f>
+      <c r="N80" s="98">
+        <f t="shared" ref="N80" si="47" xml:space="preserve"> (F80-MIN(F79:F82) )/(MAX(F79:F82) - MIN(F79:F82))</f>
         <v>1</v>
       </c>
-      <c r="O80" s="37">
-        <f>(G80-G79)/(G82-G79)</f>
+      <c r="O80" s="98">
+        <f t="shared" ref="O80" si="48" xml:space="preserve"> (G80-MIN(G79:G82) )/(MAX(G79:G82) - MIN(G79:G82))</f>
         <v>0.95877760633765463</v>
       </c>
-      <c r="P80" s="105">
+      <c r="P80" s="140">
         <f>F20*L80+G20*M80+H20*N80+I20*O80</f>
-        <v>0.38940878663872386</v>
-      </c>
-      <c r="Q80" s="106"/>
-    </row>
-    <row r="81" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="111" t="s">
+        <v>0.47747529123474042</v>
+      </c>
+      <c r="Q80" s="141"/>
+    </row>
+    <row r="81" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="100"/>
+      <c r="B81" s="109"/>
       <c r="C81" s="18" t="s">
         <v>31</v>
       </c>
@@ -6638,33 +6720,33 @@
       <c r="K81" s="37">
         <v>50</v>
       </c>
-      <c r="L81" s="37">
-        <f>(D80-D81)/(D80-D79)</f>
+      <c r="L81" s="98">
+        <f xml:space="preserve"> (MAX(D79:D82) -D81)/(MAX(D79:D82) - MIN(D79:D82))</f>
         <v>0.32383692372465078</v>
       </c>
-      <c r="M81" s="37">
-        <f>(E81-E81)/(E79-E81)</f>
+      <c r="M81" s="98">
+        <f xml:space="preserve"> (E81-MIN(E79:E82) )/(MAX(E79:E82) - MIN(E79:E82))</f>
         <v>0</v>
       </c>
-      <c r="N81" s="37">
-        <f>(F81-F82)/(F80-F82)</f>
+      <c r="N81" s="98">
+        <f t="shared" ref="N81" si="49" xml:space="preserve"> (F81-MIN(F79:F82) )/(MAX(F79:F82) - MIN(F79:F82))</f>
         <v>0.99562586331645087</v>
       </c>
-      <c r="O81" s="37">
-        <f>(G81-G79)/(G82-G79)</f>
+      <c r="O81" s="98">
+        <f t="shared" ref="O81" si="50" xml:space="preserve"> (G81-MIN(G79:G82) )/(MAX(G79:G82) - MIN(G79:G82))</f>
         <v>0.94173594638785885</v>
       </c>
-      <c r="P81" s="105">
+      <c r="P81" s="140">
         <f>F20*L81+G20*M81+H20*N81+I20*O81</f>
-        <v>0.42145169635877633</v>
-      </c>
-      <c r="Q81" s="106"/>
-    </row>
-    <row r="82" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="111" t="s">
+        <v>0.52501287083105441</v>
+      </c>
+      <c r="Q81" s="141"/>
+    </row>
+    <row r="82" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="100"/>
+      <c r="B82" s="109"/>
       <c r="C82" s="18" t="s">
         <v>32</v>
       </c>
@@ -6692,31 +6774,31 @@
       <c r="K82" s="37">
         <v>50</v>
       </c>
-      <c r="L82" s="37">
-        <f>(D80-D82)/(D80-D79)</f>
+      <c r="L82" s="98">
+        <f xml:space="preserve"> (MAX(D79:D82) -D82)/(MAX(D79:D82) - MIN(D79:D82))</f>
         <v>1.4034102869977228E-3</v>
       </c>
-      <c r="M82" s="37">
-        <f>(E82-E81)/(E79-E81)</f>
+      <c r="M82" s="98">
+        <f xml:space="preserve"> (E82-MIN(E79:E82) )/(MAX(E79:E82) - MIN(E79:E82))</f>
         <v>0.81480558325024921</v>
       </c>
-      <c r="N82" s="37">
-        <f>(F82-F82)/(F80-F82)</f>
+      <c r="N82" s="98">
+        <f t="shared" ref="N82" si="51" xml:space="preserve"> (F82-MIN(F79:F82) )/(MAX(F79:F82) - MIN(F79:F82))</f>
         <v>0</v>
       </c>
-      <c r="O82" s="37">
-        <f>(G82-G79)/(G82-G79)</f>
+      <c r="O82" s="98">
+        <f t="shared" ref="O82" si="52" xml:space="preserve"> (G82-MIN(G79:G82) )/(MAX(G79:G82) - MIN(G79:G82))</f>
         <v>1</v>
       </c>
-      <c r="P82" s="105">
+      <c r="P82" s="140">
         <f>F20*L82+G20*M82+H20*N82+I20*O82</f>
-        <v>0.36502957600316216</v>
-      </c>
-      <c r="Q82" s="106"/>
-    </row>
-    <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="111"/>
-      <c r="B83" s="100"/>
+        <v>0.45725577285405739</v>
+      </c>
+      <c r="Q82" s="141"/>
+    </row>
+    <row r="83" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="108"/>
+      <c r="B83" s="109"/>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
@@ -6730,14 +6812,14 @@
       <c r="M83" s="37"/>
       <c r="N83" s="37"/>
       <c r="O83" s="37"/>
-      <c r="P83" s="105"/>
-      <c r="Q83" s="106"/>
-    </row>
-    <row r="84" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="109" t="s">
+      <c r="P83" s="140"/>
+      <c r="Q83" s="141"/>
+    </row>
+    <row r="84" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A84" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="112"/>
+      <c r="B84" s="142"/>
       <c r="C84" s="70" t="s">
         <v>29</v>
       </c>
@@ -6766,33 +6848,33 @@
       <c r="K84" s="70">
         <v>50</v>
       </c>
-      <c r="L84" s="70">
-        <f>(D85-D84)/(D85-D84)</f>
+      <c r="L84" s="99">
+        <f xml:space="preserve"> (MAX(D84:D87) -D84)/(MAX(D84:D87) - MIN(D84:D87))</f>
         <v>1</v>
       </c>
-      <c r="M84" s="70">
-        <f>(E84-E86)/(E84-E86)</f>
+      <c r="M84" s="99">
+        <f xml:space="preserve"> (E84-MIN(E84:E87) )/(MAX(E84:E87) - MIN(E84:E87))</f>
         <v>1</v>
       </c>
-      <c r="N84" s="70">
-        <f>(F84-F87)/(F85-F87)</f>
+      <c r="N84" s="99">
+        <f t="shared" ref="N84" si="53" xml:space="preserve"> (F84-MIN(F84:F87) )/(MAX(F84:F87) - MIN(F84:F87))</f>
         <v>2.127869499441111E-3</v>
       </c>
-      <c r="O84" s="70">
-        <f>(G84-G86)/(G84-G86)</f>
+      <c r="O84" s="99">
+        <f t="shared" ref="O84" si="54" xml:space="preserve"> (G84-MIN(G84:G87) )/(MAX(G84:G87) - MIN(G84:G87))</f>
         <v>1</v>
       </c>
-      <c r="P84" s="109">
+      <c r="P84" s="136">
         <f>F20*L84+G20*M84+H20*N84+I20*O84</f>
-        <v>0.65001948633572582</v>
-      </c>
-      <c r="Q84" s="110"/>
-    </row>
-    <row r="85" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="111" t="s">
+        <v>0.83368797824990692</v>
+      </c>
+      <c r="Q84" s="133"/>
+    </row>
+    <row r="85" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A85" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="100"/>
+      <c r="B85" s="109"/>
       <c r="C85" s="18" t="s">
         <v>30</v>
       </c>
@@ -6820,33 +6902,33 @@
       <c r="K85" s="37">
         <v>50</v>
       </c>
-      <c r="L85" s="37">
-        <f>(D85-D85)/(D85-D84)</f>
+      <c r="L85" s="98">
+        <f xml:space="preserve"> (MAX(D84:D87) -D85)/(MAX(D84:D87) - MIN(D84:D87))</f>
         <v>0</v>
       </c>
-      <c r="M85" s="37">
-        <f>(E85-E86)/(E84-E86)</f>
+      <c r="M85" s="98">
+        <f xml:space="preserve"> (E85-MIN(E84:E87) )/(MAX(E84:E87) - MIN(E84:E87))</f>
         <v>0.23629112662013957</v>
       </c>
-      <c r="N85" s="37">
-        <f>(F85-F87)/(F85-F87)</f>
+      <c r="N85" s="98">
+        <f t="shared" ref="N85" si="55" xml:space="preserve"> (F85-MIN(F84:F87) )/(MAX(F84:F87) - MIN(F84:F87))</f>
         <v>1</v>
       </c>
-      <c r="O85" s="37">
-        <f>(G85-G86)/(G84-G86)</f>
+      <c r="O85" s="98">
+        <f t="shared" ref="O85" si="56" xml:space="preserve"> (G85-MIN(G84:G87) )/(MAX(G84:G87) - MIN(G84:G87))</f>
         <v>1.4035886347255054E-2</v>
       </c>
-      <c r="P85" s="105">
+      <c r="P85" s="140">
         <f>F20*L85+G20*M85+H20*N85+I20*O85</f>
-        <v>0.19051579295653448</v>
-      </c>
-      <c r="Q85" s="106"/>
-    </row>
-    <row r="86" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="111" t="s">
+        <v>0.22554416590396725</v>
+      </c>
+      <c r="Q85" s="141"/>
+    </row>
+    <row r="86" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A86" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="100"/>
+      <c r="B86" s="109"/>
       <c r="C86" s="18" t="s">
         <v>31</v>
       </c>
@@ -6874,33 +6956,33 @@
       <c r="K86" s="37">
         <v>50</v>
       </c>
-      <c r="L86" s="37">
-        <f>(D85-D86)/(D85-D84)</f>
+      <c r="L86" s="98">
+        <f xml:space="preserve"> (MAX(D84:D87) -D86)/(MAX(D84:D87) - MIN(D84:D87))</f>
         <v>0.32383692372465078</v>
       </c>
-      <c r="M86" s="37">
-        <f>(E86-E86)/(E84-E86)</f>
+      <c r="M86" s="98">
+        <f xml:space="preserve"> (E86-MIN(E84:E87) )/(MAX(E84:E87) - MIN(E84:E87))</f>
         <v>0</v>
       </c>
-      <c r="N86" s="37">
-        <f>(F86-F87)/(F85-F87)</f>
+      <c r="N86" s="98">
+        <f t="shared" ref="N86" si="57" xml:space="preserve"> (F86-MIN(F84:F87) )/(MAX(F84:F87) - MIN(F84:F87))</f>
         <v>0.99562586331645087</v>
       </c>
-      <c r="O86" s="37">
-        <f>(G86-G86)/(G84-G86)</f>
+      <c r="O86" s="98">
+        <f t="shared" ref="O86" si="58" xml:space="preserve"> (G86-MIN(G84:G87) )/(MAX(G84:G87) - MIN(G84:G87))</f>
         <v>0</v>
       </c>
-      <c r="P86" s="105">
-        <f>F20*L86+G20*M86+H57*N20+I57*O20</f>
-        <v>8.0959230931162696E-2</v>
-      </c>
-      <c r="Q86" s="106"/>
-    </row>
-    <row r="87" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="113" t="s">
+      <c r="P86" s="140">
+        <f>F20*L86+G20*M86+H20*N86+I20*O86</f>
+        <v>0.27388328512762539</v>
+      </c>
+      <c r="Q86" s="141"/>
+    </row>
+    <row r="87" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="114"/>
+      <c r="B87" s="112"/>
       <c r="C87" s="6" t="s">
         <v>32</v>
       </c>
@@ -6928,31 +7010,31 @@
       <c r="K87" s="38">
         <v>50</v>
       </c>
-      <c r="L87" s="38">
-        <f>(D85-D87)/(D85-D84)</f>
+      <c r="L87" s="98">
+        <f xml:space="preserve"> (MAX(D84:D87) -D87)/(MAX(D84:D87) - MIN(D84:D87))</f>
         <v>1.4034102869977228E-3</v>
       </c>
-      <c r="M87" s="38">
-        <f>(E87-E86)/(E84-E86)</f>
+      <c r="M87" s="98">
+        <f xml:space="preserve"> (E87-MIN(E84:E87) )/(MAX(E84:E87) - MIN(E84:E87))</f>
         <v>0.81480558325024921</v>
       </c>
-      <c r="N87" s="38">
-        <f>(F87-F87)/(F85-F87)</f>
+      <c r="N87" s="98">
+        <f t="shared" ref="N87" si="59" xml:space="preserve"> (F87-MIN(F84:F87) )/(MAX(F84:F87) - MIN(F84:F87))</f>
         <v>0</v>
       </c>
-      <c r="O87" s="38">
-        <f>(G87-G86)/(G84-G86)</f>
+      <c r="O87" s="98">
+        <f t="shared" ref="O87" si="60" xml:space="preserve"> (G87-MIN(G84:G87) )/(MAX(G84:G87) - MIN(G84:G87))</f>
         <v>4.7987557376427341E-2</v>
       </c>
-      <c r="P87" s="107">
+      <c r="P87" s="147">
         <f>F20*L87+G20*M87+H20*N87+I20*O87</f>
-        <v>0.16460590387188373</v>
-      </c>
-      <c r="Q87" s="108"/>
-    </row>
-    <row r="88" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="111"/>
-      <c r="B88" s="100"/>
+        <v>0.203385788154438</v>
+      </c>
+      <c r="Q87" s="148"/>
+    </row>
+    <row r="88" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A88" s="108"/>
+      <c r="B88" s="109"/>
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
       <c r="E88" s="18"/>
@@ -6969,9 +7051,9 @@
       <c r="P88" s="37"/>
       <c r="Q88" s="37"/>
     </row>
-    <row r="89" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="111"/>
-      <c r="B89" s="100"/>
+    <row r="89" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A89" s="108"/>
+      <c r="B89" s="109"/>
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
       <c r="E89" s="18"/>
@@ -6985,68 +7067,68 @@
       <c r="M89" s="37"/>
       <c r="N89" s="37"/>
       <c r="O89" s="37"/>
-      <c r="P89" s="126"/>
-      <c r="Q89" s="126"/>
-    </row>
-    <row r="90" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A90" s="100"/>
-      <c r="B90" s="100"/>
-      <c r="C90" s="100"/>
-      <c r="D90" s="100"/>
-      <c r="E90" s="100"/>
-      <c r="F90" s="100"/>
-      <c r="G90" s="100"/>
-      <c r="H90" s="100"/>
-      <c r="I90" s="100"/>
-      <c r="J90" s="100"/>
-      <c r="K90" s="100"/>
-      <c r="L90" s="100"/>
-      <c r="M90" s="100"/>
-      <c r="N90" s="100"/>
-      <c r="O90" s="100"/>
-      <c r="P90" s="100"/>
+      <c r="P89" s="137"/>
+      <c r="Q89" s="137"/>
+    </row>
+    <row r="90" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A90" s="109"/>
+      <c r="B90" s="109"/>
+      <c r="C90" s="109"/>
+      <c r="D90" s="109"/>
+      <c r="E90" s="109"/>
+      <c r="F90" s="109"/>
+      <c r="G90" s="109"/>
+      <c r="H90" s="109"/>
+      <c r="I90" s="109"/>
+      <c r="J90" s="109"/>
+      <c r="K90" s="109"/>
+      <c r="L90" s="109"/>
+      <c r="M90" s="109"/>
+      <c r="N90" s="109"/>
+      <c r="O90" s="109"/>
+      <c r="P90" s="109"/>
       <c r="Q90" s="69"/>
     </row>
-    <row r="91" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="100"/>
-      <c r="B91" s="100"/>
-      <c r="C91" s="100"/>
-      <c r="D91" s="100"/>
-      <c r="E91" s="100"/>
-      <c r="F91" s="100"/>
-      <c r="G91" s="100"/>
-      <c r="H91" s="100"/>
-      <c r="I91" s="100"/>
-      <c r="J91" s="100"/>
-      <c r="K91" s="100"/>
-      <c r="L91" s="100"/>
-      <c r="M91" s="100"/>
-      <c r="N91" s="100"/>
-      <c r="O91" s="100"/>
-      <c r="P91" s="100"/>
+    <row r="91" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A91" s="109"/>
+      <c r="B91" s="109"/>
+      <c r="C91" s="109"/>
+      <c r="D91" s="109"/>
+      <c r="E91" s="109"/>
+      <c r="F91" s="109"/>
+      <c r="G91" s="109"/>
+      <c r="H91" s="109"/>
+      <c r="I91" s="109"/>
+      <c r="J91" s="109"/>
+      <c r="K91" s="109"/>
+      <c r="L91" s="109"/>
+      <c r="M91" s="109"/>
+      <c r="N91" s="109"/>
+      <c r="O91" s="109"/>
+      <c r="P91" s="109"/>
       <c r="Q91" s="69"/>
     </row>
-    <row r="92" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="122" t="s">
+    <row r="92" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="B93" s="123"/>
-      <c r="C93" s="123"/>
-      <c r="D93" s="123"/>
+      <c r="B93" s="115"/>
+      <c r="C93" s="115"/>
+      <c r="D93" s="115"/>
       <c r="E93" s="68"/>
-      <c r="F93" s="100"/>
-      <c r="G93" s="100"/>
-      <c r="H93" s="100"/>
-      <c r="I93" s="100"/>
-      <c r="J93" s="100"/>
-      <c r="K93" s="100"/>
-    </row>
-    <row r="94" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="116" t="s">
+      <c r="F93" s="109"/>
+      <c r="G93" s="109"/>
+      <c r="H93" s="109"/>
+      <c r="I93" s="109"/>
+      <c r="J93" s="109"/>
+      <c r="K93" s="109"/>
+    </row>
+    <row r="94" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="121"/>
+      <c r="B94" s="149"/>
       <c r="C94" s="65" t="s">
         <v>24</v>
       </c>
@@ -7056,18 +7138,18 @@
       <c r="E94" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F94" s="100"/>
-      <c r="G94" s="100"/>
-      <c r="H94" s="100"/>
-      <c r="I94" s="100"/>
-      <c r="J94" s="100"/>
-      <c r="K94" s="100"/>
-    </row>
-    <row r="95" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="101" t="s">
+      <c r="F94" s="109"/>
+      <c r="G94" s="109"/>
+      <c r="H94" s="109"/>
+      <c r="I94" s="109"/>
+      <c r="J94" s="109"/>
+      <c r="K94" s="109"/>
+    </row>
+    <row r="95" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A95" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B95" s="102"/>
+      <c r="B95" s="124"/>
       <c r="C95" s="69">
         <v>438.05860000000001</v>
       </c>
@@ -7077,18 +7159,18 @@
       <c r="E95" s="56">
         <v>1274.1813999999999</v>
       </c>
-      <c r="F95" s="100"/>
-      <c r="G95" s="100"/>
-      <c r="H95" s="100"/>
-      <c r="I95" s="100"/>
-      <c r="J95" s="100"/>
-      <c r="K95" s="100"/>
-    </row>
-    <row r="96" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="101" t="s">
+      <c r="F95" s="109"/>
+      <c r="G95" s="109"/>
+      <c r="H95" s="109"/>
+      <c r="I95" s="109"/>
+      <c r="J95" s="109"/>
+      <c r="K95" s="109"/>
+    </row>
+    <row r="96" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A96" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="102"/>
+      <c r="B96" s="124"/>
       <c r="C96" s="69">
         <v>1.8564000000000001</v>
       </c>
@@ -7098,18 +7180,18 @@
       <c r="E96" s="56">
         <v>3.3123999999999998</v>
       </c>
-      <c r="F96" s="100"/>
-      <c r="G96" s="100"/>
-      <c r="H96" s="100"/>
-      <c r="I96" s="100"/>
-      <c r="J96" s="100"/>
-      <c r="K96" s="100"/>
-    </row>
-    <row r="97" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A97" s="101" t="s">
+      <c r="F96" s="109"/>
+      <c r="G96" s="109"/>
+      <c r="H96" s="109"/>
+      <c r="I96" s="109"/>
+      <c r="J96" s="109"/>
+      <c r="K96" s="109"/>
+    </row>
+    <row r="97" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A97" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="B97" s="102"/>
+      <c r="B97" s="124"/>
       <c r="C97" s="69">
         <v>0.67449999999999999</v>
       </c>
@@ -7119,18 +7201,18 @@
       <c r="E97" s="56">
         <v>0.67920000000000003</v>
       </c>
-      <c r="F97" s="100"/>
-      <c r="G97" s="100"/>
-      <c r="H97" s="100"/>
-      <c r="I97" s="100"/>
-      <c r="J97" s="100"/>
-      <c r="K97" s="100"/>
-    </row>
-    <row r="98" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="101" t="s">
+      <c r="F97" s="109"/>
+      <c r="G97" s="109"/>
+      <c r="H97" s="109"/>
+      <c r="I97" s="109"/>
+      <c r="J97" s="109"/>
+      <c r="K97" s="109"/>
+    </row>
+    <row r="98" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A98" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="B98" s="102"/>
+      <c r="B98" s="124"/>
       <c r="C98" s="69">
         <v>90.850700000000003</v>
       </c>
@@ -7140,18 +7222,18 @@
       <c r="E98" s="56">
         <v>100.2122</v>
       </c>
-      <c r="F98" s="100"/>
-      <c r="G98" s="100"/>
-      <c r="H98" s="100"/>
-      <c r="I98" s="100"/>
-      <c r="J98" s="100"/>
-      <c r="K98" s="100"/>
-    </row>
-    <row r="99" spans="1:11" s="52" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="101" t="s">
+      <c r="F98" s="109"/>
+      <c r="G98" s="109"/>
+      <c r="H98" s="109"/>
+      <c r="I98" s="109"/>
+      <c r="J98" s="109"/>
+      <c r="K98" s="109"/>
+    </row>
+    <row r="99" spans="1:11" s="52" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A99" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="B99" s="102"/>
+      <c r="B99" s="124"/>
       <c r="C99" s="69">
         <v>26</v>
       </c>
@@ -7168,11 +7250,11 @@
       <c r="J99" s="69"/>
       <c r="K99" s="69"/>
     </row>
-    <row r="100" spans="1:11" s="52" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="101" t="s">
+    <row r="100" spans="1:11" s="52" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A100" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="B100" s="102"/>
+      <c r="B100" s="124"/>
       <c r="C100" s="69">
         <v>15</v>
       </c>
@@ -7189,11 +7271,11 @@
       <c r="J100" s="69"/>
       <c r="K100" s="69"/>
     </row>
-    <row r="101" spans="1:11" s="52" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="101" t="s">
+    <row r="101" spans="1:11" s="52" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A101" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="B101" s="102"/>
+      <c r="B101" s="124"/>
       <c r="C101" s="69">
         <v>36</v>
       </c>
@@ -7210,11 +7292,11 @@
       <c r="J101" s="69"/>
       <c r="K101" s="69"/>
     </row>
-    <row r="102" spans="1:11" s="52" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="103" t="s">
+    <row r="102" spans="1:11" s="52" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="104"/>
+      <c r="B102" s="126"/>
       <c r="C102" s="58">
         <v>15</v>
       </c>
@@ -7231,9 +7313,9 @@
       <c r="J102" s="69"/>
       <c r="K102" s="69"/>
     </row>
-    <row r="103" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="102"/>
-      <c r="B103" s="102"/>
+    <row r="103" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A103" s="124"/>
+      <c r="B103" s="124"/>
       <c r="C103" s="30"/>
       <c r="D103" s="18"/>
       <c r="E103" s="18"/>
@@ -7241,196 +7323,196 @@
       <c r="G103" s="18"/>
       <c r="H103" s="18"/>
     </row>
-    <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="102"/>
-      <c r="B104" s="102"/>
-      <c r="F104" s="100"/>
-      <c r="G104" s="100"/>
-      <c r="H104" s="100"/>
-      <c r="I104" s="100"/>
-    </row>
-    <row r="105" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="102"/>
-      <c r="B105" s="102"/>
-      <c r="F105" s="100"/>
-      <c r="G105" s="100"/>
-      <c r="H105" s="100"/>
-      <c r="I105" s="100"/>
-    </row>
-    <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="118" t="s">
+    <row r="104" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A104" s="124"/>
+      <c r="B104" s="124"/>
+      <c r="F104" s="109"/>
+      <c r="G104" s="109"/>
+      <c r="H104" s="109"/>
+      <c r="I104" s="109"/>
+    </row>
+    <row r="105" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="124"/>
+      <c r="B105" s="124"/>
+      <c r="F105" s="109"/>
+      <c r="G105" s="109"/>
+      <c r="H105" s="109"/>
+      <c r="I105" s="109"/>
+    </row>
+    <row r="106" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="B106" s="119"/>
-      <c r="C106" s="119"/>
-      <c r="D106" s="120"/>
+      <c r="B106" s="145"/>
+      <c r="C106" s="145"/>
+      <c r="D106" s="146"/>
       <c r="F106" s="18"/>
       <c r="G106" s="18"/>
       <c r="H106" s="18"/>
     </row>
-    <row r="107" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="101"/>
-      <c r="B107" s="102"/>
-      <c r="C107" s="96" t="s">
+    <row r="107" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="123"/>
+      <c r="B107" s="124"/>
+      <c r="C107" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="D107" s="99"/>
+      <c r="D107" s="97"/>
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
       <c r="H107" s="18"/>
     </row>
-    <row r="108" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="116" t="s">
+    <row r="108" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="117"/>
-      <c r="C108" s="93" t="s">
+      <c r="B108" s="118"/>
+      <c r="C108" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D108" s="98" t="s">
+      <c r="D108" s="96" t="s">
         <v>28</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
       <c r="H108" s="18"/>
     </row>
-    <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="B109" s="102"/>
-      <c r="C109" s="94">
-        <f>J23-D119</f>
-        <v>4.5661872852305052E-3</v>
+    <row r="109" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A109" s="123" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" s="124"/>
+      <c r="C109" s="92">
+        <f>P69-J23</f>
+        <v>-3.5464491657366537E-4</v>
       </c>
       <c r="D109" s="90">
-        <f>D121-J23</f>
-        <v>3.1278819061841823E-3</v>
+        <f>P74-J23</f>
+        <v>1.3226556162160286E-3</v>
       </c>
       <c r="E109" s="18"/>
       <c r="F109" s="18"/>
       <c r="G109" s="18"/>
       <c r="H109" s="18"/>
     </row>
-    <row r="110" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B110" s="102"/>
-      <c r="C110" s="94">
-        <f>J23-P69</f>
-        <v>3.0398135706288798E-4</v>
+    <row r="110" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A110" s="123" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" s="124"/>
+      <c r="C110" s="92">
+        <f>D123-J23</f>
+        <v>-1.0615660962771889E-2</v>
       </c>
       <c r="D110" s="90">
-        <f>P74-J23</f>
-        <v>1.1337048138995165E-3</v>
+        <f>D125-J23</f>
+        <v>4.319792772729647E-3</v>
       </c>
       <c r="E110" s="18"/>
       <c r="F110" s="18"/>
       <c r="G110" s="18"/>
       <c r="H110" s="18"/>
     </row>
-    <row r="111" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B111" s="102"/>
-      <c r="C111" s="94">
-        <f>J23-D119</f>
-        <v>4.5661872852305052E-3</v>
+    <row r="111" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A111" s="123" t="s">
+        <v>98</v>
+      </c>
+      <c r="B111" s="124"/>
+      <c r="C111" s="92">
+        <f>D131-J23</f>
+        <v>-4.5564937465779609E-3</v>
       </c>
       <c r="D111" s="90">
-        <f>D121-J23</f>
-        <v>3.1278819061841823E-3</v>
+        <f>D133-J23</f>
+        <v>9.4138880235901112E-3</v>
       </c>
       <c r="E111" s="39"/>
       <c r="F111" s="28"/>
       <c r="G111" s="28"/>
       <c r="H111" s="28"/>
     </row>
-    <row r="112" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="101" t="s">
-        <v>102</v>
-      </c>
-      <c r="B112" s="102"/>
-      <c r="C112" s="94">
-        <f>J23-D131</f>
-        <v>3.4339899392631379E-3</v>
+    <row r="112" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A112" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" s="124"/>
+      <c r="C112" s="92">
+        <f>D119-J23</f>
+        <v>-1.0615660962771889E-2</v>
       </c>
       <c r="D112" s="90">
-        <f>J23-D133</f>
-        <v>-5.4933703397117561E-3</v>
+        <f>D121-J23</f>
+        <v>1.9566120205893212E-2</v>
       </c>
       <c r="E112" s="29"/>
       <c r="F112" s="29"/>
       <c r="G112" s="29"/>
       <c r="H112" s="29"/>
     </row>
-    <row r="113" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B113" s="102"/>
-      <c r="C113" s="94">
+    <row r="113" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A113" s="123" t="s">
+        <v>100</v>
+      </c>
+      <c r="B113" s="124"/>
+      <c r="C113" s="92">
+        <f>D129-J23</f>
+        <v>-4.7069440117951E-2</v>
+      </c>
+      <c r="D113" s="90">
         <f>D127-J23</f>
-        <v>3.5566553478123097E-2</v>
-      </c>
-      <c r="D113" s="90">
-        <f>J23-D129</f>
-        <v>2.8992782476031764E-2</v>
+        <v>5.9397150625033257E-2</v>
       </c>
       <c r="E113" s="29"/>
       <c r="F113" s="29"/>
       <c r="G113" s="17"/>
       <c r="H113" s="17"/>
     </row>
-    <row r="114" spans="1:8" s="89" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A114" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="B114" s="102"/>
-      <c r="C114" s="94">
-        <f>J23-P59</f>
-        <v>9.7440052472172356E-2</v>
+    <row r="114" spans="1:8" s="89" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A114" s="123" t="s">
+        <v>101</v>
+      </c>
+      <c r="B114" s="124"/>
+      <c r="C114" s="92">
+        <f>P59-J23</f>
+        <v>-0.12017606471567932</v>
       </c>
       <c r="D114" s="90">
         <f>P64-J23</f>
-        <v>0.14274726286185424</v>
-      </c>
-      <c r="E114" s="96"/>
-      <c r="F114" s="96"/>
-      <c r="G114" s="96"/>
-      <c r="H114" s="96"/>
-    </row>
-    <row r="115" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A115" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B115" s="102"/>
-      <c r="C115" s="94">
-        <f>J23-P49</f>
         <v>0</v>
       </c>
-      <c r="D115" s="90">
-        <f>P54-J23</f>
-        <v>-0.24999999999999989</v>
+      <c r="E114" s="94"/>
+      <c r="F114" s="94"/>
+      <c r="G114" s="94"/>
+      <c r="H114" s="94"/>
+    </row>
+    <row r="115" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A115" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="124"/>
+      <c r="C115" s="98">
+        <f xml:space="preserve"> P79-J23</f>
+        <v>-0.26666666666666672</v>
+      </c>
+      <c r="D115" s="101">
+        <f xml:space="preserve"> P84-J23</f>
+        <v>0</v>
       </c>
       <c r="E115" s="18"/>
       <c r="F115" s="30"/>
       <c r="G115" s="18"/>
       <c r="H115" s="18"/>
     </row>
-    <row r="116" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="B116" s="104"/>
-      <c r="C116" s="91">
-        <f xml:space="preserve"> J23-P79</f>
-        <v>0.21052631578947362</v>
-      </c>
-      <c r="D116" s="92">
-        <f xml:space="preserve"> P84-J23</f>
+    <row r="116" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="125" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116" s="126"/>
+      <c r="C116" s="100">
+        <f>P54-J23</f>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="D116" s="102">
+        <f>P49-J23</f>
         <v>0</v>
       </c>
       <c r="E116" s="18"/>
@@ -7438,17 +7520,13 @@
       <c r="G116" s="18"/>
       <c r="H116" s="18"/>
     </row>
-    <row r="117" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="73"/>
-      <c r="B117" s="73"/>
-      <c r="C117" s="69"/>
-      <c r="D117" s="69"/>
+    <row r="117" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="E117" s="18"/>
       <c r="F117" s="30"/>
       <c r="G117" s="18"/>
       <c r="H117" s="18"/>
     </row>
-    <row r="118" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="73"/>
       <c r="B118" s="73"/>
       <c r="C118" s="69"/>
@@ -7458,19 +7536,19 @@
       <c r="G118" s="18"/>
       <c r="H118" s="18"/>
     </row>
-    <row r="119" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="73"/>
       <c r="B119" s="73"/>
       <c r="C119" s="69" t="s">
         <v>90</v>
       </c>
       <c r="D119" s="86">
-        <v>0.64545329905049531</v>
+        <v>0.82307231728713504</v>
       </c>
       <c r="E119" s="87"/>
       <c r="F119" s="30"/>
     </row>
-    <row r="120" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="69"/>
       <c r="B120" s="69"/>
       <c r="C120" s="69"/>
@@ -7478,98 +7556,269 @@
       <c r="E120" s="30"/>
       <c r="F120" s="30"/>
     </row>
-    <row r="121" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="C121" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D121" s="86">
-        <v>0.65314736824191</v>
-      </c>
-      <c r="E121" s="87"/>
+      <c r="D121" s="133">
+        <v>0.85325409845580014</v>
+      </c>
+      <c r="E121" s="133"/>
       <c r="F121" s="30"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C122" s="30"/>
       <c r="D122" s="30"/>
       <c r="E122" s="30"/>
       <c r="F122" s="30"/>
     </row>
-    <row r="123" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="C123" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="D123" s="95">
-        <v>0.63878366487866667</v>
-      </c>
-      <c r="E123" s="95"/>
-    </row>
-    <row r="124" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D123" s="93">
+        <v>0.82307231728713504</v>
+      </c>
+      <c r="E123" s="93"/>
+    </row>
+    <row r="124" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="C124" s="85"/>
       <c r="D124" s="85"/>
-      <c r="E124" s="97"/>
-    </row>
-    <row r="125" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E124" s="95"/>
+    </row>
+    <row r="125" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="C125" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="D125" s="95">
-        <v>0.65365333356367472</v>
-      </c>
-      <c r="E125" s="95"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E126" s="97"/>
-    </row>
-    <row r="127" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D125" s="93">
+        <v>0.83800777102263657</v>
+      </c>
+      <c r="E125" s="93"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E126" s="95"/>
+    </row>
+    <row r="127" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="C127" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="D127" s="95">
-        <v>0.68558603981384891</v>
-      </c>
-      <c r="E127" s="95"/>
-    </row>
-    <row r="128" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D127" s="93">
+        <v>0.89308512887494018</v>
+      </c>
+      <c r="E127" s="93"/>
+    </row>
+    <row r="128" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="C128" s="88"/>
       <c r="D128" s="88"/>
-      <c r="E128" s="97"/>
-    </row>
-    <row r="129" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E128" s="95"/>
+    </row>
+    <row r="129" spans="3:5" ht="19" x14ac:dyDescent="0.25">
       <c r="C129" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="D129" s="95">
-        <v>0.62102670385969405</v>
-      </c>
-      <c r="E129" s="95"/>
-    </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E130" s="97"/>
-    </row>
-    <row r="131" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C131" s="94" t="s">
+      <c r="D129" s="93">
+        <v>0.78661853813195592</v>
+      </c>
+      <c r="E129" s="93"/>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E130" s="95"/>
+    </row>
+    <row r="131" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C131" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="D131" s="95">
-        <v>0.64658549639646268</v>
-      </c>
-      <c r="E131" s="95"/>
-    </row>
-    <row r="132" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C132" s="94"/>
-      <c r="E132" s="97"/>
-    </row>
-    <row r="133" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C133" s="94" t="s">
+      <c r="D131" s="93">
+        <v>0.82913148450332896</v>
+      </c>
+      <c r="E131" s="93"/>
+    </row>
+    <row r="132" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C132" s="92"/>
+      <c r="E132" s="95"/>
+    </row>
+    <row r="133" spans="3:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="C133" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="D133" s="95">
-        <v>0.65551285667543757</v>
-      </c>
-      <c r="E133" s="95"/>
+      <c r="D133" s="93">
+        <v>0.84310186627349704</v>
+      </c>
+      <c r="E133" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="194">
+  <mergeCells count="195">
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="M22:R41"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
     <mergeCell ref="Q16:S16"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="Q12:S12"/>
@@ -7594,176 +7843,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="M22:R41"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7775,13 +7854,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB55E232-3C1C-440F-9975-922DCC180301}">
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView topLeftCell="Q61" workbookViewId="0">
-      <selection activeCell="Y65" sqref="Y65:Z68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
         <v>81</v>
       </c>
@@ -7811,7 +7890,7 @@
       <c r="Y1" s="52"/>
       <c r="Z1" s="52"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
@@ -7839,12 +7918,12 @@
       <c r="Y2" s="52"/>
       <c r="Z2" s="52"/>
     </row>
-    <row r="3" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="122" t="s">
+    <row r="3" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="140"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
       <c r="D3" s="77"/>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -7857,26 +7936,26 @@
       <c r="M3" s="52"/>
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
-      <c r="P3" s="136" t="s">
+      <c r="P3" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
       <c r="S3" s="61"/>
       <c r="T3" s="61"/>
       <c r="U3" s="61"/>
       <c r="V3" s="61"/>
       <c r="W3" s="61"/>
       <c r="X3" s="60"/>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="131"/>
-    </row>
-    <row r="4" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="116" t="s">
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="128"/>
+    </row>
+    <row r="4" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="141"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="78" t="s">
         <v>4</v>
       </c>
@@ -7920,15 +7999,15 @@
       <c r="X4" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-    </row>
-    <row r="5" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
+    </row>
+    <row r="5" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="132"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="66">
         <v>1137</v>
       </c>
@@ -7974,15 +8053,15 @@
       <c r="X5" s="69">
         <v>0.22099447513812154</v>
       </c>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-    </row>
-    <row r="6" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="111" t="s">
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+    </row>
+    <row r="6" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="132"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="66">
         <v>851.98</v>
       </c>
@@ -8028,17 +8107,17 @@
       <c r="X6" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="Y6" s="132" t="s">
+      <c r="Y6" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Z6" s="132"/>
-    </row>
-    <row r="7" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="111" t="s">
+      <c r="Z6" s="110"/>
+    </row>
+    <row r="7" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="132"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="66">
         <v>1137</v>
       </c>
@@ -8094,17 +8173,17 @@
       <c r="X7" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="Y7" s="116" t="s">
+      <c r="Y7" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="Z7" s="138"/>
-    </row>
-    <row r="8" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="111" t="s">
+      <c r="Z7" s="132"/>
+    </row>
+    <row r="8" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="132"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="66">
         <v>1137</v>
       </c>
@@ -8160,17 +8239,17 @@
       <c r="X8" s="70">
         <v>1</v>
       </c>
-      <c r="Y8" s="110">
+      <c r="Y8" s="133">
         <v>0.64545329905049531</v>
       </c>
-      <c r="Z8" s="110"/>
-    </row>
-    <row r="9" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="113" t="s">
+      <c r="Z8" s="133"/>
+    </row>
+    <row r="9" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="139"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="67">
         <v>1137</v>
       </c>
@@ -8222,15 +8301,15 @@
       <c r="X9" s="70">
         <v>0.23870967741934684</v>
       </c>
-      <c r="Y9" s="132">
+      <c r="Y9" s="110">
         <v>0.25034564219037447</v>
       </c>
-      <c r="Z9" s="132"/>
-    </row>
-    <row r="10" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
+      <c r="Z9" s="110"/>
+    </row>
+    <row r="10" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="69"/>
       <c r="E10" s="69"/>
       <c r="F10" s="69"/>
@@ -8270,12 +8349,12 @@
       <c r="X10" s="70">
         <v>0</v>
       </c>
-      <c r="Y10" s="132">
+      <c r="Y10" s="110">
         <v>0.22289592813980619</v>
       </c>
-      <c r="Z10" s="132"/>
-    </row>
-    <row r="11" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z10" s="110"/>
+    </row>
+    <row r="11" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="52"/>
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
@@ -8318,12 +8397,12 @@
       <c r="X11" s="70">
         <v>0.81612903225805888</v>
       </c>
-      <c r="Y11" s="139">
+      <c r="Y11" s="113">
         <v>0.34271136121024209</v>
       </c>
-      <c r="Z11" s="139"/>
-    </row>
-    <row r="12" spans="1:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z11" s="113"/>
+    </row>
+    <row r="12" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="81" t="s">
         <v>82</v>
       </c>
@@ -8353,7 +8432,7 @@
       <c r="Y12" s="52"/>
       <c r="Z12" s="52"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52"/>
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
@@ -8381,12 +8460,12 @@
       <c r="Y13" s="52"/>
       <c r="Z13" s="52"/>
     </row>
-    <row r="14" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="122" t="s">
+    <row r="14" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="140"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="77"/>
       <c r="E14" s="77"/>
       <c r="F14" s="77"/>
@@ -8399,26 +8478,26 @@
       <c r="M14" s="52"/>
       <c r="N14" s="52"/>
       <c r="O14" s="52"/>
-      <c r="P14" s="136" t="s">
+      <c r="P14" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="137"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="131"/>
       <c r="S14" s="61"/>
       <c r="T14" s="61"/>
       <c r="U14" s="61"/>
       <c r="V14" s="61"/>
       <c r="W14" s="61"/>
       <c r="X14" s="60"/>
-      <c r="Y14" s="130"/>
-      <c r="Z14" s="131"/>
-    </row>
-    <row r="15" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="116" t="s">
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="128"/>
+    </row>
+    <row r="15" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="141"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="119"/>
       <c r="D15" s="78" t="s">
         <v>4</v>
       </c>
@@ -8462,15 +8541,15 @@
       <c r="X15" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="Y15" s="132"/>
-      <c r="Z15" s="132"/>
-    </row>
-    <row r="16" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="111" t="s">
+      <c r="Y15" s="110"/>
+      <c r="Z15" s="110"/>
+    </row>
+    <row r="16" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="132"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
       <c r="D16" s="66">
         <v>1137</v>
       </c>
@@ -8516,15 +8595,15 @@
       <c r="X16" s="69">
         <v>0.19047619047619047</v>
       </c>
-      <c r="Y16" s="132"/>
-      <c r="Z16" s="132"/>
-    </row>
-    <row r="17" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="111" t="s">
+      <c r="Y16" s="110"/>
+      <c r="Z16" s="110"/>
+    </row>
+    <row r="17" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="132"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="66">
         <v>851.98</v>
       </c>
@@ -8570,17 +8649,17 @@
       <c r="X17" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="Y17" s="132" t="s">
+      <c r="Y17" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Z17" s="132"/>
-    </row>
-    <row r="18" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="111" t="s">
+      <c r="Z17" s="110"/>
+    </row>
+    <row r="18" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="132"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
       <c r="D18" s="66">
         <v>1137</v>
       </c>
@@ -8636,17 +8715,17 @@
       <c r="X18" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="Y18" s="116" t="s">
+      <c r="Y18" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="Z18" s="138"/>
-    </row>
-    <row r="19" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="111" t="s">
+      <c r="Z18" s="132"/>
+    </row>
+    <row r="19" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="132"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
       <c r="D19" s="66">
         <v>1137</v>
       </c>
@@ -8702,17 +8781,17 @@
       <c r="X19" s="70">
         <v>1</v>
       </c>
-      <c r="Y19" s="147">
+      <c r="Y19" s="150">
         <v>0.65314736824191</v>
       </c>
-      <c r="Z19" s="148"/>
-    </row>
-    <row r="20" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="113" t="s">
+      <c r="Z19" s="151"/>
+    </row>
+    <row r="20" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="139"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="67">
         <v>1137</v>
       </c>
@@ -8764,15 +8843,15 @@
       <c r="X20" s="70">
         <v>0.23870967741934684</v>
       </c>
-      <c r="Y20" s="100">
+      <c r="Y20" s="109">
         <v>0.21401602566149683</v>
       </c>
-      <c r="Z20" s="132"/>
-    </row>
-    <row r="21" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
+      <c r="Z20" s="110"/>
+    </row>
+    <row r="21" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="109"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="69"/>
       <c r="E21" s="69"/>
       <c r="F21" s="69"/>
@@ -8812,12 +8891,12 @@
       <c r="X21" s="70">
         <v>0</v>
       </c>
-      <c r="Y21" s="100">
+      <c r="Y21" s="109">
         <v>0.22209677753718349</v>
       </c>
-      <c r="Z21" s="132"/>
-    </row>
-    <row r="22" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z21" s="110"/>
+    </row>
+    <row r="22" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="52"/>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -8860,12 +8939,12 @@
       <c r="X22" s="70">
         <v>0.81612903225805888</v>
       </c>
-      <c r="Y22" s="114">
+      <c r="Y22" s="112">
         <v>0.29497562536170796</v>
       </c>
-      <c r="Z22" s="139"/>
-    </row>
-    <row r="23" spans="1:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z22" s="113"/>
+    </row>
+    <row r="23" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="81" t="s">
         <v>83</v>
       </c>
@@ -8895,7 +8974,7 @@
       <c r="Y23" s="52"/>
       <c r="Z23" s="52"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
@@ -8923,12 +9002,12 @@
       <c r="Y24" s="52"/>
       <c r="Z24" s="52"/>
     </row>
-    <row r="25" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="122" t="s">
+    <row r="25" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="123"/>
-      <c r="C25" s="140"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="116"/>
       <c r="D25" s="77"/>
       <c r="E25" s="77"/>
       <c r="F25" s="77"/>
@@ -8941,26 +9020,26 @@
       <c r="M25" s="52"/>
       <c r="N25" s="52"/>
       <c r="O25" s="52"/>
-      <c r="P25" s="136" t="s">
+      <c r="P25" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="Q25" s="137"/>
-      <c r="R25" s="137"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="131"/>
       <c r="S25" s="61"/>
       <c r="T25" s="61"/>
       <c r="U25" s="61"/>
       <c r="V25" s="61"/>
       <c r="W25" s="61"/>
       <c r="X25" s="60"/>
-      <c r="Y25" s="130"/>
-      <c r="Z25" s="131"/>
-    </row>
-    <row r="26" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="116" t="s">
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="128"/>
+    </row>
+    <row r="26" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="141"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="119"/>
       <c r="D26" s="78" t="s">
         <v>4</v>
       </c>
@@ -9004,15 +9083,15 @@
       <c r="X26" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="Y26" s="132"/>
-      <c r="Z26" s="132"/>
-    </row>
-    <row r="27" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="111" t="s">
+      <c r="Y26" s="110"/>
+      <c r="Z26" s="110"/>
+    </row>
+    <row r="27" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="100"/>
-      <c r="C27" s="132"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="110"/>
       <c r="D27" s="66">
         <v>1137</v>
       </c>
@@ -9058,15 +9137,15 @@
       <c r="X27" s="69">
         <v>0.22099447513812154</v>
       </c>
-      <c r="Y27" s="132"/>
-      <c r="Z27" s="132"/>
-    </row>
-    <row r="28" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="111" t="s">
+      <c r="Y27" s="110"/>
+      <c r="Z27" s="110"/>
+    </row>
+    <row r="28" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="132"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
       <c r="D28" s="66">
         <v>851.98</v>
       </c>
@@ -9112,17 +9191,17 @@
       <c r="X28" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="Y28" s="132" t="s">
+      <c r="Y28" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Z28" s="132"/>
-    </row>
-    <row r="29" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="111" t="s">
+      <c r="Z28" s="110"/>
+    </row>
+    <row r="29" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="100"/>
-      <c r="C29" s="132"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
       <c r="D29" s="66">
         <v>1137</v>
       </c>
@@ -9178,17 +9257,17 @@
       <c r="X29" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="Y29" s="116" t="s">
+      <c r="Y29" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="Z29" s="138"/>
-    </row>
-    <row r="30" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="111" t="s">
+      <c r="Z29" s="132"/>
+    </row>
+    <row r="30" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="100"/>
-      <c r="C30" s="132"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="110"/>
       <c r="D30" s="66">
         <v>1137</v>
       </c>
@@ -9244,17 +9323,17 @@
       <c r="X30" s="70">
         <v>1</v>
       </c>
-      <c r="Y30" s="110">
+      <c r="Y30" s="133">
         <v>0.63878366487866667</v>
       </c>
-      <c r="Z30" s="110"/>
-    </row>
-    <row r="31" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="113" t="s">
+      <c r="Z30" s="133"/>
+    </row>
+    <row r="31" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="114"/>
-      <c r="C31" s="139"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="67">
         <v>1137</v>
       </c>
@@ -9306,15 +9385,15 @@
       <c r="X31" s="70">
         <v>0.23870967741934684</v>
       </c>
-      <c r="Y31" s="132">
+      <c r="Y31" s="110">
         <v>0.24014376958282968</v>
       </c>
-      <c r="Z31" s="132"/>
-    </row>
-    <row r="32" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
+      <c r="Z31" s="110"/>
+    </row>
+    <row r="32" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="69"/>
       <c r="E32" s="69"/>
       <c r="F32" s="69"/>
@@ -9354,12 +9433,12 @@
       <c r="X32" s="70">
         <v>0</v>
       </c>
-      <c r="Y32" s="132">
+      <c r="Y32" s="110">
         <v>0.23471771791618792</v>
       </c>
-      <c r="Z32" s="132"/>
-    </row>
-    <row r="33" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z32" s="110"/>
+    </row>
+    <row r="33" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="52"/>
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
@@ -9402,12 +9481,12 @@
       <c r="X33" s="70">
         <v>0.81612903225805888</v>
       </c>
-      <c r="Y33" s="139">
+      <c r="Y33" s="113">
         <v>0.30758335108963808</v>
       </c>
-      <c r="Z33" s="139"/>
-    </row>
-    <row r="35" spans="1:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z33" s="113"/>
+    </row>
+    <row r="35" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="82" t="s">
         <v>84</v>
       </c>
@@ -9437,7 +9516,7 @@
       <c r="Y35" s="52"/>
       <c r="Z35" s="52"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
       <c r="B36" s="52"/>
       <c r="C36" s="52"/>
@@ -9465,12 +9544,12 @@
       <c r="Y36" s="52"/>
       <c r="Z36" s="52"/>
     </row>
-    <row r="37" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="122" t="s">
+    <row r="37" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="123"/>
-      <c r="C37" s="140"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="116"/>
       <c r="D37" s="77"/>
       <c r="E37" s="77"/>
       <c r="F37" s="77"/>
@@ -9483,26 +9562,26 @@
       <c r="M37" s="52"/>
       <c r="N37" s="52"/>
       <c r="O37" s="52"/>
-      <c r="P37" s="136" t="s">
+      <c r="P37" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="Q37" s="137"/>
-      <c r="R37" s="137"/>
+      <c r="Q37" s="131"/>
+      <c r="R37" s="131"/>
       <c r="S37" s="61"/>
       <c r="T37" s="61"/>
       <c r="U37" s="61"/>
       <c r="V37" s="61"/>
       <c r="W37" s="61"/>
       <c r="X37" s="60"/>
-      <c r="Y37" s="130"/>
-      <c r="Z37" s="131"/>
-    </row>
-    <row r="38" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="116" t="s">
+      <c r="Y37" s="127"/>
+      <c r="Z37" s="128"/>
+    </row>
+    <row r="38" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="117"/>
-      <c r="C38" s="141"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="119"/>
       <c r="D38" s="78" t="s">
         <v>4</v>
       </c>
@@ -9546,15 +9625,15 @@
       <c r="X38" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="Y38" s="132"/>
-      <c r="Z38" s="132"/>
-    </row>
-    <row r="39" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="111" t="s">
+      <c r="Y38" s="110"/>
+      <c r="Z38" s="110"/>
+    </row>
+    <row r="39" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="100"/>
-      <c r="C39" s="132"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="110"/>
       <c r="D39" s="66">
         <v>1137</v>
       </c>
@@ -9600,15 +9679,15 @@
       <c r="X39" s="69">
         <v>0.20618556701030927</v>
       </c>
-      <c r="Y39" s="132"/>
-      <c r="Z39" s="132"/>
-    </row>
-    <row r="40" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="111" t="s">
+      <c r="Y39" s="110"/>
+      <c r="Z39" s="110"/>
+    </row>
+    <row r="40" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="100"/>
-      <c r="C40" s="132"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="110"/>
       <c r="D40" s="66">
         <v>851.98</v>
       </c>
@@ -9654,17 +9733,17 @@
       <c r="X40" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="Y40" s="132" t="s">
+      <c r="Y40" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Z40" s="132"/>
-    </row>
-    <row r="41" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="111" t="s">
+      <c r="Z40" s="110"/>
+    </row>
+    <row r="41" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="132"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="110"/>
       <c r="D41" s="66">
         <v>1137</v>
       </c>
@@ -9720,17 +9799,17 @@
       <c r="X41" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="Y41" s="116" t="s">
+      <c r="Y41" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="Z41" s="138"/>
-    </row>
-    <row r="42" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="111" t="s">
+      <c r="Z41" s="132"/>
+    </row>
+    <row r="42" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="100"/>
-      <c r="C42" s="132"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="110"/>
       <c r="D42" s="66">
         <v>1137</v>
       </c>
@@ -9786,17 +9865,17 @@
       <c r="X42" s="70">
         <v>1</v>
       </c>
-      <c r="Y42" s="110">
+      <c r="Y42" s="133">
         <v>0.65365333356367472</v>
       </c>
-      <c r="Z42" s="110"/>
-    </row>
-    <row r="43" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="113" t="s">
+      <c r="Z42" s="133"/>
+    </row>
+    <row r="43" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="114"/>
-      <c r="C43" s="139"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="113"/>
       <c r="D43" s="67">
         <v>1137</v>
       </c>
@@ -9848,15 +9927,15 @@
       <c r="X43" s="70">
         <v>0.23870967741934684</v>
       </c>
-      <c r="Y43" s="132">
+      <c r="Y43" s="110">
         <v>0.23663124252507559</v>
       </c>
-      <c r="Z43" s="132"/>
-    </row>
-    <row r="44" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="100"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
+      <c r="Z43" s="110"/>
+    </row>
+    <row r="44" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="109"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="69"/>
       <c r="E44" s="69"/>
       <c r="F44" s="69"/>
@@ -9896,12 +9975,12 @@
       <c r="X44" s="70">
         <v>0</v>
       </c>
-      <c r="Y44" s="132">
+      <c r="Y44" s="110">
         <v>0.21842568655519562</v>
       </c>
-      <c r="Z44" s="132"/>
-    </row>
-    <row r="45" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z44" s="110"/>
+    </row>
+    <row r="45" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="52"/>
       <c r="B45" s="52"/>
       <c r="C45" s="52"/>
@@ -9944,12 +10023,12 @@
       <c r="X45" s="70">
         <v>0.81612903225805888</v>
       </c>
-      <c r="Y45" s="139">
+      <c r="Y45" s="113">
         <v>0.33326783326402654</v>
       </c>
-      <c r="Z45" s="139"/>
-    </row>
-    <row r="46" spans="1:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z45" s="113"/>
+    </row>
+    <row r="46" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="82" t="s">
         <v>85</v>
       </c>
@@ -9979,7 +10058,7 @@
       <c r="Y46" s="52"/>
       <c r="Z46" s="52"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="52"/>
       <c r="B47" s="52"/>
       <c r="C47" s="52"/>
@@ -10007,12 +10086,12 @@
       <c r="Y47" s="52"/>
       <c r="Z47" s="52"/>
     </row>
-    <row r="48" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="122" t="s">
+    <row r="48" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="123"/>
-      <c r="C48" s="140"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="116"/>
       <c r="D48" s="77"/>
       <c r="E48" s="77"/>
       <c r="F48" s="77"/>
@@ -10025,26 +10104,26 @@
       <c r="M48" s="52"/>
       <c r="N48" s="52"/>
       <c r="O48" s="52"/>
-      <c r="P48" s="136" t="s">
+      <c r="P48" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="Q48" s="137"/>
-      <c r="R48" s="137"/>
+      <c r="Q48" s="131"/>
+      <c r="R48" s="131"/>
       <c r="S48" s="61"/>
       <c r="T48" s="61"/>
       <c r="U48" s="61"/>
       <c r="V48" s="61"/>
       <c r="W48" s="61"/>
       <c r="X48" s="60"/>
-      <c r="Y48" s="130"/>
-      <c r="Z48" s="131"/>
-    </row>
-    <row r="49" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="116" t="s">
+      <c r="Y48" s="127"/>
+      <c r="Z48" s="128"/>
+    </row>
+    <row r="49" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="117"/>
-      <c r="C49" s="141"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="119"/>
       <c r="D49" s="78" t="s">
         <v>4</v>
       </c>
@@ -10088,15 +10167,15 @@
       <c r="X49" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="Y49" s="132"/>
-      <c r="Z49" s="132"/>
-    </row>
-    <row r="50" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="111" t="s">
+      <c r="Y49" s="110"/>
+      <c r="Z49" s="110"/>
+    </row>
+    <row r="50" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="100"/>
-      <c r="C50" s="132"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="110"/>
       <c r="D50" s="66">
         <v>1137</v>
       </c>
@@ -10142,15 +10221,15 @@
       <c r="X50" s="69">
         <v>0.22222222222222221</v>
       </c>
-      <c r="Y50" s="132"/>
-      <c r="Z50" s="132"/>
-    </row>
-    <row r="51" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="111" t="s">
+      <c r="Y50" s="110"/>
+      <c r="Z50" s="110"/>
+    </row>
+    <row r="51" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="100"/>
-      <c r="C51" s="132"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="110"/>
       <c r="D51" s="66">
         <v>851.98</v>
       </c>
@@ -10196,17 +10275,17 @@
       <c r="X51" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="Y51" s="132" t="s">
+      <c r="Y51" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Z51" s="132"/>
-    </row>
-    <row r="52" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="111" t="s">
+      <c r="Z51" s="110"/>
+    </row>
+    <row r="52" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="100"/>
-      <c r="C52" s="132"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="110"/>
       <c r="D52" s="66">
         <v>1137</v>
       </c>
@@ -10262,17 +10341,17 @@
       <c r="X52" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="Y52" s="116" t="s">
+      <c r="Y52" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="Z52" s="138"/>
-    </row>
-    <row r="53" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="111" t="s">
+      <c r="Z52" s="132"/>
+    </row>
+    <row r="53" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="100"/>
-      <c r="C53" s="132"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="110"/>
       <c r="D53" s="66">
         <v>1137</v>
       </c>
@@ -10328,17 +10407,17 @@
       <c r="X53" s="70">
         <v>1</v>
       </c>
-      <c r="Y53" s="110">
+      <c r="Y53" s="133">
         <v>0.68558603981384891</v>
       </c>
-      <c r="Z53" s="110"/>
-    </row>
-    <row r="54" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="113" t="s">
+      <c r="Z53" s="133"/>
+    </row>
+    <row r="54" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="114"/>
-      <c r="C54" s="139"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="113"/>
       <c r="D54" s="67">
         <v>1137</v>
       </c>
@@ -10390,15 +10469,15 @@
       <c r="X54" s="70">
         <v>0.23870967741934684</v>
       </c>
-      <c r="Y54" s="132">
+      <c r="Y54" s="110">
         <v>0.19707901385449211</v>
       </c>
-      <c r="Z54" s="132"/>
-    </row>
-    <row r="55" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="100"/>
-      <c r="B55" s="100"/>
-      <c r="C55" s="100"/>
+      <c r="Z54" s="110"/>
+    </row>
+    <row r="55" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="109"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="109"/>
       <c r="D55" s="69"/>
       <c r="E55" s="69"/>
       <c r="F55" s="69"/>
@@ -10438,12 +10517,12 @@
       <c r="X55" s="70">
         <v>0</v>
       </c>
-      <c r="Y55" s="132">
+      <c r="Y55" s="110">
         <v>0.18157113308380063</v>
       </c>
-      <c r="Z55" s="132"/>
-    </row>
-    <row r="56" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z55" s="110"/>
+    </row>
+    <row r="56" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="52"/>
       <c r="B56" s="52"/>
       <c r="C56" s="52"/>
@@ -10486,12 +10565,12 @@
       <c r="X56" s="70">
         <v>0.81612903225805888</v>
       </c>
-      <c r="Y56" s="139">
+      <c r="Y56" s="113">
         <v>0.34469244231508572</v>
       </c>
-      <c r="Z56" s="139"/>
-    </row>
-    <row r="58" spans="1:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z56" s="113"/>
+    </row>
+    <row r="58" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="82" t="s">
         <v>86</v>
       </c>
@@ -10521,7 +10600,7 @@
       <c r="Y58" s="52"/>
       <c r="Z58" s="52"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="52"/>
       <c r="B59" s="52"/>
       <c r="C59" s="52"/>
@@ -10549,12 +10628,12 @@
       <c r="Y59" s="52"/>
       <c r="Z59" s="52"/>
     </row>
-    <row r="60" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="122" t="s">
+    <row r="60" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="123"/>
-      <c r="C60" s="140"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="116"/>
       <c r="D60" s="77"/>
       <c r="E60" s="77"/>
       <c r="F60" s="77"/>
@@ -10567,26 +10646,26 @@
       <c r="M60" s="52"/>
       <c r="N60" s="52"/>
       <c r="O60" s="52"/>
-      <c r="P60" s="136" t="s">
+      <c r="P60" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="Q60" s="137"/>
-      <c r="R60" s="137"/>
+      <c r="Q60" s="131"/>
+      <c r="R60" s="131"/>
       <c r="S60" s="61"/>
       <c r="T60" s="61"/>
       <c r="U60" s="61"/>
       <c r="V60" s="61"/>
       <c r="W60" s="61"/>
       <c r="X60" s="60"/>
-      <c r="Y60" s="130"/>
-      <c r="Z60" s="131"/>
-    </row>
-    <row r="61" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="116" t="s">
+      <c r="Y60" s="127"/>
+      <c r="Z60" s="128"/>
+    </row>
+    <row r="61" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="117"/>
-      <c r="C61" s="141"/>
+      <c r="B61" s="118"/>
+      <c r="C61" s="119"/>
       <c r="D61" s="78" t="s">
         <v>4</v>
       </c>
@@ -10630,15 +10709,15 @@
       <c r="X61" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="Y61" s="132"/>
-      <c r="Z61" s="132"/>
-    </row>
-    <row r="62" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="111" t="s">
+      <c r="Y61" s="110"/>
+      <c r="Z61" s="110"/>
+    </row>
+    <row r="62" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="100"/>
-      <c r="C62" s="132"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="110"/>
       <c r="D62" s="66">
         <v>1137</v>
       </c>
@@ -10684,15 +10763,15 @@
       <c r="X62" s="69">
         <v>0.20100502512562815</v>
       </c>
-      <c r="Y62" s="132"/>
-      <c r="Z62" s="132"/>
-    </row>
-    <row r="63" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="111" t="s">
+      <c r="Y62" s="110"/>
+      <c r="Z62" s="110"/>
+    </row>
+    <row r="63" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="100"/>
-      <c r="C63" s="132"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="110"/>
       <c r="D63" s="66">
         <v>851.98</v>
       </c>
@@ -10738,17 +10817,17 @@
       <c r="X63" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="Y63" s="132" t="s">
+      <c r="Y63" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Z63" s="132"/>
-    </row>
-    <row r="64" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="111" t="s">
+      <c r="Z63" s="110"/>
+    </row>
+    <row r="64" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="100"/>
-      <c r="C64" s="132"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="110"/>
       <c r="D64" s="66">
         <v>1137</v>
       </c>
@@ -10804,17 +10883,17 @@
       <c r="X64" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="Y64" s="116" t="s">
+      <c r="Y64" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="Z64" s="138"/>
-    </row>
-    <row r="65" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="111" t="s">
+      <c r="Z64" s="132"/>
+    </row>
+    <row r="65" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="100"/>
-      <c r="C65" s="132"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="110"/>
       <c r="D65" s="66">
         <v>1137</v>
       </c>
@@ -10870,17 +10949,17 @@
       <c r="X65" s="70">
         <v>1</v>
       </c>
-      <c r="Y65" s="110">
+      <c r="Y65" s="133">
         <v>0.62102670385969405</v>
       </c>
-      <c r="Z65" s="110"/>
-    </row>
-    <row r="66" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="113" t="s">
+      <c r="Z65" s="133"/>
+    </row>
+    <row r="66" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="114"/>
-      <c r="C66" s="139"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="113"/>
       <c r="D66" s="67">
         <v>1137</v>
       </c>
@@ -10932,15 +11011,15 @@
       <c r="X66" s="70">
         <v>0.23870967741934684</v>
       </c>
-      <c r="Y66" s="132">
+      <c r="Y66" s="110">
         <v>0.26677749024768316</v>
       </c>
-      <c r="Z66" s="132"/>
-    </row>
-    <row r="67" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="100"/>
-      <c r="B67" s="100"/>
-      <c r="C67" s="100"/>
+      <c r="Z66" s="110"/>
+    </row>
+    <row r="67" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="109"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="109"/>
       <c r="D67" s="69"/>
       <c r="E67" s="69"/>
       <c r="F67" s="69"/>
@@ -10980,12 +11059,12 @@
       <c r="X67" s="70">
         <v>0</v>
       </c>
-      <c r="Y67" s="132">
+      <c r="Y67" s="110">
         <v>0.25286817806652895</v>
       </c>
-      <c r="Z67" s="132"/>
-    </row>
-    <row r="68" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z67" s="110"/>
+    </row>
+    <row r="68" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="52"/>
       <c r="B68" s="52"/>
       <c r="C68" s="52"/>
@@ -11028,12 +11107,12 @@
       <c r="X68" s="70">
         <v>0.81612903225805888</v>
       </c>
-      <c r="Y68" s="139">
+      <c r="Y68" s="113">
         <v>0.3113827880100003</v>
       </c>
-      <c r="Z68" s="139"/>
-    </row>
-    <row r="71" spans="1:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z68" s="113"/>
+    </row>
+    <row r="71" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="82" t="s">
         <v>87</v>
       </c>
@@ -11063,7 +11142,7 @@
       <c r="Y71" s="52"/>
       <c r="Z71" s="52"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="52"/>
       <c r="B72" s="52"/>
       <c r="C72" s="52"/>
@@ -11091,12 +11170,12 @@
       <c r="Y72" s="52"/>
       <c r="Z72" s="52"/>
     </row>
-    <row r="73" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="122" t="s">
+    <row r="73" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="123"/>
-      <c r="C73" s="140"/>
+      <c r="B73" s="115"/>
+      <c r="C73" s="116"/>
       <c r="D73" s="77"/>
       <c r="E73" s="77"/>
       <c r="F73" s="77"/>
@@ -11109,26 +11188,26 @@
       <c r="M73" s="52"/>
       <c r="N73" s="52"/>
       <c r="O73" s="52"/>
-      <c r="P73" s="136" t="s">
+      <c r="P73" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="Q73" s="137"/>
-      <c r="R73" s="137"/>
+      <c r="Q73" s="131"/>
+      <c r="R73" s="131"/>
       <c r="S73" s="61"/>
       <c r="T73" s="61"/>
       <c r="U73" s="61"/>
       <c r="V73" s="61"/>
       <c r="W73" s="61"/>
       <c r="X73" s="60"/>
-      <c r="Y73" s="130"/>
-      <c r="Z73" s="131"/>
-    </row>
-    <row r="74" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="116" t="s">
+      <c r="Y73" s="127"/>
+      <c r="Z73" s="128"/>
+    </row>
+    <row r="74" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="117"/>
-      <c r="C74" s="141"/>
+      <c r="B74" s="118"/>
+      <c r="C74" s="119"/>
       <c r="D74" s="78" t="s">
         <v>4</v>
       </c>
@@ -11172,15 +11251,15 @@
       <c r="X74" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="Y74" s="132"/>
-      <c r="Z74" s="132"/>
-    </row>
-    <row r="75" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="111" t="s">
+      <c r="Y74" s="110"/>
+      <c r="Z74" s="110"/>
+    </row>
+    <row r="75" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B75" s="100"/>
-      <c r="C75" s="132"/>
+      <c r="B75" s="109"/>
+      <c r="C75" s="110"/>
       <c r="D75" s="66">
         <v>1137</v>
       </c>
@@ -11226,15 +11305,15 @@
       <c r="X75" s="69">
         <v>0.19780219780219779</v>
       </c>
-      <c r="Y75" s="132"/>
-      <c r="Z75" s="132"/>
-    </row>
-    <row r="76" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="111" t="s">
+      <c r="Y75" s="110"/>
+      <c r="Z75" s="110"/>
+    </row>
+    <row r="76" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="B76" s="100"/>
-      <c r="C76" s="132"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="110"/>
       <c r="D76" s="66">
         <v>851.98</v>
       </c>
@@ -11280,17 +11359,17 @@
       <c r="X76" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="Y76" s="132" t="s">
+      <c r="Y76" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Z76" s="132"/>
-    </row>
-    <row r="77" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="111" t="s">
+      <c r="Z76" s="110"/>
+    </row>
+    <row r="77" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B77" s="100"/>
-      <c r="C77" s="132"/>
+      <c r="B77" s="109"/>
+      <c r="C77" s="110"/>
       <c r="D77" s="66">
         <v>1137</v>
       </c>
@@ -11346,17 +11425,17 @@
       <c r="X77" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="Y77" s="116" t="s">
+      <c r="Y77" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="Z77" s="138"/>
-    </row>
-    <row r="78" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="111" t="s">
+      <c r="Z77" s="132"/>
+    </row>
+    <row r="78" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B78" s="100"/>
-      <c r="C78" s="132"/>
+      <c r="B78" s="109"/>
+      <c r="C78" s="110"/>
       <c r="D78" s="66">
         <v>1137</v>
       </c>
@@ -11412,17 +11491,17 @@
       <c r="X78" s="70">
         <v>1</v>
       </c>
-      <c r="Y78" s="110">
+      <c r="Y78" s="133">
         <v>0.64658549639646268</v>
       </c>
-      <c r="Z78" s="110"/>
-    </row>
-    <row r="79" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="113" t="s">
+      <c r="Z78" s="133"/>
+    </row>
+    <row r="79" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="114"/>
-      <c r="C79" s="139"/>
+      <c r="B79" s="112"/>
+      <c r="C79" s="113"/>
       <c r="D79" s="67">
         <v>1137</v>
       </c>
@@ -11474,15 +11553,15 @@
       <c r="X79" s="70">
         <v>0.23870967741934684</v>
       </c>
-      <c r="Y79" s="132">
+      <c r="Y79" s="110">
         <v>0.2391077835583687</v>
       </c>
-      <c r="Z79" s="132"/>
-    </row>
-    <row r="80" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="100"/>
-      <c r="B80" s="100"/>
-      <c r="C80" s="100"/>
+      <c r="Z79" s="110"/>
+    </row>
+    <row r="80" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" s="109"/>
+      <c r="B80" s="109"/>
+      <c r="C80" s="109"/>
       <c r="D80" s="69"/>
       <c r="E80" s="69"/>
       <c r="F80" s="69"/>
@@ -11522,12 +11601,12 @@
       <c r="X80" s="70">
         <v>0</v>
       </c>
-      <c r="Y80" s="132">
+      <c r="Y80" s="110">
         <v>0.22817079687601066</v>
       </c>
-      <c r="Z80" s="132"/>
-    </row>
-    <row r="81" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z80" s="110"/>
+    </row>
+    <row r="81" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="52"/>
       <c r="B81" s="52"/>
       <c r="C81" s="52"/>
@@ -11570,12 +11649,12 @@
       <c r="X81" s="70">
         <v>0.81612903225805888</v>
       </c>
-      <c r="Y81" s="139">
+      <c r="Y81" s="113">
         <v>0.31934921978289044</v>
       </c>
-      <c r="Z81" s="139"/>
-    </row>
-    <row r="83" spans="1:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z81" s="113"/>
+    </row>
+    <row r="83" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="82" t="s">
         <v>88</v>
       </c>
@@ -11605,7 +11684,7 @@
       <c r="Y83" s="52"/>
       <c r="Z83" s="52"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="52"/>
       <c r="B84" s="52"/>
       <c r="C84" s="52"/>
@@ -11633,12 +11712,12 @@
       <c r="Y84" s="52"/>
       <c r="Z84" s="52"/>
     </row>
-    <row r="85" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="122" t="s">
+    <row r="85" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="123"/>
-      <c r="C85" s="140"/>
+      <c r="B85" s="115"/>
+      <c r="C85" s="116"/>
       <c r="D85" s="77"/>
       <c r="E85" s="77"/>
       <c r="F85" s="77"/>
@@ -11651,26 +11730,26 @@
       <c r="M85" s="52"/>
       <c r="N85" s="52"/>
       <c r="O85" s="52"/>
-      <c r="P85" s="136" t="s">
+      <c r="P85" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="Q85" s="137"/>
-      <c r="R85" s="137"/>
+      <c r="Q85" s="131"/>
+      <c r="R85" s="131"/>
       <c r="S85" s="61"/>
       <c r="T85" s="61"/>
       <c r="U85" s="61"/>
       <c r="V85" s="61"/>
       <c r="W85" s="61"/>
       <c r="X85" s="60"/>
-      <c r="Y85" s="130"/>
-      <c r="Z85" s="131"/>
-    </row>
-    <row r="86" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="116" t="s">
+      <c r="Y85" s="127"/>
+      <c r="Z85" s="128"/>
+    </row>
+    <row r="86" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="117"/>
-      <c r="C86" s="141"/>
+      <c r="B86" s="118"/>
+      <c r="C86" s="119"/>
       <c r="D86" s="78" t="s">
         <v>4</v>
       </c>
@@ -11714,15 +11793,15 @@
       <c r="X86" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="Y86" s="132"/>
-      <c r="Z86" s="132"/>
-    </row>
-    <row r="87" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="111" t="s">
+      <c r="Y86" s="110"/>
+      <c r="Z86" s="110"/>
+    </row>
+    <row r="87" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A87" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B87" s="100"/>
-      <c r="C87" s="132"/>
+      <c r="B87" s="109"/>
+      <c r="C87" s="110"/>
       <c r="D87" s="66">
         <v>1137</v>
       </c>
@@ -11768,15 +11847,15 @@
       <c r="X87" s="69">
         <v>0.23557692307692307</v>
       </c>
-      <c r="Y87" s="132"/>
-      <c r="Z87" s="132"/>
-    </row>
-    <row r="88" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="111" t="s">
+      <c r="Y87" s="110"/>
+      <c r="Z87" s="110"/>
+    </row>
+    <row r="88" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="B88" s="100"/>
-      <c r="C88" s="132"/>
+      <c r="B88" s="109"/>
+      <c r="C88" s="110"/>
       <c r="D88" s="66">
         <v>851.98</v>
       </c>
@@ -11822,17 +11901,17 @@
       <c r="X88" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="Y88" s="132" t="s">
+      <c r="Y88" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Z88" s="132"/>
-    </row>
-    <row r="89" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="111" t="s">
+      <c r="Z88" s="110"/>
+    </row>
+    <row r="89" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B89" s="100"/>
-      <c r="C89" s="132"/>
+      <c r="B89" s="109"/>
+      <c r="C89" s="110"/>
       <c r="D89" s="66">
         <v>1137</v>
       </c>
@@ -11888,17 +11967,17 @@
       <c r="X89" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="Y89" s="116" t="s">
+      <c r="Y89" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="Z89" s="138"/>
-    </row>
-    <row r="90" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="111" t="s">
+      <c r="Z89" s="132"/>
+    </row>
+    <row r="90" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B90" s="100"/>
-      <c r="C90" s="132"/>
+      <c r="B90" s="109"/>
+      <c r="C90" s="110"/>
       <c r="D90" s="66">
         <v>1137</v>
       </c>
@@ -11954,17 +12033,17 @@
       <c r="X90" s="70">
         <v>1</v>
       </c>
-      <c r="Y90" s="110">
+      <c r="Y90" s="133">
         <v>0.65551285667543757</v>
       </c>
-      <c r="Z90" s="110"/>
-    </row>
-    <row r="91" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="113" t="s">
+      <c r="Z90" s="133"/>
+    </row>
+    <row r="91" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B91" s="114"/>
-      <c r="C91" s="139"/>
+      <c r="B91" s="112"/>
+      <c r="C91" s="113"/>
       <c r="D91" s="67">
         <v>1137</v>
       </c>
@@ -12016,15 +12095,15 @@
       <c r="X91" s="70">
         <v>0.23870967741934684</v>
       </c>
-      <c r="Y91" s="132">
+      <c r="Y91" s="110">
         <v>0.23473389896399435</v>
       </c>
-      <c r="Z91" s="132"/>
-    </row>
-    <row r="92" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="100"/>
-      <c r="B92" s="100"/>
-      <c r="C92" s="100"/>
+      <c r="Z91" s="110"/>
+    </row>
+    <row r="92" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A92" s="109"/>
+      <c r="B92" s="109"/>
+      <c r="C92" s="109"/>
       <c r="D92" s="69"/>
       <c r="E92" s="69"/>
       <c r="F92" s="69"/>
@@ -12064,12 +12143,12 @@
       <c r="X92" s="70">
         <v>0</v>
       </c>
-      <c r="Y92" s="132">
+      <c r="Y92" s="110">
         <v>0.21274820142748188</v>
       </c>
-      <c r="Z92" s="132"/>
-    </row>
-    <row r="93" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z92" s="110"/>
+    </row>
+    <row r="93" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="52"/>
       <c r="B93" s="52"/>
       <c r="C93" s="52"/>
@@ -12112,61 +12191,85 @@
       <c r="X93" s="70">
         <v>0.81612903225805888</v>
       </c>
-      <c r="Y93" s="139">
+      <c r="Y93" s="113">
         <v>0.33959791762831498</v>
       </c>
-      <c r="Z93" s="139"/>
+      <c r="Z93" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="Y92:Z92"/>
+    <mergeCell ref="Y93:Z93"/>
+    <mergeCell ref="Y86:Z86"/>
+    <mergeCell ref="Y87:Z87"/>
+    <mergeCell ref="Y88:Z88"/>
+    <mergeCell ref="Y89:Z89"/>
+    <mergeCell ref="Y90:Z90"/>
+    <mergeCell ref="Y91:Z91"/>
+    <mergeCell ref="Y78:Z78"/>
+    <mergeCell ref="Y79:Z79"/>
+    <mergeCell ref="Y80:Z80"/>
+    <mergeCell ref="Y81:Z81"/>
+    <mergeCell ref="P85:R85"/>
+    <mergeCell ref="Y85:Z85"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="Y73:Z73"/>
+    <mergeCell ref="Y74:Z74"/>
+    <mergeCell ref="Y75:Z75"/>
+    <mergeCell ref="Y76:Z76"/>
+    <mergeCell ref="Y77:Z77"/>
+    <mergeCell ref="Y63:Z63"/>
+    <mergeCell ref="Y64:Z64"/>
+    <mergeCell ref="Y65:Z65"/>
+    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="Y67:Z67"/>
+    <mergeCell ref="Y68:Z68"/>
+    <mergeCell ref="Y55:Z55"/>
+    <mergeCell ref="Y56:Z56"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="Y61:Z61"/>
+    <mergeCell ref="Y62:Z62"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
     <mergeCell ref="P14:R14"/>
     <mergeCell ref="Y14:Z14"/>
     <mergeCell ref="A89:C89"/>
@@ -12191,78 +12294,54 @@
     <mergeCell ref="A76:C76"/>
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A78:C78"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="Y55:Z55"/>
-    <mergeCell ref="Y56:Z56"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="Y61:Z61"/>
-    <mergeCell ref="Y62:Z62"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="P85:R85"/>
-    <mergeCell ref="Y85:Z85"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="Y73:Z73"/>
-    <mergeCell ref="Y74:Z74"/>
-    <mergeCell ref="Y75:Z75"/>
-    <mergeCell ref="Y76:Z76"/>
-    <mergeCell ref="Y77:Z77"/>
-    <mergeCell ref="Y63:Z63"/>
-    <mergeCell ref="Y64:Z64"/>
-    <mergeCell ref="Y65:Z65"/>
-    <mergeCell ref="Y66:Z66"/>
-    <mergeCell ref="Y67:Z67"/>
-    <mergeCell ref="Y68:Z68"/>
-    <mergeCell ref="Y92:Z92"/>
-    <mergeCell ref="Y93:Z93"/>
-    <mergeCell ref="Y86:Z86"/>
-    <mergeCell ref="Y87:Z87"/>
-    <mergeCell ref="Y88:Z88"/>
-    <mergeCell ref="Y89:Z89"/>
-    <mergeCell ref="Y90:Z90"/>
-    <mergeCell ref="Y91:Z91"/>
-    <mergeCell ref="Y78:Z78"/>
-    <mergeCell ref="Y79:Z79"/>
-    <mergeCell ref="Y80:Z80"/>
-    <mergeCell ref="Y81:Z81"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
